--- a/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
+++ b/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srika\Documents\Apartmentfiles-main (2)\Apartmentfiles-main\all files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srikanth.chinta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4E77BA-6A46-4123-9A32-8E49CD333408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACBDD18-933C-40C8-8446-F81630719574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{950FC3ED-9C44-4EF7-A297-395169E82580}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{950FC3ED-9C44-4EF7-A297-395169E82580}"/>
   </bookViews>
   <sheets>
     <sheet name="NDR B-Block Owners" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="Monthly Dues" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NDR B-Block Owners'!$A$3:$N$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'BIKE &amp; CAR PARKING DETAILS'!$A$1:$J$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NDR B-Block Owners'!$A$1:$AD$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'BIKE &amp; CAR PARKING DETAILS'!$A$1:$K$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Monthly Dues'!$A$1:$J$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'MONTHLY FORM'!$A$1:$H$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'NDR B-Block Owners'!$A$1:$N$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'NDR B-Block Owners'!$A$1:$R$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'NDR Tenant Details'!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="237">
   <si>
     <t>Flat No.</t>
   </si>
@@ -663,16 +663,7 @@
     <t>OCCUPIED BY 412 TENANT</t>
   </si>
   <si>
-    <t xml:space="preserve"> CAR OCCUPIER CONTACT NO</t>
-  </si>
-  <si>
     <t>VISHNU VARDHAN REDDY</t>
-  </si>
-  <si>
-    <t>CAR OCCUPIER NAME</t>
-  </si>
-  <si>
-    <t>BIKE TENANT NAME</t>
   </si>
   <si>
     <t xml:space="preserve">AP09CU7055
@@ -694,9 +685,6 @@
     <t>OCCUPIED BY A BLOCK MEMBER</t>
   </si>
   <si>
-    <t>CAR &amp; BIKE PARKING DETAILS</t>
-  </si>
-  <si>
     <t>COMMENTS</t>
   </si>
   <si>
@@ -740,13 +728,55 @@
   </si>
   <si>
     <t>MADASU NAVEEN</t>
+  </si>
+  <si>
+    <t>A.SATYAVATHI</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/407</t>
+  </si>
+  <si>
+    <t>6597-5177-0068</t>
+  </si>
+  <si>
+    <t>9908008387</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/107</t>
+  </si>
+  <si>
+    <t>K. SRINIVAS RAO</t>
+  </si>
+  <si>
+    <t>3738-0661-4782</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/202</t>
+  </si>
+  <si>
+    <t>7866074029</t>
+  </si>
+  <si>
+    <t>BIKE OWNER NAME</t>
+  </si>
+  <si>
+    <t>CAR OWNER NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAR OWNER CONTACT NO</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PARKING DETAILS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,14 +888,6 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -914,14 +936,6 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -992,7 +1006,23 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1000,10 +1030,19 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1051,18 +1090,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1125,19 +1164,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1383,184 +1409,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1572,14 +1425,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1588,22 +1441,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1612,13 +1465,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1626,35 +1479,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1664,216 +1517,140 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,70 +1659,55 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1954,7 +1716,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1963,64 +1725,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2098,15 +1885,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>730251</xdr:colOff>
+      <xdr:colOff>660399</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2134,8 +1921,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1371601" y="0"/>
-          <a:ext cx="971550" cy="857250"/>
+          <a:off x="1301749" y="6350"/>
+          <a:ext cx="787401" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2558,53 +2345,54 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.36328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+    <col min="12" max="12" width="17.08984375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="127"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -2614,28 +2402,31 @@
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
-    </row>
-    <row r="2" spans="1:27" s="27" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="130" t="s">
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+    </row>
+    <row r="2" spans="1:30" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="132"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
@@ -2645,53 +2436,68 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" ht="54" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+    </row>
+    <row r="3" spans="1:30" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="J3" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="K3" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="M3" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="O3" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="P3" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="Q3" s="130" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="163" t="s">
+      <c r="R3" s="134" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2712,30 +2518,46 @@
       <c r="G4" s="3">
         <v>7930</v>
       </c>
-      <c r="H4" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="3" t="str">
+        <f>CONCATENATE("XX",RIGHT(G4,2))</f>
+        <v>XX30</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1" t="str">
+        <f>CONCATENATE("XXXX-XXXX-",RIGHT(J4,4))</f>
+        <v>XXXX-XXXX-6939</v>
+      </c>
+      <c r="L4" s="97">
         <v>9440064842</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="M4" s="29" t="str">
+        <f>CONCATENATE("XXXXXXXX",RIGHT(L4,2))</f>
+        <v>XXXXXXXX42</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="O4" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
         <v>102087920</v>
       </c>
-      <c r="N4" s="165">
+      <c r="Q4" s="83">
         <v>1129922641</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
+      <c r="R4" s="93" t="str">
+        <f>CONCATENATE("XXXXXXXX",RIGHT(Q4,1))</f>
+        <v>XXXXXXXX1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2756,28 +2578,44 @@
       <c r="G5" s="3">
         <v>3842</v>
       </c>
-      <c r="H5" s="166" t="s">
+      <c r="H5" s="3" t="str">
+        <f t="shared" ref="H5:H61" si="0">CONCATENATE("XX",RIGHT(G5,2))</f>
+        <v>XX42</v>
+      </c>
+      <c r="I5" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="167" t="s">
+      <c r="K5" s="1" t="str">
+        <f t="shared" ref="K5:K62" si="1">CONCATENATE("XXXX-XXXX-",RIGHT(J5,4))</f>
+        <v>XXXX-XXXX-2864</v>
+      </c>
+      <c r="L5" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="M5" s="29" t="str">
+        <f t="shared" ref="M5:M62" si="2">CONCATENATE("XXXXXXXX",RIGHT(L5,2))</f>
+        <v>XXXXXXXX03</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="165">
+      <c r="O5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="83">
         <v>1129922643</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="168" t="s">
+      <c r="R5" s="93" t="str">
+        <f t="shared" ref="R5:R62" si="3">CONCATENATE("XXXXXXXX",RIGHT(Q5,1))</f>
+        <v>XXXXXXXX3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="100" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
@@ -2786,18 +2624,22 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="166" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="165"/>
-    </row>
-    <row r="7" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="163" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="93"/>
+    </row>
+    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="100" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3"/>
@@ -2806,18 +2648,22 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="165"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="163" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="93"/>
+    </row>
+    <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2838,26 +2684,39 @@
       <c r="G8" s="3">
         <v>2503</v>
       </c>
-      <c r="H8" s="166" t="s">
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX03</v>
+      </c>
+      <c r="I8" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="170"/>
-      <c r="J8" s="1">
+      <c r="J8" s="83"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="97">
         <v>9966316416</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="M8" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX16</v>
+      </c>
+      <c r="N8" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="165">
+      <c r="O8" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="83">
         <v>1129922651</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="163" t="s">
+      <c r="R8" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="79" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2873,33 +2732,49 @@
         <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G9" s="3">
         <v>1028</v>
       </c>
-      <c r="H9" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX28</v>
+      </c>
+      <c r="I9" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-2119</v>
+      </c>
+      <c r="L9" s="97">
         <v>8143243948</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="M9" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX48</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="165">
+      <c r="O9" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="83">
         <v>1129964747</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="163" t="s">
+      <c r="R9" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="79" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2920,30 +2795,46 @@
       <c r="G10" s="3">
         <v>7206</v>
       </c>
-      <c r="H10" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX06</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-1781</v>
+      </c>
+      <c r="L10" s="97">
         <v>9553665553</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="M10" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX53</v>
+      </c>
+      <c r="N10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="O10" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
         <v>102087926</v>
       </c>
-      <c r="N10" s="165">
+      <c r="Q10" s="83">
         <v>1129922658</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="168" t="s">
+      <c r="R10" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="100" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
@@ -2952,18 +2843,22 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="165"/>
-    </row>
-    <row r="12" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="163" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="93"/>
+    </row>
+    <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="100" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
@@ -2972,16 +2867,20 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="165"/>
-    </row>
-    <row r="13" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="163" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="93"/>
+    </row>
+    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="100" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3"/>
@@ -2990,18 +2889,22 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="166" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="165"/>
-    </row>
-    <row r="14" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="171" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="93"/>
+    </row>
+    <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="100" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
@@ -3009,19 +2912,23 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="166" t="s">
+      <c r="G14" s="84"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="165"/>
-    </row>
-    <row r="15" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="163" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="93"/>
+    </row>
+    <row r="15" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3037,35 +2944,51 @@
         <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" s="172">
+        <v>213</v>
+      </c>
+      <c r="G15" s="84">
         <v>6950</v>
       </c>
-      <c r="H15" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX50</v>
+      </c>
+      <c r="I15" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-9045</v>
+      </c>
+      <c r="L15" s="97">
         <v>9652328140</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="M15" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX40</v>
+      </c>
+      <c r="N15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="O15" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="1">
         <v>102087931</v>
       </c>
-      <c r="N15" s="165">
+      <c r="Q15" s="83">
         <v>1129922674</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163">
+      <c r="R15" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="79">
         <v>101</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3083,27 +3006,37 @@
       <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="172">
+      <c r="G16" s="84">
         <v>638</v>
       </c>
-      <c r="H16" s="166" t="s">
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX38</v>
+      </c>
+      <c r="I16" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="97">
         <v>9849559954</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="M16" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX54</v>
+      </c>
+      <c r="N16" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="165"/>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="168">
+      <c r="O16" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="93"/>
+    </row>
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="100">
         <v>102</v>
       </c>
       <c r="B17" s="3"/>
@@ -3111,19 +3044,23 @@
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="166" t="s">
+      <c r="G17" s="84"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="165"/>
-    </row>
-    <row r="18" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="173">
+      <c r="K17" s="1"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="93"/>
+    </row>
+    <row r="18" spans="1:18" ht="42" x14ac:dyDescent="0.4">
+      <c r="A18" s="85">
         <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3141,31 +3078,47 @@
       <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="172">
+      <c r="G18" s="84">
         <v>2896</v>
       </c>
-      <c r="H18" s="174" t="s">
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX96</v>
+      </c>
+      <c r="I18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-7204</v>
+      </c>
+      <c r="L18" s="97">
         <v>9976220740</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="M18" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX40</v>
+      </c>
+      <c r="N18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="175" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="165">
+      <c r="O18" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="83">
         <v>1129922680</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163">
+      <c r="R18" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="79">
         <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3183,29 +3136,42 @@
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="172" t="s">
+      <c r="G19" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="166" t="s">
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX52</v>
+      </c>
+      <c r="I19" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="97">
         <v>9676719775</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="M19" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX75</v>
+      </c>
+      <c r="N19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="165">
+      <c r="O19" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="83">
         <v>1129922682</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="168">
+      <c r="R19" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="100">
         <v>105</v>
       </c>
       <c r="B20" s="3"/>
@@ -3213,19 +3179,23 @@
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="166" t="s">
+      <c r="G20" s="84"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="165"/>
-    </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="171">
+      <c r="K20" s="1"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="93"/>
+    </row>
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="100">
         <v>106</v>
       </c>
       <c r="B21" s="3"/>
@@ -3233,39 +3203,81 @@
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="166" t="s">
+      <c r="G21" s="84"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="165"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="168">
+      <c r="K21" s="1"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="93"/>
+    </row>
+    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="79">
         <v>107</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="165"/>
-    </row>
-    <row r="23" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="163">
+      <c r="B22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="2">
+        <v>38591</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="84">
+        <v>12693</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>CONCATENATE("XX",RIGHT(G22,2))</f>
+        <v>XX93</v>
+      </c>
+      <c r="I22" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f>CONCATENATE("XXXX-XXXX-",RIGHT(J22,4))</f>
+        <v>XXXX-XXXX-0068</v>
+      </c>
+      <c r="L22" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" s="29" t="str">
+        <f>CONCATENATE("XXXXXXXX",RIGHT(L22,2))</f>
+        <v>XXXXXXXX87</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="83">
+        <v>1129922698</v>
+      </c>
+      <c r="R22" s="93" t="str">
+        <f>CONCATENATE("XXXXXXXX",RIGHT(Q22,1))</f>
+        <v>XXXXXXXX8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+      <c r="A23" s="79">
         <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3283,33 +3295,49 @@
       <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="172">
+      <c r="G23" s="84">
         <v>2559</v>
       </c>
-      <c r="H23" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX59</v>
+      </c>
+      <c r="I23" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-0354</v>
+      </c>
+      <c r="L23" s="97">
         <v>9642279724</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="M23" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX24</v>
+      </c>
+      <c r="N23" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="O23" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="1">
         <v>102087939</v>
       </c>
-      <c r="N23" s="165">
+      <c r="Q23" s="83">
         <v>1129922701</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163">
+      <c r="R23" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="79">
         <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3325,31 +3353,44 @@
         <v>28</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G24" s="172">
+        <v>213</v>
+      </c>
+      <c r="G24" s="84">
         <v>8740</v>
       </c>
-      <c r="H24" s="166" t="s">
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX40</v>
+      </c>
+      <c r="I24" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="97">
         <v>9845204445</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="M24" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX45</v>
+      </c>
+      <c r="N24" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L24" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="165">
+      <c r="O24" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="83">
         <v>1129922706</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="171">
+      <c r="R24" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="100">
         <v>110</v>
       </c>
       <c r="B25" s="3"/>
@@ -3357,101 +3398,131 @@
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="165"/>
-    </row>
-    <row r="26" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="163">
+      <c r="K25" s="1"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="93"/>
+    </row>
+    <row r="26" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+      <c r="A26" s="79">
         <v>111</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2">
         <v>38180</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G26" s="172">
+        <v>213</v>
+      </c>
+      <c r="G26" s="84">
         <v>7518</v>
       </c>
-      <c r="H26" s="166" t="s">
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX18</v>
+      </c>
+      <c r="I26" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="J26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-3928</v>
+      </c>
+      <c r="L26" s="97">
         <v>8977774851</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="M26" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX51</v>
+      </c>
+      <c r="N26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L26" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="O26" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="1">
         <v>102087942</v>
       </c>
-      <c r="N26" s="165">
+      <c r="Q26" s="83">
         <v>1129922732</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="168">
+      <c r="R26" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="79">
         <v>112</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" s="172"/>
-      <c r="H27" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1">
+        <v>213</v>
+      </c>
+      <c r="G27" s="84"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="97">
         <v>9391331089</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="M27" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX89</v>
+      </c>
+      <c r="N27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="O27" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="1">
         <v>102087943</v>
       </c>
-      <c r="N27" s="165">
+      <c r="Q27" s="83">
         <v>1129922738</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="163">
+      <c r="R27" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="79">
         <v>201</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3469,36 +3540,49 @@
       <c r="F28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="172">
+      <c r="G28" s="84">
         <v>470</v>
       </c>
-      <c r="H28" s="166" t="s">
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX70</v>
+      </c>
+      <c r="I28" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="97">
         <v>7337564523</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="M28" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX23</v>
+      </c>
+      <c r="N28" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="165">
+      <c r="O28" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="83">
         <v>1129922795</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="163">
+      <c r="R28" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+      <c r="A29" s="79">
         <v>202</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="D29" s="2">
         <v>43606</v>
@@ -3509,27 +3593,37 @@
       <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="172">
+      <c r="G29" s="84">
         <v>3531</v>
       </c>
-      <c r="H29" s="166" t="s">
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX31</v>
+      </c>
+      <c r="I29" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="97">
         <v>9866630674</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="M29" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX74</v>
+      </c>
+      <c r="N29" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L29" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="165"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="163">
+      <c r="O29" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="93"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="79">
         <v>203</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3547,33 +3641,49 @@
       <c r="F30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="172">
+      <c r="G30" s="84">
         <v>668</v>
       </c>
-      <c r="H30" s="166" t="s">
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX68</v>
+      </c>
+      <c r="I30" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-4668</v>
+      </c>
+      <c r="L30" s="97">
         <v>9866859505</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="M30" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX05</v>
+      </c>
+      <c r="N30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L30" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="1">
+      <c r="O30" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="1">
         <v>102087946</v>
       </c>
-      <c r="N30" s="165">
+      <c r="Q30" s="83">
         <v>1129922755</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="163">
+      <c r="R30" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="79">
         <v>204</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3589,23 +3699,27 @@
       <c r="F31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="172"/>
-      <c r="H31" s="166" t="s">
+      <c r="G31" s="84"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="166" t="s">
+      <c r="O31" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="165"/>
-    </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="168">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="93"/>
+    </row>
+    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="100">
         <v>205</v>
       </c>
       <c r="B32" s="3"/>
@@ -3613,19 +3727,23 @@
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="166" t="s">
+      <c r="G32" s="84"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="165"/>
-    </row>
-    <row r="33" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="163">
+      <c r="K32" s="1"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="93"/>
+    </row>
+    <row r="33" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+      <c r="A33" s="79">
         <v>206</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3641,35 +3759,51 @@
         <v>89</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G33" s="172">
+        <v>217</v>
+      </c>
+      <c r="G33" s="84">
         <v>3916</v>
       </c>
-      <c r="H33" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX16</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-0692</v>
+      </c>
+      <c r="L33" s="97">
         <v>9100501198</v>
       </c>
-      <c r="K33" s="29" t="s">
+      <c r="M33" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX98</v>
+      </c>
+      <c r="N33" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L33" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="1">
+      <c r="O33" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="1">
         <v>102087949</v>
       </c>
-      <c r="N33" s="165">
+      <c r="Q33" s="83">
         <v>1129922768</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="163">
+      <c r="R33" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="79">
         <v>207</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3687,27 +3821,37 @@
       <c r="F34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="172">
+      <c r="G34" s="84">
         <v>6828</v>
       </c>
-      <c r="H34" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1">
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX28</v>
+      </c>
+      <c r="I34" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="97">
         <v>9866332034</v>
       </c>
-      <c r="K34" s="29" t="s">
+      <c r="M34" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX34</v>
+      </c>
+      <c r="N34" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L34" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="165"/>
-    </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163">
+      <c r="O34" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="93"/>
+    </row>
+    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="100">
         <v>208</v>
       </c>
       <c r="B35" s="3"/>
@@ -3715,26 +3859,30 @@
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="1"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="169"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="165"/>
-    </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="163">
+      <c r="K35" s="1"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="93"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="79">
         <v>209</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D36" s="2">
         <v>42439</v>
@@ -3743,35 +3891,51 @@
         <v>28</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" s="172">
+        <v>213</v>
+      </c>
+      <c r="G36" s="84">
         <v>1459</v>
       </c>
-      <c r="H36" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX59</v>
+      </c>
+      <c r="I36" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-6732</v>
+      </c>
+      <c r="L36" s="97">
         <v>9885809995</v>
       </c>
-      <c r="K36" s="29" t="s">
+      <c r="M36" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX95</v>
+      </c>
+      <c r="N36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L36" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M36" s="1">
+      <c r="O36" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="1">
         <v>102087952</v>
       </c>
-      <c r="N36" s="165">
+      <c r="Q36" s="83">
         <v>1129922793</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="163">
+      <c r="R36" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="79">
         <v>210</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3787,35 +3951,51 @@
         <v>28</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" s="172">
+        <v>213</v>
+      </c>
+      <c r="G37" s="84">
         <v>6953</v>
       </c>
-      <c r="H37" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="H37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX53</v>
+      </c>
+      <c r="I37" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-3399</v>
+      </c>
+      <c r="L37" s="97">
         <v>9642115656</v>
       </c>
-      <c r="K37" s="29" t="s">
+      <c r="M37" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX56</v>
+      </c>
+      <c r="N37" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L37" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M37" s="1">
+      <c r="O37" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="1">
         <v>102087953</v>
       </c>
-      <c r="N37" s="165">
+      <c r="Q37" s="83">
         <v>1129922801</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="163">
+      <c r="R37" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="79">
         <v>211</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -3831,35 +4011,51 @@
         <v>28</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G38" s="172">
+        <v>213</v>
+      </c>
+      <c r="G38" s="84">
         <v>3551</v>
       </c>
-      <c r="H38" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="H38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX51</v>
+      </c>
+      <c r="I38" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-7485</v>
+      </c>
+      <c r="L38" s="97">
         <v>8341436085</v>
       </c>
-      <c r="K38" s="29" t="s">
+      <c r="M38" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX85</v>
+      </c>
+      <c r="N38" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L38" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="O38" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" s="1">
         <v>102087954</v>
       </c>
-      <c r="N38" s="165">
+      <c r="Q38" s="83">
         <v>1129922807</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="168">
+      <c r="R38" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="100">
         <v>212</v>
       </c>
       <c r="B39" s="3"/>
@@ -3867,19 +4063,23 @@
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="166" t="s">
+      <c r="G39" s="84"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="165"/>
-    </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="163">
+      <c r="K39" s="1"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="93"/>
+    </row>
+    <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="79">
         <v>301</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3897,33 +4097,49 @@
       <c r="F40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="172">
+      <c r="G40" s="84">
         <v>4094</v>
       </c>
-      <c r="H40" s="166" t="s">
+      <c r="H40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX94</v>
+      </c>
+      <c r="I40" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-3982</v>
+      </c>
+      <c r="L40" s="97">
         <v>9666600846</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="M40" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX46</v>
+      </c>
+      <c r="N40" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L40" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M40" s="1">
+      <c r="O40" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P40" s="1">
         <v>102087956</v>
       </c>
-      <c r="N40" s="165">
+      <c r="Q40" s="83">
         <v>1129922820</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="168">
+      <c r="R40" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="100">
         <v>302</v>
       </c>
       <c r="B41" s="3"/>
@@ -3935,19 +4151,23 @@
       <c r="F41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="172"/>
-      <c r="H41" s="166" t="s">
+      <c r="G41" s="84"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="169"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="165"/>
-    </row>
-    <row r="42" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="163">
+      <c r="L41" s="97"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="93"/>
+    </row>
+    <row r="42" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+      <c r="A42" s="79">
         <v>303</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3965,33 +4185,49 @@
       <c r="F42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="172">
+      <c r="G42" s="84">
         <v>9823</v>
       </c>
-      <c r="H42" s="166" t="s">
+      <c r="H42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX23</v>
+      </c>
+      <c r="I42" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-4993</v>
+      </c>
+      <c r="L42" s="97">
         <v>7569623188</v>
       </c>
-      <c r="K42" s="29" t="s">
+      <c r="M42" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX88</v>
+      </c>
+      <c r="N42" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L42" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="1">
+      <c r="O42" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="1">
         <v>102087958</v>
       </c>
-      <c r="N42" s="165">
+      <c r="Q42" s="83">
         <v>1129922837</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="163">
+      <c r="R42" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="79">
         <v>304</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -4009,27 +4245,37 @@
       <c r="F43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="172">
+      <c r="G43" s="84">
         <v>9374</v>
       </c>
-      <c r="H43" s="166" t="s">
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX74</v>
+      </c>
+      <c r="I43" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="97">
         <v>8106490701</v>
       </c>
-      <c r="K43" s="29" t="s">
+      <c r="M43" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX01</v>
+      </c>
+      <c r="N43" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L43" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="165"/>
-    </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="163">
+      <c r="O43" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="93"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="79">
         <v>305</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -4047,29 +4293,42 @@
       <c r="F44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="172">
+      <c r="G44" s="84">
         <v>6031</v>
       </c>
-      <c r="H44" s="166" t="s">
+      <c r="H44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX31</v>
+      </c>
+      <c r="I44" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="97">
         <v>8886394444</v>
       </c>
-      <c r="K44" s="29" t="s">
+      <c r="M44" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX44</v>
+      </c>
+      <c r="N44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L44" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="165">
+      <c r="O44" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="83">
         <v>1129922859</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="163">
+      <c r="R44" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="100">
         <v>306</v>
       </c>
       <c r="B45" s="3"/>
@@ -4077,23 +4336,27 @@
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="1"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="169"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="165"/>
-    </row>
-    <row r="46" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="163">
+      <c r="L45" s="97"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="93"/>
+    </row>
+    <row r="46" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+      <c r="A46" s="79">
         <v>307</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>106</v>
@@ -4107,33 +4370,49 @@
       <c r="F46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="172">
+      <c r="G46" s="84">
         <v>17916</v>
       </c>
-      <c r="H46" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX16</v>
+      </c>
+      <c r="I46" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-6549</v>
+      </c>
+      <c r="L46" s="97">
         <v>9642174652</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="M46" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX52</v>
+      </c>
+      <c r="N46" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L46" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="1">
+      <c r="O46" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="1">
         <v>102087962</v>
       </c>
-      <c r="N46" s="165">
+      <c r="Q46" s="83">
         <v>1129922884</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="163">
+      <c r="R46" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="79">
         <v>308</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -4151,29 +4430,42 @@
       <c r="F47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="172">
+      <c r="G47" s="84">
         <v>11840</v>
       </c>
-      <c r="H47" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="H47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX40</v>
+      </c>
+      <c r="I47" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-0278</v>
+      </c>
+      <c r="L47" s="97">
         <v>8099994599</v>
       </c>
-      <c r="K47" s="29" t="s">
+      <c r="M47" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX99</v>
+      </c>
+      <c r="N47" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L47" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="165"/>
-    </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="163">
+      <c r="O47" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="93"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79">
         <v>309</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -4189,33 +4481,49 @@
         <v>28</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="172">
+        <v>213</v>
+      </c>
+      <c r="G48" s="84">
         <v>10738</v>
       </c>
-      <c r="H48" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="H48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX38</v>
+      </c>
+      <c r="I48" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-5854</v>
+      </c>
+      <c r="L48" s="97">
         <v>8886922445</v>
       </c>
-      <c r="K48" s="29" t="s">
+      <c r="M48" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX45</v>
+      </c>
+      <c r="N48" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L48" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="165">
+      <c r="O48" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="83">
         <v>1129922900</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="163">
+      <c r="R48" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="100">
         <v>310</v>
       </c>
       <c r="B49" s="3"/>
@@ -4223,19 +4531,23 @@
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="166" t="s">
+      <c r="G49" s="84"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="169"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="165"/>
-    </row>
-    <row r="50" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="163">
+      <c r="L49" s="97"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="93"/>
+    </row>
+    <row r="50" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+      <c r="A50" s="79">
         <v>311</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -4251,35 +4563,51 @@
         <v>28</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G50" s="172">
+        <v>213</v>
+      </c>
+      <c r="G50" s="84">
         <v>4475</v>
       </c>
-      <c r="H50" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="H50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX75</v>
+      </c>
+      <c r="I50" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-1424</v>
+      </c>
+      <c r="L50" s="97">
         <v>9491825383</v>
       </c>
-      <c r="K50" s="29" t="s">
+      <c r="M50" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX83</v>
+      </c>
+      <c r="N50" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L50" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M50" s="1">
+      <c r="O50" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P50" s="1">
         <v>102087966</v>
       </c>
-      <c r="N50" s="165">
+      <c r="Q50" s="83">
         <v>1129922923</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="163">
+      <c r="R50" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="79">
         <v>312</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -4297,31 +4625,47 @@
       <c r="F51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="172">
+      <c r="G51" s="84">
         <v>45</v>
       </c>
-      <c r="H51" s="176" t="s">
+      <c r="H51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX45</v>
+      </c>
+      <c r="I51" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-9859</v>
+      </c>
+      <c r="L51" s="97">
         <v>9441284167</v>
       </c>
-      <c r="K51" s="29" t="s">
+      <c r="M51" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX67</v>
+      </c>
+      <c r="N51" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L51" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="165">
+      <c r="O51" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="83">
         <v>1129922925</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="163">
+      <c r="R51" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="79">
         <v>401</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -4339,33 +4683,49 @@
       <c r="F52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="172">
+      <c r="G52" s="84">
         <v>9235</v>
       </c>
-      <c r="H52" s="176" t="s">
+      <c r="H52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX35</v>
+      </c>
+      <c r="I52" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-3091</v>
+      </c>
+      <c r="L52" s="97">
         <v>9052338929</v>
       </c>
-      <c r="K52" s="29" t="s">
+      <c r="M52" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX29</v>
+      </c>
+      <c r="N52" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L52" s="177" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="1">
+      <c r="O52" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="1">
         <v>102087968</v>
       </c>
-      <c r="N52" s="165">
+      <c r="Q52" s="83">
         <v>1129922927</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="163">
+      <c r="R52" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="79">
         <v>402</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -4383,27 +4743,37 @@
       <c r="F53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="172">
+      <c r="G53" s="84">
         <v>4310</v>
       </c>
-      <c r="H53" s="166" t="s">
+      <c r="H53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX10</v>
+      </c>
+      <c r="I53" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="97">
         <v>9172125515</v>
       </c>
-      <c r="K53" s="29" t="s">
+      <c r="M53" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX15</v>
+      </c>
+      <c r="N53" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L53" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="165"/>
-    </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="168">
+      <c r="O53" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="93"/>
+    </row>
+    <row r="54" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="100">
         <v>403</v>
       </c>
       <c r="B54" s="3"/>
@@ -4411,66 +4781,78 @@
       <c r="D54" s="1"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="172"/>
-      <c r="H54" s="166" t="s">
+      <c r="G54" s="84"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="169"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="165"/>
-    </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="168">
-        <v>404</v>
+      <c r="L54" s="97"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="93"/>
+    </row>
+    <row r="55" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="100">
+        <v>405</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="172"/>
-      <c r="H55" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I55" s="1"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="169"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="165"/>
-    </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="171">
-        <v>405</v>
+      <c r="L55" s="97"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="93"/>
+    </row>
+    <row r="56" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="100">
+        <v>406</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="172"/>
-      <c r="H56" s="166" t="s">
+      <c r="G56" s="84"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="169"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="165"/>
-    </row>
-    <row r="57" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="163">
+      <c r="L56" s="97"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="93"/>
+    </row>
+    <row r="57" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+      <c r="A57" s="79">
         <v>406</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D57" s="2">
         <v>39273</v>
@@ -4481,53 +4863,105 @@
       <c r="F57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="172">
+      <c r="G57" s="84">
         <v>9383</v>
       </c>
-      <c r="H57" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="H57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX83</v>
+      </c>
+      <c r="I57" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-6746</v>
+      </c>
+      <c r="L57" s="97">
+        <v>8978833554</v>
+      </c>
+      <c r="M57" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX54</v>
+      </c>
+      <c r="N57" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O57" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="1">
+        <v>1103711139</v>
+      </c>
+      <c r="Q57" s="83">
+        <v>1129922942</v>
+      </c>
+      <c r="R57" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="79">
+        <v>407</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J57" s="1">
-        <v>8978833554</v>
-      </c>
-      <c r="K57" s="1" t="s">
+      <c r="D58" s="2">
+        <v>38591</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="84">
+        <v>12695</v>
+      </c>
+      <c r="H58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX95</v>
+      </c>
+      <c r="I58" s="80"/>
+      <c r="J58" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-4782</v>
+      </c>
+      <c r="L58" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="M58" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX29</v>
+      </c>
+      <c r="N58" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L57" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="1">
-        <v>1103711139</v>
-      </c>
-      <c r="N57" s="165">
-        <v>1129922942</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="168">
-        <v>407</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="172"/>
-      <c r="H58" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="169"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="165"/>
-    </row>
-    <row r="59" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="163">
+      <c r="O58" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="83">
+        <v>1129922953</v>
+      </c>
+      <c r="R58" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="79">
         <v>408</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -4545,31 +4979,44 @@
       <c r="F59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="172">
+      <c r="G59" s="84">
         <v>1061</v>
       </c>
-      <c r="H59" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1">
+      <c r="H59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX61</v>
+      </c>
+      <c r="I59" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="97">
         <v>9731149966</v>
       </c>
-      <c r="K59" s="29" t="s">
+      <c r="M59" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX66</v>
+      </c>
+      <c r="N59" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L59" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="1">
+      <c r="O59" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="1">
         <v>102087975</v>
       </c>
-      <c r="N59" s="165">
+      <c r="Q59" s="83">
         <v>1129922960</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="163">
+      <c r="R59" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="79">
         <v>409</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -4585,29 +5032,39 @@
         <v>28</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G60" s="172">
+        <v>213</v>
+      </c>
+      <c r="G60" s="84">
         <v>9524</v>
       </c>
-      <c r="H60" s="166" t="s">
+      <c r="H60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX24</v>
+      </c>
+      <c r="I60" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="97">
         <v>9490213534</v>
       </c>
-      <c r="K60" s="29" t="s">
+      <c r="M60" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX34</v>
+      </c>
+      <c r="N60" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L60" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="1"/>
-      <c r="N60" s="178"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="163">
+      <c r="O60" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="93"/>
+    </row>
+    <row r="61" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+      <c r="A61" s="79">
         <v>410</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4616,38 +5073,51 @@
       <c r="C61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="179" t="s">
+      <c r="D61" s="90" t="s">
         <v>114</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="172">
+        <v>213</v>
+      </c>
+      <c r="G61" s="84">
         <v>2270</v>
       </c>
-      <c r="H61" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1">
+      <c r="H61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX70</v>
+      </c>
+      <c r="I61" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="97">
         <v>9440376126</v>
       </c>
-      <c r="K61" s="29" t="s">
+      <c r="M61" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX26</v>
+      </c>
+      <c r="N61" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L61" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="M61" s="1"/>
-      <c r="N61" s="178">
+      <c r="O61" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1">
         <v>1129922979</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="163">
+      <c r="R61" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="79">
         <v>411</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -4661,31 +5131,44 @@
         <v>28</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G62" s="172"/>
-      <c r="H62" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="84"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-0844</v>
+      </c>
+      <c r="L62" s="97">
         <v>8019746225</v>
       </c>
-      <c r="K62" s="29" t="s">
+      <c r="M62" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX25</v>
+      </c>
+      <c r="N62" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L62" s="166" t="s">
+      <c r="O62" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="165">
+      <c r="P62" s="1"/>
+      <c r="Q62" s="83">
         <v>1129922983</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="168">
+      <c r="R62" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXXXXX3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="100">
         <v>412</v>
       </c>
       <c r="B63" s="3"/>
@@ -4693,19 +5176,23 @@
       <c r="D63" s="1"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="164" t="s">
-        <v>5</v>
-      </c>
-      <c r="I63" s="1"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="165"/>
-    </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="180">
+      <c r="L63" s="97"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="83"/>
+      <c r="R63" s="93"/>
+    </row>
+    <row r="64" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="135">
         <v>501</v>
       </c>
       <c r="B64" s="7"/>
@@ -4713,26 +5200,29 @@
       <c r="D64" s="8"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="166" t="s">
+      <c r="G64" s="91"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="182"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="183"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="92"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="92"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="95"/>
+      <c r="R64" s="96"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N64" xr:uid="{2E23CD3C-67D9-4948-AFDF-547E042F3E52}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="3" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4747,45 +5237,45 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="28" customWidth="1"/>
-    <col min="9" max="16377" width="8.77734375" style="28"/>
-    <col min="16378" max="16384" width="8.77734375" style="4"/>
+    <col min="9" max="16377" width="8.81640625" style="28"/>
+    <col min="16378" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="133"/>
-      <c r="B1" s="135" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="101"/>
+      <c r="B1" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="137"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="134"/>
-      <c r="B2" s="138" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
+    </row>
+    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="102"/>
+      <c r="B2" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="140"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+    </row>
+    <row r="3" spans="1:8" ht="49" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -4811,7 +5301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
@@ -4837,7 +5327,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
@@ -4863,7 +5353,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="30">
         <v>102</v>
       </c>
@@ -4875,7 +5365,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="30">
         <v>103</v>
       </c>
@@ -4891,7 +5381,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30">
         <v>106</v>
       </c>
@@ -4907,7 +5397,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="30">
         <v>107</v>
       </c>
@@ -4919,7 +5409,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="30">
         <v>110</v>
       </c>
@@ -4945,7 +5435,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="30">
         <v>111</v>
       </c>
@@ -4971,7 +5461,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30">
         <v>202</v>
       </c>
@@ -4983,7 +5473,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="30">
         <v>203</v>
       </c>
@@ -5001,7 +5491,7 @@
       <c r="G13" s="35"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="30">
         <v>204</v>
       </c>
@@ -5025,7 +5515,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="30">
         <v>206</v>
       </c>
@@ -5039,7 +5529,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="30">
         <v>208</v>
       </c>
@@ -5065,7 +5555,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="30">
         <v>306</v>
       </c>
@@ -5091,7 +5581,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="30">
         <v>307</v>
       </c>
@@ -5117,7 +5607,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="30">
         <v>312</v>
       </c>
@@ -5141,7 +5631,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="30">
         <v>403</v>
       </c>
@@ -5155,7 +5645,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="30">
         <v>404</v>
       </c>
@@ -5181,7 +5671,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="30">
         <v>405</v>
       </c>
@@ -5207,7 +5697,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="30">
         <v>406</v>
       </c>
@@ -5233,7 +5723,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="30">
         <v>407</v>
       </c>
@@ -5259,7 +5749,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="35.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="31">
         <v>412</v>
       </c>
@@ -5305,1339 +5795,1413 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5B0EBC-E2F5-45EF-AC0B-3B200FB879F9}">
-  <dimension ref="A1:J64"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.08984375" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="143"/>
-    </row>
-    <row r="2" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="144" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="147"/>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="149"/>
+    </row>
+    <row r="3" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="138" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="138" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="140" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="140" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="137" t="s">
+        <v>235</v>
+      </c>
+      <c r="K3" s="150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="142"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="63">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="62"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="62"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="62"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="62"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="49">
+        <v>101</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="49">
+        <v>102</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="62"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="56">
+        <v>103</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="62"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="49">
+        <v>104</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="49">
+        <v>105</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49">
+        <v>106</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="62"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="49">
+        <v>107</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="49">
+        <v>108</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="48">
+        <v>7846880618</v>
+      </c>
+      <c r="G23" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="49">
+        <v>109</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49">
+        <v>110</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="63">
+        <v>9054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49">
+        <v>111</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="48"/>
+      <c r="K26" s="63">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="49">
+        <v>112</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="49">
+        <v>201</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49">
+        <v>202</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="62"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49">
+        <v>203</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="62"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49">
+        <v>204</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="62"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49">
+        <v>205</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="62"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49">
+        <v>206</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="62"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49">
+        <v>207</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="62"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49">
+        <v>208</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="48">
+        <v>9676592931</v>
+      </c>
+      <c r="G35" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="62"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49">
+        <v>209</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="48">
+        <v>9063447284</v>
+      </c>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="62"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49">
+        <v>210</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="62"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49">
+        <v>211</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="50"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="62"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49">
         <v>212</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
-    </row>
-    <row r="3" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="I3" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" s="111" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="85" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="53"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="62"/>
+    </row>
+    <row r="40" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="49">
+        <v>301</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="53"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="50">
+        <v>9666600846</v>
+      </c>
+      <c r="K40" s="64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="49">
+        <v>302</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="53"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="65"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49">
+        <v>303</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="62"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="49">
+        <v>304</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="53"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="62"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="49">
+        <v>305</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="53"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="62"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="49">
+        <v>306</v>
+      </c>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="116"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="E45" s="50"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="J45" s="48"/>
+      <c r="K45" s="65" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="49">
+        <v>307</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="50"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J46" s="48"/>
+      <c r="K46" s="65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="49">
+        <v>308</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="50"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="62"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="49">
+        <v>309</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="50"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="62"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="49">
+        <v>310</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D49" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="56" t="s">
+      <c r="E49" s="53"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="65"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="49">
+        <v>311</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="50"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="62"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="49">
+        <v>312</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D51" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="112">
-        <v>9270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="56" t="s">
+      <c r="E51" s="53"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="62"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="49">
+        <v>401</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D52" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="E52" s="53"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="62"/>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="49">
+        <v>402</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D53" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="85" t="s">
+      <c r="E53" s="53"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="62"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="49">
+        <v>403</v>
+      </c>
+      <c r="B54" s="50"/>
+      <c r="C54" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="53"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="65"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="49">
+        <v>404</v>
+      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="50"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" s="48"/>
+      <c r="K55" s="62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="49">
+        <v>405</v>
+      </c>
+      <c r="B56" s="50"/>
+      <c r="C56" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="53"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="65"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="49">
+        <v>406</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="50"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="J57" s="48"/>
+      <c r="K57" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="49">
+        <v>407</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="69"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="85" t="s">
+      <c r="E58" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="48">
+        <v>8143130975</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="H58" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="I58" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="J58" s="48"/>
+      <c r="K58" s="65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="49">
+        <v>408</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="50"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="62"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="49">
+        <v>409</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="53"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="62"/>
+    </row>
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="49">
+        <v>410</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="50"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="62"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="49">
+        <v>411</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="69"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="85" t="s">
+      <c r="E62" s="50"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="62"/>
+    </row>
+    <row r="63" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="49">
+        <v>412</v>
+      </c>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="69"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="69"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="56" t="s">
+      <c r="E63" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F63" s="48">
+        <v>9494244058</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="I63" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="J63" s="48"/>
+      <c r="K63" s="64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="61">
+        <v>501</v>
+      </c>
+      <c r="B64" s="60"/>
+      <c r="C64" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D64" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="69"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="69"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53">
-        <v>101</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="69"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53">
-        <v>102</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="69"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60">
-        <v>103</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="69"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53">
-        <v>104</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53">
-        <v>105</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="69"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="53">
-        <v>106</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="69"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="53">
-        <v>107</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="69"/>
-    </row>
-    <row r="23" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="53">
-        <v>108</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="87">
-        <v>7846880618</v>
-      </c>
-      <c r="G23" s="100" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="I23" s="98"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="53">
-        <v>109</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="69"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="53">
-        <v>110</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="J25" s="71">
-        <v>9054</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="53">
-        <v>111</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" s="71">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="53">
-        <v>112</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="69"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53">
-        <v>201</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="69"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53">
-        <v>202</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="69"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53">
-        <v>203</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="69"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53">
-        <v>204</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="69"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="53">
-        <v>205</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="69"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="53">
-        <v>206</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="69"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="53">
-        <v>207</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="69"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="53">
-        <v>208</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="87">
-        <v>9676592931</v>
-      </c>
-      <c r="G35" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="H35" s="88" t="s">
-        <v>197</v>
-      </c>
-      <c r="I35" s="98"/>
-      <c r="J35" s="69"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="53">
-        <v>209</v>
-      </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="87">
-        <v>9063447284</v>
-      </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="69"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="53">
-        <v>210</v>
-      </c>
-      <c r="B37" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="69"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="53">
-        <v>211</v>
-      </c>
-      <c r="B38" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="69"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="53">
-        <v>212</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="69"/>
-    </row>
-    <row r="40" spans="1:10" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="53">
-        <v>301</v>
-      </c>
-      <c r="B40" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="72" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53">
-        <v>302</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="73"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53">
-        <v>303</v>
-      </c>
-      <c r="B42" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="69"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="53">
-        <v>304</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="69"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="53">
-        <v>305</v>
-      </c>
-      <c r="B44" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="69"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="53">
-        <v>306</v>
-      </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="85"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="J45" s="73" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="53">
-        <v>307</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="85"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="J46" s="73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="53">
-        <v>308</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="85"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="69"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="53">
-        <v>309</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="69"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="53">
-        <v>310</v>
-      </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="101"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="73"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="53">
-        <v>311</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="69"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="53">
-        <v>312</v>
-      </c>
-      <c r="B51" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="83"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="69"/>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="53">
-        <v>401</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="69"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="53">
-        <v>402</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="69"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="53">
-        <v>403</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="73"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="53">
-        <v>404</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="85"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="J55" s="69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="53">
-        <v>405</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="101"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="73"/>
-    </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="53">
-        <v>406</v>
-      </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="85"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="J57" s="74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="53">
-        <v>407</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="99" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="87">
-        <v>8143130975</v>
-      </c>
-      <c r="G58" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="H58" s="88" t="s">
-        <v>200</v>
-      </c>
-      <c r="I58" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="J58" s="73" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="53">
-        <v>408</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="85"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="69"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="53">
-        <v>409</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="101"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="69"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="53">
-        <v>410</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="85"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="69"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="53">
-        <v>411</v>
-      </c>
-      <c r="B62" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="85"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="69"/>
-    </row>
-    <row r="63" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="53">
-        <v>412</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="F63" s="87">
-        <v>9494244058</v>
-      </c>
-      <c r="G63" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="H63" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="I63" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="J63" s="75" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="65">
-        <v>501</v>
-      </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="105"/>
-      <c r="F64" s="106"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="77"/>
+      <c r="E64" s="151"/>
+      <c r="F64" s="152"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6653,81 +7217,81 @@
       <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.8">
+      <c r="A1" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="147" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="153"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="148" t="s">
+    <row r="2" spans="1:13" ht="31" x14ac:dyDescent="0.7">
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="154"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="78" t="s">
         <v>77</v>
       </c>
       <c r="I3" s="13"/>
@@ -6736,14 +7300,14 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
+    <row r="4" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="119">
+      <c r="E4" s="71">
         <v>208</v>
       </c>
       <c r="F4" s="3"/>
@@ -6755,14 +7319,14 @@
       <c r="L4" s="13"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="s">
+    <row r="5" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="119">
+      <c r="E5" s="71">
         <v>209</v>
       </c>
       <c r="F5" s="3"/>
@@ -6774,14 +7338,14 @@
       <c r="L5" s="13"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117" t="s">
+    <row r="6" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="69" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="119">
+      <c r="E6" s="71">
         <v>210</v>
       </c>
       <c r="F6" s="3"/>
@@ -6793,14 +7357,14 @@
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+    <row r="7" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="69" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="119">
+      <c r="E7" s="71">
         <v>211</v>
       </c>
       <c r="F7" s="3"/>
@@ -6812,14 +7376,14 @@
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+    <row r="8" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="119">
+      <c r="E8" s="71">
         <v>212</v>
       </c>
       <c r="F8" s="3"/>
@@ -6831,14 +7395,14 @@
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="117" t="s">
+    <row r="9" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="119">
+      <c r="E9" s="71">
         <v>301</v>
       </c>
       <c r="F9" s="3"/>
@@ -6850,14 +7414,14 @@
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+    <row r="10" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="119">
+      <c r="E10" s="71">
         <v>302</v>
       </c>
       <c r="F10" s="3"/>
@@ -6869,14 +7433,14 @@
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="117" t="s">
+    <row r="11" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="119">
+      <c r="E11" s="71">
         <v>303</v>
       </c>
       <c r="F11" s="3"/>
@@ -6888,14 +7452,14 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="117" t="s">
+    <row r="12" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="119">
+      <c r="E12" s="71">
         <v>304</v>
       </c>
       <c r="F12" s="3"/>
@@ -6907,14 +7471,14 @@
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+    <row r="13" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="119">
+      <c r="E13" s="71">
         <v>305</v>
       </c>
       <c r="F13" s="3"/>
@@ -6926,14 +7490,14 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117" t="s">
+    <row r="14" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="69" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="119">
+      <c r="E14" s="71">
         <v>306</v>
       </c>
       <c r="F14" s="3"/>
@@ -6945,14 +7509,14 @@
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="117" t="s">
+    <row r="15" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="119">
+      <c r="E15" s="71">
         <v>307</v>
       </c>
       <c r="F15" s="3"/>
@@ -6964,14 +7528,14 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117">
+    <row r="16" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="69">
         <v>101</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="119">
+      <c r="E16" s="71">
         <v>308</v>
       </c>
       <c r="F16" s="3"/>
@@ -6983,14 +7547,14 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117">
+    <row r="17" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="69">
         <v>102</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="119">
+      <c r="E17" s="71">
         <v>309</v>
       </c>
       <c r="F17" s="3"/>
@@ -7002,14 +7566,14 @@
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="117">
+    <row r="18" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="69">
         <v>103</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="119">
+      <c r="E18" s="71">
         <v>310</v>
       </c>
       <c r="F18" s="3"/>
@@ -7021,14 +7585,14 @@
       <c r="L18" s="13"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117">
+    <row r="19" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="69">
         <v>104</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="119">
+      <c r="E19" s="71">
         <v>311</v>
       </c>
       <c r="F19" s="3"/>
@@ -7040,14 +7604,14 @@
       <c r="L19" s="13"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117">
+    <row r="20" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="69">
         <v>105</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="119">
+      <c r="E20" s="71">
         <v>312</v>
       </c>
       <c r="F20" s="3"/>
@@ -7059,14 +7623,14 @@
       <c r="L20" s="13"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117">
+    <row r="21" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="69">
         <v>106</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="119">
+      <c r="E21" s="71">
         <v>401</v>
       </c>
       <c r="F21" s="3"/>
@@ -7078,14 +7642,14 @@
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="117">
+    <row r="22" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="69">
         <v>107</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="119">
+      <c r="E22" s="71">
         <v>402</v>
       </c>
       <c r="F22" s="3"/>
@@ -7097,14 +7661,14 @@
       <c r="L22" s="13"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117">
+    <row r="23" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="69">
         <v>108</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="119">
+      <c r="E23" s="71">
         <v>403</v>
       </c>
       <c r="F23" s="3"/>
@@ -7116,14 +7680,14 @@
       <c r="L23" s="13"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117">
+    <row r="24" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="69">
         <v>109</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="119">
+      <c r="E24" s="71">
         <v>404</v>
       </c>
       <c r="F24" s="3"/>
@@ -7135,14 +7699,14 @@
       <c r="L24" s="13"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117">
+    <row r="25" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="69">
         <v>110</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="119">
+      <c r="E25" s="71">
         <v>405</v>
       </c>
       <c r="F25" s="3"/>
@@ -7154,14 +7718,14 @@
       <c r="L25" s="13"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117">
+    <row r="26" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="69">
         <v>111</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="119">
+      <c r="E26" s="71">
         <v>406</v>
       </c>
       <c r="F26" s="3"/>
@@ -7173,14 +7737,14 @@
       <c r="L26" s="13"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="117">
+    <row r="27" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="69">
         <v>112</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="119">
+      <c r="E27" s="71">
         <v>407</v>
       </c>
       <c r="F27" s="3"/>
@@ -7192,14 +7756,14 @@
       <c r="L27" s="13"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="117">
+    <row r="28" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="69">
         <v>201</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="119">
+      <c r="E28" s="71">
         <v>408</v>
       </c>
       <c r="F28" s="3"/>
@@ -7211,14 +7775,14 @@
       <c r="L28" s="13"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="117">
+    <row r="29" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="69">
         <v>202</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="119">
+      <c r="E29" s="71">
         <v>409</v>
       </c>
       <c r="F29" s="3"/>
@@ -7230,14 +7794,14 @@
       <c r="L29" s="13"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="117">
+    <row r="30" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="69">
         <v>203</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="119">
+      <c r="E30" s="71">
         <v>410</v>
       </c>
       <c r="F30" s="3"/>
@@ -7249,14 +7813,14 @@
       <c r="L30" s="13"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="117">
+    <row r="31" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="69">
         <v>204</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="119">
+      <c r="E31" s="71">
         <v>411</v>
       </c>
       <c r="F31" s="3"/>
@@ -7268,14 +7832,14 @@
       <c r="L31" s="13"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="117">
+    <row r="32" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="69">
         <v>205</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="120">
+      <c r="E32" s="72">
         <v>412</v>
       </c>
       <c r="F32" s="3"/>
@@ -7287,14 +7851,14 @@
       <c r="L32" s="13"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117">
+    <row r="33" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="69">
         <v>206</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="121">
+      <c r="E33" s="73">
         <v>501</v>
       </c>
       <c r="F33" s="3"/>
@@ -7306,14 +7870,14 @@
       <c r="L33" s="13"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="118">
+    <row r="34" spans="1:13" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="70">
         <v>207</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="122"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="16"/>
@@ -7323,7 +7887,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -7331,7 +7895,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -7339,7 +7903,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -7347,7 +7911,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -7355,7 +7919,7 @@
       <c r="L38" s="13"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -7363,7 +7927,7 @@
       <c r="L39" s="13"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -7371,7 +7935,7 @@
       <c r="L40" s="13"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -7379,7 +7943,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -7387,7 +7951,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
@@ -7395,7 +7959,7 @@
       <c r="L43" s="13"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -7403,7 +7967,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -7411,7 +7975,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
@@ -7419,7 +7983,7 @@
       <c r="L46" s="13"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -7427,7 +7991,7 @@
       <c r="L47" s="13"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -7435,7 +7999,7 @@
       <c r="L48" s="13"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -7443,7 +8007,7 @@
       <c r="L49" s="13"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
@@ -7451,7 +8015,7 @@
       <c r="L50" s="13"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
@@ -7459,7 +8023,7 @@
       <c r="L51" s="13"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -7467,7 +8031,7 @@
       <c r="L52" s="13"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
@@ -7475,7 +8039,7 @@
       <c r="L53" s="13"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -7483,7 +8047,7 @@
       <c r="L54" s="13"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -7491,7 +8055,7 @@
       <c r="L55" s="13"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -7499,7 +8063,7 @@
       <c r="L56" s="13"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -7507,7 +8071,7 @@
       <c r="L57" s="13"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -7515,7 +8079,7 @@
       <c r="L58" s="13"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -7523,7 +8087,7 @@
       <c r="L59" s="13"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -7531,7 +8095,7 @@
       <c r="L60" s="13"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -7539,7 +8103,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -7572,49 +8136,49 @@
       <selection sqref="A1:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="41.1796875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="41.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="41.36328125" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="24"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="155"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="117"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="5"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="156"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="118"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
@@ -7646,7 +8210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
@@ -7662,7 +8226,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -7678,7 +8242,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -7694,7 +8258,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -7710,7 +8274,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -7726,7 +8290,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
@@ -7742,7 +8306,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
@@ -7758,7 +8322,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
@@ -7774,7 +8338,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
@@ -7790,7 +8354,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -7806,7 +8370,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -7822,7 +8386,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -7838,7 +8402,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="19">
         <v>101</v>
       </c>
@@ -7854,7 +8418,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19">
         <v>102</v>
       </c>
@@ -7870,7 +8434,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="19">
         <v>103</v>
       </c>
@@ -7886,7 +8450,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19">
         <v>104</v>
       </c>
@@ -7902,7 +8466,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19">
         <v>105</v>
       </c>
@@ -7918,7 +8482,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19">
         <v>106</v>
       </c>
@@ -7934,7 +8498,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19">
         <v>107</v>
       </c>
@@ -7950,7 +8514,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19">
         <v>108</v>
       </c>
@@ -7966,7 +8530,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="19">
         <v>109</v>
       </c>
@@ -7982,7 +8546,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19">
         <v>110</v>
       </c>
@@ -7998,7 +8562,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="19">
         <v>111</v>
       </c>
@@ -8014,7 +8578,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19">
         <v>112</v>
       </c>
@@ -8030,7 +8594,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="19">
         <v>201</v>
       </c>
@@ -8046,7 +8610,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19">
         <v>202</v>
       </c>
@@ -8062,7 +8626,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="19">
         <v>203</v>
       </c>
@@ -8078,7 +8642,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19">
         <v>204</v>
       </c>
@@ -8094,7 +8658,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="19">
         <v>205</v>
       </c>
@@ -8110,7 +8674,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="20">
         <v>206</v>
       </c>

--- a/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
+++ b/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srikanth.chinta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACBDD18-933C-40C8-8446-F81630719574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466269F3-291C-426E-83FE-300AC04627F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{950FC3ED-9C44-4EF7-A297-395169E82580}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{950FC3ED-9C44-4EF7-A297-395169E82580}"/>
   </bookViews>
   <sheets>
     <sheet name="NDR B-Block Owners" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="236">
   <si>
     <t>Flat No.</t>
   </si>
@@ -467,9 +467,6 @@
   <si>
     <t>PULLAYAGARI VIJENDER 
 REDDY</t>
-  </si>
-  <si>
-    <t>Parking Area</t>
   </si>
   <si>
     <t>7652-6920-0354</t>
@@ -2347,8 +2344,8 @@
   </sheetPr>
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2466,7 +2463,7 @@
         <v>134</v>
       </c>
       <c r="I3" s="130" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="J3" s="129" t="s">
         <v>19</v>
@@ -2732,7 +2729,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" s="3">
         <v>1028</v>
@@ -2944,7 +2941,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G15" s="84">
         <v>6950</v>
@@ -3223,10 +3220,10 @@
         <v>107</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2">
         <v>38591</v>
@@ -3248,14 +3245,14 @@
         <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K22" s="1" t="str">
         <f>CONCATENATE("XXXX-XXXX-",RIGHT(J22,4))</f>
         <v>XXXX-XXXX-0068</v>
       </c>
       <c r="L22" s="97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M22" s="29" t="str">
         <f>CONCATENATE("XXXXXXXX",RIGHT(L22,2))</f>
@@ -3306,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3353,7 +3350,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G24" s="84">
         <v>8740</v>
@@ -3418,19 +3415,19 @@
         <v>111</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="2">
         <v>38180</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="G26" s="84">
         <v>7518</v>
@@ -3443,7 +3440,7 @@
         <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3478,17 +3475,17 @@
         <v>112</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="G27" s="84"/>
       <c r="H27" s="3"/>
@@ -3579,10 +3576,10 @@
         <v>202</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D29" s="2">
         <v>43606</v>
@@ -3687,10 +3684,10 @@
         <v>204</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
@@ -3759,7 +3756,7 @@
         <v>89</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G33" s="84">
         <v>3916</v>
@@ -3879,10 +3876,10 @@
         <v>209</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D36" s="2">
         <v>42439</v>
@@ -3891,7 +3888,7 @@
         <v>28</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G36" s="84">
         <v>1459</v>
@@ -3904,7 +3901,7 @@
         <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3951,7 +3948,7 @@
         <v>28</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G37" s="84">
         <v>6953</v>
@@ -4011,7 +4008,7 @@
         <v>28</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G38" s="84">
         <v>3551</v>
@@ -4024,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4171,7 +4168,7 @@
         <v>303</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>104</v>
@@ -4356,7 +4353,7 @@
         <v>307</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>106</v>
@@ -4481,7 +4478,7 @@
         <v>28</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G48" s="84">
         <v>10738</v>
@@ -4494,7 +4491,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4563,7 +4560,7 @@
         <v>28</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G50" s="84">
         <v>4475</v>
@@ -4636,7 +4633,7 @@
         <v>18</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4694,7 +4691,7 @@
         <v>18</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4849,10 +4846,10 @@
         <v>406</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D57" s="2">
         <v>39273</v>
@@ -4874,7 +4871,7 @@
         <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4909,10 +4906,10 @@
         <v>407</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D58" s="2">
         <v>38591</v>
@@ -4932,14 +4929,14 @@
       </c>
       <c r="I58" s="80"/>
       <c r="J58" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K58" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XXXX-XXXX-4782</v>
       </c>
       <c r="L58" s="97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M58" s="29" t="str">
         <f t="shared" si="2"/>
@@ -5032,7 +5029,7 @@
         <v>28</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G60" s="84">
         <v>9524</v>
@@ -5080,7 +5077,7 @@
         <v>28</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G61" s="84">
         <v>2270</v>
@@ -5131,7 +5128,7 @@
         <v>28</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G62" s="84"/>
       <c r="H62" s="3"/>
@@ -5286,7 +5283,7 @@
         <v>62</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>19</v>
@@ -5306,25 +5303,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="45">
         <v>9949005130</v>
       </c>
       <c r="D4" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="F4" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="G4" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="46" t="s">
-        <v>144</v>
-      </c>
       <c r="H4" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5332,7 +5329,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1">
         <v>8501089631</v>
@@ -5341,16 +5338,16 @@
         <v>9849268948</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="35">
         <v>9270</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5370,7 +5367,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1">
         <v>9491137522</v>
@@ -5386,7 +5383,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1">
         <v>8008144565</v>
@@ -5414,7 +5411,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1">
         <v>8919879180</v>
@@ -5423,16 +5420,16 @@
         <v>9395154320</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="35">
         <v>9054</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5440,7 +5437,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1">
         <v>8074809184</v>
@@ -5449,16 +5446,16 @@
         <v>8977774751</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="35">
         <v>9114</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5478,7 +5475,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1">
         <v>9959149184</v>
@@ -5496,7 +5493,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="1">
         <v>7995642029</v>
@@ -5505,14 +5502,14 @@
         <v>9908088809</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5523,7 +5520,7 @@
       <c r="C15" s="36"/>
       <c r="D15" s="35"/>
       <c r="E15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
@@ -5534,7 +5531,7 @@
         <v>208</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1">
         <v>9676592931</v>
@@ -5543,13 +5540,13 @@
         <v>9949355674</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H16" s="32">
         <v>208</v>
@@ -5560,7 +5557,7 @@
         <v>306</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="1">
         <v>9428449484</v>
@@ -5569,16 +5566,16 @@
         <v>8790737267</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G17" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5586,7 +5583,7 @@
         <v>307</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="1">
         <v>9885246127</v>
@@ -5595,16 +5592,16 @@
         <v>9642174652</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>160</v>
-      </c>
       <c r="G18" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5612,7 +5609,7 @@
         <v>312</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1">
         <v>9959969980</v>
@@ -5621,14 +5618,14 @@
         <v>9441284167</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5650,7 +5647,7 @@
         <v>404</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="1">
         <v>9398518785</v>
@@ -5659,16 +5656,16 @@
         <v>9849666424</v>
       </c>
       <c r="E21" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>175</v>
-      </c>
       <c r="G21" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5676,7 +5673,7 @@
         <v>405</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="1">
         <v>7846880618</v>
@@ -5685,13 +5682,13 @@
         <v>9000512505</v>
       </c>
       <c r="E22" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>178</v>
-      </c>
       <c r="G22" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="32">
         <v>108</v>
@@ -5702,7 +5699,7 @@
         <v>406</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="1">
         <v>7674987374</v>
@@ -5711,16 +5708,16 @@
         <v>8978833554</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5728,7 +5725,7 @@
         <v>407</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="1">
         <v>8143130975</v>
@@ -5737,16 +5734,16 @@
         <v>9014961279</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5754,22 +5751,22 @@
         <v>412</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="8">
         <v>9494244058</v>
       </c>
       <c r="D25" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="H25" s="33">
         <v>412</v>
@@ -5800,8 +5797,8 @@
   </sheetPr>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5836,7 +5833,7 @@
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="139"/>
       <c r="C2" s="139"/>
@@ -5857,31 +5854,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="E3" s="138" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="138" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="138" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="138" t="s">
+      <c r="H3" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="137" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="140" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="140" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" s="137" t="s">
-        <v>232</v>
-      </c>
-      <c r="J3" s="137" t="s">
-        <v>235</v>
-      </c>
       <c r="K3" s="150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5916,18 +5913,18 @@
         <v>18</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="142"/>
       <c r="F5" s="53"/>
       <c r="G5" s="54"/>
       <c r="H5" s="143"/>
       <c r="I5" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J5" s="50"/>
       <c r="K5" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5939,14 +5936,14 @@
         <v>18</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="54"/>
       <c r="H6" s="54"/>
       <c r="I6" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="63">
@@ -5962,7 +5959,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
@@ -5983,7 +5980,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
@@ -6078,7 +6075,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
@@ -6097,7 +6094,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="55"/>
@@ -6139,7 +6136,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="55"/>
@@ -6158,7 +6155,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="55"/>
@@ -6179,7 +6176,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="55"/>
@@ -6200,7 +6197,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="55"/>
@@ -6219,7 +6216,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="55"/>
@@ -6238,7 +6235,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="55"/>
@@ -6253,7 +6250,7 @@
         <v>107</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>5</v>
@@ -6283,16 +6280,16 @@
         <v>56</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" s="48">
         <v>7846880618</v>
       </c>
       <c r="G23" s="141" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I23" s="141"/>
       <c r="J23" s="141"/>
@@ -6309,7 +6306,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="55"/>
@@ -6335,7 +6332,7 @@
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J25" s="48"/>
       <c r="K25" s="63">
@@ -6351,14 +6348,14 @@
         <v>18</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="53"/>
       <c r="F26" s="55"/>
       <c r="G26" s="54"/>
       <c r="H26" s="54"/>
       <c r="I26" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J26" s="48"/>
       <c r="K26" s="63">
@@ -6395,7 +6392,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="55"/>
@@ -6416,7 +6413,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29" s="55"/>
@@ -6437,7 +6434,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="53"/>
       <c r="F30" s="55"/>
@@ -6452,13 +6449,13 @@
         <v>204</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C31" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="55"/>
@@ -6477,7 +6474,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="53"/>
       <c r="F32" s="55"/>
@@ -6541,16 +6538,16 @@
         <v>86</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F35" s="48">
         <v>9676592931</v>
       </c>
       <c r="G35" s="141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I35" s="141"/>
       <c r="J35" s="141"/>
@@ -6568,14 +6565,14 @@
         <v>86</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F36" s="48">
         <v>9063447284</v>
       </c>
       <c r="G36" s="48"/>
       <c r="H36" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="48"/>
@@ -6632,7 +6629,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="55"/>
@@ -6653,7 +6650,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="53"/>
       <c r="F40" s="55"/>
@@ -6666,7 +6663,7 @@
         <v>9666600846</v>
       </c>
       <c r="K40" s="64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6678,7 +6675,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" s="53"/>
       <c r="F41" s="55"/>
@@ -6693,13 +6690,13 @@
         <v>303</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" s="53"/>
       <c r="F42" s="55"/>
@@ -6720,7 +6717,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" s="53"/>
       <c r="F43" s="55"/>
@@ -6741,7 +6738,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="53"/>
       <c r="F44" s="55"/>
@@ -6767,11 +6764,11 @@
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J45" s="48"/>
       <c r="K45" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
@@ -6792,11 +6789,11 @@
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
       <c r="I46" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J46" s="48"/>
       <c r="K46" s="65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6850,7 +6847,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="53"/>
       <c r="F49" s="55"/>
@@ -6892,7 +6889,7 @@
         <v>18</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="55"/>
@@ -6913,7 +6910,7 @@
         <v>18</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" s="53"/>
       <c r="F52" s="55"/>
@@ -6934,7 +6931,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" s="53"/>
       <c r="F53" s="55"/>
@@ -6953,7 +6950,7 @@
         <v>18</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="55"/>
@@ -6979,11 +6976,11 @@
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
       <c r="I55" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J55" s="48"/>
       <c r="K55" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6995,7 +6992,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="55"/>
@@ -7021,11 +7018,11 @@
       <c r="G57" s="48"/>
       <c r="H57" s="48"/>
       <c r="I57" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J57" s="48"/>
       <c r="K57" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7033,7 +7030,7 @@
         <v>407</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>5</v>
@@ -7042,23 +7039,23 @@
         <v>86</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F58" s="48">
         <v>8143130975</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I58" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J58" s="48"/>
       <c r="K58" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7093,7 +7090,7 @@
         <v>18</v>
       </c>
       <c r="D60" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E60" s="53"/>
       <c r="F60" s="55"/>
@@ -7157,23 +7154,23 @@
         <v>86</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F63" s="48">
         <v>9494244058</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H63" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I63" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J63" s="48"/>
       <c r="K63" s="64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7185,7 +7182,7 @@
         <v>18</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="151"/>
       <c r="F64" s="152"/>

--- a/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
+++ b/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srikanth.chinta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srika\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466269F3-291C-426E-83FE-300AC04627F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320439C3-E358-4F55-905B-B0906261BEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{950FC3ED-9C44-4EF7-A297-395169E82580}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{950FC3ED-9C44-4EF7-A297-395169E82580}"/>
   </bookViews>
   <sheets>
     <sheet name="NDR B-Block Owners" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Monthly Dues" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NDR B-Block Owners'!$A$1:$AD$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NDR B-Block Owners'!$B$3:$B$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'BIKE &amp; CAR PARKING DETAILS'!$A$1:$K$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Monthly Dues'!$A$1:$J$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'MONTHLY FORM'!$A$1:$H$34</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="249">
   <si>
     <t>Flat No.</t>
   </si>
@@ -767,6 +767,45 @@
   </si>
   <si>
     <t xml:space="preserve"> PARKING DETAILS</t>
+  </si>
+  <si>
+    <t>E.KANTHAIAH</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/102</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/105</t>
+  </si>
+  <si>
+    <t>5445-0554-0135</t>
+  </si>
+  <si>
+    <t>9441762193</t>
+  </si>
+  <si>
+    <t>DHARMA REDDY</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/208</t>
+  </si>
+  <si>
+    <t>0000=0000-0000</t>
+  </si>
+  <si>
+    <t>9949355674</t>
+  </si>
+  <si>
+    <t>KOMMU RAJESH</t>
+  </si>
+  <si>
+    <t>9000827569</t>
+  </si>
+  <si>
+    <t>XXXX-XXXX-XXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -1650,102 +1689,12 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1763,9 +1712,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1780,6 +1726,58 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1792,19 +1790,60 @@
     <xf numFmtId="0" fontId="34" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2344,52 +2383,53 @@
   </sheetPr>
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.08984375" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -2403,27 +2443,27 @@
       <c r="AC1"/>
       <c r="AD1"/>
     </row>
-    <row r="2" spans="1:30" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:30" s="27" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="132"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="120"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
@@ -2437,63 +2477,63 @@
       <c r="AC2"/>
       <c r="AD2"/>
     </row>
-    <row r="3" spans="1:30" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="133" t="s">
+    <row r="3" spans="1:30" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="130" t="s">
+      <c r="E3" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="130" t="s">
+      <c r="H3" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="130" t="s">
+      <c r="I3" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="J3" s="129" t="s">
+      <c r="J3" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="129" t="s">
+      <c r="K3" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="129" t="s">
+      <c r="L3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="129" t="s">
+      <c r="M3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="130" t="s">
+      <c r="N3" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="130" t="s">
+      <c r="O3" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="130" t="s">
+      <c r="P3" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="130" t="s">
+      <c r="Q3" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="104" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -2516,8 +2556,8 @@
         <v>7930</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f>CONCATENATE("XX",RIGHT(G4,2))</f>
-        <v>XX30</v>
+        <f>CONCATENATE("XXX",RIGHT(G4,1))</f>
+        <v>XXX0</v>
       </c>
       <c r="I4" s="80" t="s">
         <v>5</v>
@@ -2542,7 +2582,7 @@
       <c r="O4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="29">
         <v>102087920</v>
       </c>
       <c r="Q4" s="83">
@@ -2553,7 +2593,7 @@
         <v>XXXXXXXX1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -2576,8 +2616,8 @@
         <v>3842</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f t="shared" ref="H5:H61" si="0">CONCATENATE("XX",RIGHT(G5,2))</f>
-        <v>XX42</v>
+        <f>CONCATENATE("XXX",RIGHT(G5,1))</f>
+        <v>XXX2</v>
       </c>
       <c r="I5" s="81" t="s">
         <v>18</v>
@@ -2586,14 +2626,14 @@
         <v>128</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f t="shared" ref="K5:K62" si="1">CONCATENATE("XXXX-XXXX-",RIGHT(J5,4))</f>
+        <f t="shared" ref="K5:K62" si="0">CONCATENATE("XXXX-XXXX-",RIGHT(J5,4))</f>
         <v>XXXX-XXXX-2864</v>
       </c>
       <c r="L5" s="98" t="s">
         <v>129</v>
       </c>
       <c r="M5" s="29" t="str">
-        <f t="shared" ref="M5:M62" si="2">CONCATENATE("XXXXXXXX",RIGHT(L5,2))</f>
+        <f t="shared" ref="M5:M62" si="1">CONCATENATE("XXXXXXXX",RIGHT(L5,2))</f>
         <v>XXXXXXXX03</v>
       </c>
       <c r="N5" s="29" t="s">
@@ -2602,16 +2642,18 @@
       <c r="O5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q5" s="83">
         <v>1129922643</v>
       </c>
       <c r="R5" s="93" t="str">
-        <f t="shared" ref="R5:R62" si="3">CONCATENATE("XXXXXXXX",RIGHT(Q5,1))</f>
+        <f t="shared" ref="R5:R62" si="2">CONCATENATE("XXXXXXXX",RIGHT(Q5,1))</f>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="100" t="s">
         <v>7</v>
       </c>
@@ -2631,11 +2673,11 @@
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
       <c r="O6" s="82"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="83"/>
       <c r="R6" s="93"/>
     </row>
-    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
         <v>8</v>
       </c>
@@ -2655,11 +2697,11 @@
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
       <c r="O7" s="82"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="83"/>
       <c r="R7" s="93"/>
     </row>
-    <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="79" t="s">
         <v>9</v>
       </c>
@@ -2682,19 +2724,21 @@
         <v>2503</v>
       </c>
       <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX03</v>
+        <f>CONCATENATE("XXX",RIGHT(G8,1))</f>
+        <v>XXX3</v>
       </c>
       <c r="I8" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="83"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L8" s="97">
         <v>9966316416</v>
       </c>
       <c r="M8" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX16</v>
       </c>
       <c r="N8" s="29" t="s">
@@ -2703,16 +2747,18 @@
       <c r="O8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q8" s="83">
         <v>1129922651</v>
       </c>
       <c r="R8" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
         <v>10</v>
       </c>
@@ -2735,8 +2781,8 @@
         <v>1028</v>
       </c>
       <c r="H9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX28</v>
+        <f t="shared" ref="H9:H10" si="3">CONCATENATE("XXX",RIGHT(G9,1))</f>
+        <v>XXX8</v>
       </c>
       <c r="I9" s="80" t="s">
         <v>5</v>
@@ -2745,14 +2791,14 @@
         <v>90</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-2119</v>
       </c>
       <c r="L9" s="97">
         <v>8143243948</v>
       </c>
       <c r="M9" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX48</v>
       </c>
       <c r="N9" s="29" t="s">
@@ -2761,16 +2807,18 @@
       <c r="O9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q9" s="83">
         <v>1129964747</v>
       </c>
       <c r="R9" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
         <v>11</v>
       </c>
@@ -2793,8 +2841,8 @@
         <v>7206</v>
       </c>
       <c r="H10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX06</v>
+        <f t="shared" si="3"/>
+        <v>XXX6</v>
       </c>
       <c r="I10" s="80" t="s">
         <v>5</v>
@@ -2803,14 +2851,14 @@
         <v>81</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-1781</v>
       </c>
       <c r="L10" s="97">
         <v>9553665553</v>
       </c>
       <c r="M10" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX53</v>
       </c>
       <c r="N10" s="29" t="s">
@@ -2819,18 +2867,18 @@
       <c r="O10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="29">
         <v>102087926</v>
       </c>
       <c r="Q10" s="83">
         <v>1129922658</v>
       </c>
       <c r="R10" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="100" t="s">
         <v>12</v>
       </c>
@@ -2850,11 +2898,11 @@
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
       <c r="O11" s="82"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="93"/>
     </row>
-    <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="100" t="s">
         <v>13</v>
       </c>
@@ -2872,11 +2920,11 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="82"/>
-      <c r="P12" s="1"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="83"/>
       <c r="R12" s="93"/>
     </row>
-    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="100" t="s">
         <v>14</v>
       </c>
@@ -2896,11 +2944,11 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="82"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="83"/>
       <c r="R13" s="93"/>
     </row>
-    <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="100" t="s">
         <v>15</v>
       </c>
@@ -2920,11 +2968,11 @@
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
       <c r="O14" s="82"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="83"/>
       <c r="R14" s="93"/>
     </row>
-    <row r="15" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:30" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -2947,8 +2995,8 @@
         <v>6950</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX50</v>
+        <f>CONCATENATE("XXX",RIGHT(G15,1))</f>
+        <v>XXX0</v>
       </c>
       <c r="I15" s="80" t="s">
         <v>5</v>
@@ -2957,14 +3005,14 @@
         <v>135</v>
       </c>
       <c r="K15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-9045</v>
       </c>
       <c r="L15" s="97">
         <v>9652328140</v>
       </c>
       <c r="M15" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX40</v>
       </c>
       <c r="N15" s="29" t="s">
@@ -2973,18 +3021,18 @@
       <c r="O15" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="29">
         <v>102087931</v>
       </c>
       <c r="Q15" s="83">
         <v>1129922674</v>
       </c>
       <c r="R15" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX4</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="79">
         <v>101</v>
       </c>
@@ -3007,19 +3055,21 @@
         <v>638</v>
       </c>
       <c r="H16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX38</v>
+        <f>CONCATENATE("XXX",RIGHT(G16,1))</f>
+        <v>XXX8</v>
       </c>
       <c r="I16" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L16" s="97">
         <v>9849559954</v>
       </c>
       <c r="M16" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX54</v>
       </c>
       <c r="N16" s="29" t="s">
@@ -3028,35 +3078,71 @@
       <c r="O16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="1"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="83"/>
       <c r="R16" s="93"/>
     </row>
-    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="100">
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85">
         <v>102</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="2">
+        <v>38075</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="84">
+        <v>3718</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f>CONCATENATE("XXX",RIGHT(G17,1))</f>
+        <v>XXX8</v>
+      </c>
       <c r="I17" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="93"/>
-    </row>
-    <row r="18" spans="1:18" ht="42" x14ac:dyDescent="0.4">
+      <c r="J17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>XXXX-XXXX-0135</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXXXXXX93</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="29">
+        <v>102087933</v>
+      </c>
+      <c r="Q17" s="83">
+        <v>1129922678</v>
+      </c>
+      <c r="R17" s="93" t="str">
+        <f>CONCATENATE("XXXXXXXX",RIGHT(Q17,1))</f>
+        <v>XXXXXXXX8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="85">
         <v>103</v>
       </c>
@@ -3079,8 +3165,8 @@
         <v>2896</v>
       </c>
       <c r="H18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX96</v>
+        <f>CONCATENATE("XXX",RIGHT(G18,1))</f>
+        <v>XXX6</v>
       </c>
       <c r="I18" s="86" t="s">
         <v>18</v>
@@ -3089,14 +3175,14 @@
         <v>95</v>
       </c>
       <c r="K18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-7204</v>
       </c>
       <c r="L18" s="97">
         <v>9976220740</v>
       </c>
       <c r="M18" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX40</v>
       </c>
       <c r="N18" s="29" t="s">
@@ -3105,16 +3191,18 @@
       <c r="O18" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="1"/>
+      <c r="P18" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q18" s="83">
         <v>1129922680</v>
       </c>
       <c r="R18" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79">
         <v>104</v>
       </c>
@@ -3137,19 +3225,21 @@
         <v>94</v>
       </c>
       <c r="H19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX52</v>
+        <f>CONCATENATE("XXX",RIGHT(G19,1))</f>
+        <v>XXX2</v>
       </c>
       <c r="I19" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L19" s="97">
         <v>9676719775</v>
       </c>
       <c r="M19" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX75</v>
       </c>
       <c r="N19" s="29" t="s">
@@ -3158,40 +3248,61 @@
       <c r="O19" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="1"/>
+      <c r="P19" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q19" s="83">
         <v>1129922682</v>
       </c>
       <c r="R19" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="100">
+    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79">
         <v>105</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G20" s="84"/>
       <c r="H20" s="3"/>
       <c r="I20" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="M20" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXXXXXX69</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="29"/>
       <c r="Q20" s="83"/>
       <c r="R20" s="93"/>
     </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="100">
         <v>106</v>
       </c>
@@ -3211,11 +3322,11 @@
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="82"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="83"/>
       <c r="R21" s="93"/>
     </row>
-    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="79">
         <v>107</v>
       </c>
@@ -3238,8 +3349,8 @@
         <v>12693</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f>CONCATENATE("XX",RIGHT(G22,2))</f>
-        <v>XX93</v>
+        <f>CONCATENATE("XXX",RIGHT(G22,1))</f>
+        <v>XXX3</v>
       </c>
       <c r="I22" s="80" t="s">
         <v>5</v>
@@ -3264,7 +3375,7 @@
       <c r="O22" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="1"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="83">
         <v>1129922698</v>
       </c>
@@ -3273,7 +3384,7 @@
         <v>XXXXXXXX8</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="79">
         <v>108</v>
       </c>
@@ -3296,8 +3407,8 @@
         <v>2559</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX59</v>
+        <f t="shared" ref="H23:H61" si="4">CONCATENATE("XXX",RIGHT(G23,1))</f>
+        <v>XXX9</v>
       </c>
       <c r="I23" s="80" t="s">
         <v>5</v>
@@ -3306,14 +3417,14 @@
         <v>138</v>
       </c>
       <c r="K23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-0354</v>
       </c>
       <c r="L23" s="97">
         <v>9642279724</v>
       </c>
       <c r="M23" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX24</v>
       </c>
       <c r="N23" s="29" t="s">
@@ -3322,18 +3433,18 @@
       <c r="O23" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="29">
         <v>102087939</v>
       </c>
       <c r="Q23" s="83">
         <v>1129922701</v>
       </c>
       <c r="R23" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="79">
         <v>109</v>
       </c>
@@ -3356,19 +3467,21 @@
         <v>8740</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX40</v>
+        <f t="shared" si="4"/>
+        <v>XXX0</v>
       </c>
       <c r="I24" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L24" s="97">
         <v>9845204445</v>
       </c>
       <c r="M24" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX45</v>
       </c>
       <c r="N24" s="29" t="s">
@@ -3377,16 +3490,18 @@
       <c r="O24" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="1"/>
+      <c r="P24" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q24" s="83">
         <v>1129922706</v>
       </c>
       <c r="R24" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX6</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="100">
         <v>110</v>
       </c>
@@ -3406,11 +3521,11 @@
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="82"/>
-      <c r="P25" s="1"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="83"/>
       <c r="R25" s="93"/>
     </row>
-    <row r="26" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="79">
         <v>111</v>
       </c>
@@ -3433,8 +3548,8 @@
         <v>7518</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX18</v>
+        <f t="shared" si="4"/>
+        <v>XXX8</v>
       </c>
       <c r="I26" s="81" t="s">
         <v>18</v>
@@ -3443,14 +3558,14 @@
         <v>213</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-3928</v>
       </c>
       <c r="L26" s="97">
         <v>8977774851</v>
       </c>
       <c r="M26" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX51</v>
       </c>
       <c r="N26" s="29" t="s">
@@ -3459,18 +3574,18 @@
       <c r="O26" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="29">
         <v>102087942</v>
       </c>
       <c r="Q26" s="83">
         <v>1129922732</v>
       </c>
       <c r="R26" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="79">
         <v>112</v>
       </c>
@@ -3488,7 +3603,10 @@
         <v>212</v>
       </c>
       <c r="G27" s="84"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>XXX</v>
+      </c>
       <c r="I27" s="80" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3616,7 @@
         <v>9391331089</v>
       </c>
       <c r="M27" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX89</v>
       </c>
       <c r="N27" s="29" t="s">
@@ -3507,18 +3625,18 @@
       <c r="O27" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="29">
         <v>102087943</v>
       </c>
       <c r="Q27" s="83">
         <v>1129922738</v>
       </c>
       <c r="R27" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX8</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="79">
         <v>201</v>
       </c>
@@ -3541,8 +3659,8 @@
         <v>470</v>
       </c>
       <c r="H28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX70</v>
+        <f t="shared" si="4"/>
+        <v>XXX0</v>
       </c>
       <c r="I28" s="81" t="s">
         <v>18</v>
@@ -3553,7 +3671,7 @@
         <v>7337564523</v>
       </c>
       <c r="M28" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX23</v>
       </c>
       <c r="N28" s="29" t="s">
@@ -3562,16 +3680,18 @@
       <c r="O28" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="1"/>
+      <c r="P28" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q28" s="83">
         <v>1129922795</v>
       </c>
       <c r="R28" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX5</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="79">
         <v>202</v>
       </c>
@@ -3594,19 +3714,21 @@
         <v>3531</v>
       </c>
       <c r="H29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX31</v>
+        <f t="shared" si="4"/>
+        <v>XXX1</v>
       </c>
       <c r="I29" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L29" s="97">
         <v>9866630674</v>
       </c>
       <c r="M29" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX74</v>
       </c>
       <c r="N29" s="29" t="s">
@@ -3615,11 +3737,11 @@
       <c r="O29" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="1"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="83"/>
       <c r="R29" s="93"/>
     </row>
-    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="79">
         <v>203</v>
       </c>
@@ -3642,8 +3764,8 @@
         <v>668</v>
       </c>
       <c r="H30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX68</v>
+        <f t="shared" si="4"/>
+        <v>XXX8</v>
       </c>
       <c r="I30" s="81" t="s">
         <v>18</v>
@@ -3652,14 +3774,14 @@
         <v>121</v>
       </c>
       <c r="K30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-4668</v>
       </c>
       <c r="L30" s="97">
         <v>9866859505</v>
       </c>
       <c r="M30" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX05</v>
       </c>
       <c r="N30" s="29" t="s">
@@ -3668,18 +3790,18 @@
       <c r="O30" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="29">
         <v>102087946</v>
       </c>
       <c r="Q30" s="83">
         <v>1129922755</v>
       </c>
       <c r="R30" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX5</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="79">
         <v>204</v>
       </c>
@@ -3697,7 +3819,10 @@
         <v>29</v>
       </c>
       <c r="G31" s="84"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>XXX</v>
+      </c>
       <c r="I31" s="81" t="s">
         <v>18</v>
       </c>
@@ -3711,11 +3836,11 @@
       <c r="O31" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="1"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="83"/>
       <c r="R31" s="93"/>
     </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="100">
         <v>205</v>
       </c>
@@ -3735,11 +3860,11 @@
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="82"/>
-      <c r="P32" s="1"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="83"/>
       <c r="R32" s="93"/>
     </row>
-    <row r="33" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="79">
         <v>206</v>
       </c>
@@ -3762,8 +3887,8 @@
         <v>3916</v>
       </c>
       <c r="H33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX16</v>
+        <f t="shared" si="4"/>
+        <v>XXX6</v>
       </c>
       <c r="I33" s="80" t="s">
         <v>5</v>
@@ -3772,14 +3897,14 @@
         <v>124</v>
       </c>
       <c r="K33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-0692</v>
       </c>
       <c r="L33" s="97">
         <v>9100501198</v>
       </c>
       <c r="M33" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX98</v>
       </c>
       <c r="N33" s="29" t="s">
@@ -3788,18 +3913,18 @@
       <c r="O33" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="29">
         <v>102087949</v>
       </c>
       <c r="Q33" s="83">
         <v>1129922768</v>
       </c>
       <c r="R33" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX8</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="79">
         <v>207</v>
       </c>
@@ -3822,19 +3947,21 @@
         <v>6828</v>
       </c>
       <c r="H34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX28</v>
+        <f t="shared" si="4"/>
+        <v>XXX8</v>
       </c>
       <c r="I34" s="80" t="s">
         <v>5</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L34" s="97">
         <v>9866332034</v>
       </c>
       <c r="M34" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX34</v>
       </c>
       <c r="N34" s="29" t="s">
@@ -3843,35 +3970,69 @@
       <c r="O34" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P34" s="1"/>
+      <c r="P34" s="29"/>
       <c r="Q34" s="83"/>
       <c r="R34" s="93"/>
     </row>
-    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="100">
+    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="79">
         <v>208</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="84">
+        <v>208</v>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>XXX8</v>
+      </c>
       <c r="I35" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="93"/>
-    </row>
-    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>XXXX-XXXX-0000</v>
+      </c>
+      <c r="L35" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="M35" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXXXXXX74</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="83">
+        <v>1129922784</v>
+      </c>
+      <c r="R35" s="93" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="79">
         <v>209</v>
       </c>
@@ -3894,8 +4055,8 @@
         <v>1459</v>
       </c>
       <c r="H36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX59</v>
+        <f t="shared" si="4"/>
+        <v>XXX9</v>
       </c>
       <c r="I36" s="80" t="s">
         <v>5</v>
@@ -3904,14 +4065,14 @@
         <v>205</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-6732</v>
       </c>
       <c r="L36" s="97">
         <v>9885809995</v>
       </c>
       <c r="M36" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX95</v>
       </c>
       <c r="N36" s="29" t="s">
@@ -3920,18 +4081,18 @@
       <c r="O36" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="29">
         <v>102087952</v>
       </c>
       <c r="Q36" s="83">
         <v>1129922793</v>
       </c>
       <c r="R36" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="79">
         <v>210</v>
       </c>
@@ -3954,8 +4115,8 @@
         <v>6953</v>
       </c>
       <c r="H37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX53</v>
+        <f t="shared" si="4"/>
+        <v>XXX3</v>
       </c>
       <c r="I37" s="80" t="s">
         <v>5</v>
@@ -3964,14 +4125,14 @@
         <v>108</v>
       </c>
       <c r="K37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-3399</v>
       </c>
       <c r="L37" s="97">
         <v>9642115656</v>
       </c>
       <c r="M37" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX56</v>
       </c>
       <c r="N37" s="29" t="s">
@@ -3980,18 +4141,18 @@
       <c r="O37" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="29">
         <v>102087953</v>
       </c>
       <c r="Q37" s="83">
         <v>1129922801</v>
       </c>
       <c r="R37" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="79">
         <v>211</v>
       </c>
@@ -4014,8 +4175,8 @@
         <v>3551</v>
       </c>
       <c r="H38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX51</v>
+        <f t="shared" si="4"/>
+        <v>XXX1</v>
       </c>
       <c r="I38" s="80" t="s">
         <v>5</v>
@@ -4024,14 +4185,14 @@
         <v>189</v>
       </c>
       <c r="K38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-7485</v>
       </c>
       <c r="L38" s="97">
         <v>8341436085</v>
       </c>
       <c r="M38" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX85</v>
       </c>
       <c r="N38" s="29" t="s">
@@ -4040,18 +4201,18 @@
       <c r="O38" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="29">
         <v>102087954</v>
       </c>
       <c r="Q38" s="83">
         <v>1129922807</v>
       </c>
       <c r="R38" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX7</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="100">
         <v>212</v>
       </c>
@@ -4071,11 +4232,11 @@
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="82"/>
-      <c r="P39" s="1"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="83"/>
       <c r="R39" s="93"/>
     </row>
-    <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="79">
         <v>301</v>
       </c>
@@ -4098,8 +4259,8 @@
         <v>4094</v>
       </c>
       <c r="H40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX94</v>
+        <f t="shared" si="4"/>
+        <v>XXX4</v>
       </c>
       <c r="I40" s="81" t="s">
         <v>18</v>
@@ -4108,14 +4269,14 @@
         <v>83</v>
       </c>
       <c r="K40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-3982</v>
       </c>
       <c r="L40" s="97">
         <v>9666600846</v>
       </c>
       <c r="M40" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX46</v>
       </c>
       <c r="N40" s="29" t="s">
@@ -4124,30 +4285,26 @@
       <c r="O40" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="29">
         <v>102087956</v>
       </c>
       <c r="Q40" s="83">
         <v>1129922820</v>
       </c>
       <c r="R40" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="100">
         <v>302</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="84"/>
       <c r="H41" s="3"/>
       <c r="I41" s="81" t="s">
@@ -4159,11 +4316,11 @@
       <c r="M41" s="29"/>
       <c r="N41" s="1"/>
       <c r="O41" s="82"/>
-      <c r="P41" s="1"/>
+      <c r="P41" s="29"/>
       <c r="Q41" s="83"/>
       <c r="R41" s="93"/>
     </row>
-    <row r="42" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="79">
         <v>303</v>
       </c>
@@ -4186,8 +4343,8 @@
         <v>9823</v>
       </c>
       <c r="H42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX23</v>
+        <f t="shared" si="4"/>
+        <v>XXX3</v>
       </c>
       <c r="I42" s="81" t="s">
         <v>18</v>
@@ -4196,14 +4353,14 @@
         <v>110</v>
       </c>
       <c r="K42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-4993</v>
       </c>
       <c r="L42" s="97">
         <v>7569623188</v>
       </c>
       <c r="M42" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX88</v>
       </c>
       <c r="N42" s="29" t="s">
@@ -4212,18 +4369,18 @@
       <c r="O42" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="29">
         <v>102087958</v>
       </c>
       <c r="Q42" s="83">
         <v>1129922837</v>
       </c>
       <c r="R42" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX7</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="79">
         <v>304</v>
       </c>
@@ -4246,19 +4403,21 @@
         <v>9374</v>
       </c>
       <c r="H43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX74</v>
+        <f t="shared" si="4"/>
+        <v>XXX4</v>
       </c>
       <c r="I43" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L43" s="97">
         <v>8106490701</v>
       </c>
       <c r="M43" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX01</v>
       </c>
       <c r="N43" s="29" t="s">
@@ -4267,11 +4426,11 @@
       <c r="O43" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="1"/>
+      <c r="P43" s="29"/>
       <c r="Q43" s="83"/>
       <c r="R43" s="93"/>
     </row>
-    <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="79">
         <v>305</v>
       </c>
@@ -4294,19 +4453,21 @@
         <v>6031</v>
       </c>
       <c r="H44" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX31</v>
+        <f t="shared" si="4"/>
+        <v>XXX1</v>
       </c>
       <c r="I44" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L44" s="97">
         <v>8886394444</v>
       </c>
       <c r="M44" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX44</v>
       </c>
       <c r="N44" s="29" t="s">
@@ -4315,16 +4476,16 @@
       <c r="O44" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="1"/>
+      <c r="P44" s="29"/>
       <c r="Q44" s="83">
         <v>1129922859</v>
       </c>
       <c r="R44" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX9</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="100">
         <v>306</v>
       </c>
@@ -4344,11 +4505,11 @@
       <c r="M45" s="29"/>
       <c r="N45" s="1"/>
       <c r="O45" s="82"/>
-      <c r="P45" s="1"/>
+      <c r="P45" s="29"/>
       <c r="Q45" s="83"/>
       <c r="R45" s="93"/>
     </row>
-    <row r="46" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="79">
         <v>307</v>
       </c>
@@ -4371,8 +4532,8 @@
         <v>17916</v>
       </c>
       <c r="H46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX16</v>
+        <f t="shared" si="4"/>
+        <v>XXX6</v>
       </c>
       <c r="I46" s="80" t="s">
         <v>5</v>
@@ -4381,14 +4542,14 @@
         <v>125</v>
       </c>
       <c r="K46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-6549</v>
       </c>
       <c r="L46" s="97">
         <v>9642174652</v>
       </c>
       <c r="M46" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX52</v>
       </c>
       <c r="N46" s="29" t="s">
@@ -4397,18 +4558,18 @@
       <c r="O46" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="29">
         <v>102087962</v>
       </c>
       <c r="Q46" s="83">
         <v>1129922884</v>
       </c>
       <c r="R46" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX4</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="79">
         <v>308</v>
       </c>
@@ -4431,8 +4592,8 @@
         <v>11840</v>
       </c>
       <c r="H47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX40</v>
+        <f t="shared" si="4"/>
+        <v>XXX0</v>
       </c>
       <c r="I47" s="80" t="s">
         <v>5</v>
@@ -4441,14 +4602,14 @@
         <v>82</v>
       </c>
       <c r="K47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-0278</v>
       </c>
       <c r="L47" s="97">
         <v>8099994599</v>
       </c>
       <c r="M47" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX99</v>
       </c>
       <c r="N47" s="29" t="s">
@@ -4457,11 +4618,11 @@
       <c r="O47" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P47" s="1"/>
+      <c r="P47" s="29"/>
       <c r="Q47" s="83"/>
       <c r="R47" s="93"/>
     </row>
-    <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="79">
         <v>309</v>
       </c>
@@ -4484,8 +4645,8 @@
         <v>10738</v>
       </c>
       <c r="H48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX38</v>
+        <f t="shared" si="4"/>
+        <v>XXX8</v>
       </c>
       <c r="I48" s="80" t="s">
         <v>5</v>
@@ -4494,14 +4655,14 @@
         <v>187</v>
       </c>
       <c r="K48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-5854</v>
       </c>
       <c r="L48" s="97">
         <v>8886922445</v>
       </c>
       <c r="M48" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX45</v>
       </c>
       <c r="N48" s="29" t="s">
@@ -4510,16 +4671,16 @@
       <c r="O48" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="1"/>
+      <c r="P48" s="29"/>
       <c r="Q48" s="83">
         <v>1129922900</v>
       </c>
       <c r="R48" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="100">
         <v>310</v>
       </c>
@@ -4539,11 +4700,11 @@
       <c r="M49" s="29"/>
       <c r="N49" s="1"/>
       <c r="O49" s="82"/>
-      <c r="P49" s="1"/>
+      <c r="P49" s="29"/>
       <c r="Q49" s="83"/>
       <c r="R49" s="93"/>
     </row>
-    <row r="50" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A50" s="79">
         <v>311</v>
       </c>
@@ -4566,8 +4727,8 @@
         <v>4475</v>
       </c>
       <c r="H50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX75</v>
+        <f t="shared" si="4"/>
+        <v>XXX5</v>
       </c>
       <c r="I50" s="80" t="s">
         <v>5</v>
@@ -4576,14 +4737,14 @@
         <v>133</v>
       </c>
       <c r="K50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-1424</v>
       </c>
       <c r="L50" s="97">
         <v>9491825383</v>
       </c>
       <c r="M50" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX83</v>
       </c>
       <c r="N50" s="29" t="s">
@@ -4592,18 +4753,18 @@
       <c r="O50" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="29">
         <v>102087966</v>
       </c>
       <c r="Q50" s="83">
         <v>1129922923</v>
       </c>
       <c r="R50" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="79">
         <v>312</v>
       </c>
@@ -4626,8 +4787,8 @@
         <v>45</v>
       </c>
       <c r="H51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX45</v>
+        <f t="shared" si="4"/>
+        <v>XXX5</v>
       </c>
       <c r="I51" s="88" t="s">
         <v>18</v>
@@ -4636,14 +4797,14 @@
         <v>191</v>
       </c>
       <c r="K51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-9859</v>
       </c>
       <c r="L51" s="97">
         <v>9441284167</v>
       </c>
       <c r="M51" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX67</v>
       </c>
       <c r="N51" s="29" t="s">
@@ -4652,16 +4813,18 @@
       <c r="O51" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P51" s="1"/>
+      <c r="P51" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q51" s="83">
         <v>1129922925</v>
       </c>
       <c r="R51" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX5</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="79">
         <v>401</v>
       </c>
@@ -4684,8 +4847,8 @@
         <v>9235</v>
       </c>
       <c r="H52" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX35</v>
+        <f t="shared" si="4"/>
+        <v>XXX5</v>
       </c>
       <c r="I52" s="88" t="s">
         <v>18</v>
@@ -4694,14 +4857,14 @@
         <v>188</v>
       </c>
       <c r="K52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-3091</v>
       </c>
       <c r="L52" s="97">
         <v>9052338929</v>
       </c>
       <c r="M52" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX29</v>
       </c>
       <c r="N52" s="29" t="s">
@@ -4710,18 +4873,18 @@
       <c r="O52" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52" s="29">
         <v>102087968</v>
       </c>
       <c r="Q52" s="83">
         <v>1129922927</v>
       </c>
       <c r="R52" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX7</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="79">
         <v>402</v>
       </c>
@@ -4744,19 +4907,21 @@
         <v>4310</v>
       </c>
       <c r="H53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX10</v>
+        <f t="shared" si="4"/>
+        <v>XXX0</v>
       </c>
       <c r="I53" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L53" s="97">
         <v>9172125515</v>
       </c>
       <c r="M53" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX15</v>
       </c>
       <c r="N53" s="29" t="s">
@@ -4765,11 +4930,11 @@
       <c r="O53" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P53" s="1"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="83"/>
       <c r="R53" s="93"/>
     </row>
-    <row r="54" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="100">
         <v>403</v>
       </c>
@@ -4789,13 +4954,13 @@
       <c r="M54" s="29"/>
       <c r="N54" s="1"/>
       <c r="O54" s="82"/>
-      <c r="P54" s="1"/>
+      <c r="P54" s="29"/>
       <c r="Q54" s="83"/>
       <c r="R54" s="93"/>
     </row>
-    <row r="55" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="100">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
@@ -4813,13 +4978,13 @@
       <c r="M55" s="29"/>
       <c r="N55" s="1"/>
       <c r="O55" s="82"/>
-      <c r="P55" s="1"/>
+      <c r="P55" s="29"/>
       <c r="Q55" s="83"/>
       <c r="R55" s="93"/>
     </row>
-    <row r="56" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="100">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
@@ -4837,11 +5002,11 @@
       <c r="M56" s="29"/>
       <c r="N56" s="1"/>
       <c r="O56" s="82"/>
-      <c r="P56" s="1"/>
+      <c r="P56" s="29"/>
       <c r="Q56" s="83"/>
       <c r="R56" s="93"/>
     </row>
-    <row r="57" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="79">
         <v>406</v>
       </c>
@@ -4864,8 +5029,8 @@
         <v>9383</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX83</v>
+        <f t="shared" si="4"/>
+        <v>XXX3</v>
       </c>
       <c r="I57" s="80" t="s">
         <v>5</v>
@@ -4874,14 +5039,14 @@
         <v>219</v>
       </c>
       <c r="K57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-6746</v>
       </c>
       <c r="L57" s="97">
         <v>8978833554</v>
       </c>
       <c r="M57" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX54</v>
       </c>
       <c r="N57" s="29" t="s">
@@ -4890,18 +5055,18 @@
       <c r="O57" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57" s="29">
         <v>1103711139</v>
       </c>
       <c r="Q57" s="83">
         <v>1129922942</v>
       </c>
       <c r="R57" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="79">
         <v>407</v>
       </c>
@@ -4924,22 +5089,22 @@
         <v>12695</v>
       </c>
       <c r="H58" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX95</v>
+        <f t="shared" si="4"/>
+        <v>XXX5</v>
       </c>
       <c r="I58" s="80"/>
       <c r="J58" s="1" t="s">
         <v>228</v>
       </c>
       <c r="K58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-4782</v>
       </c>
       <c r="L58" s="97" t="s">
         <v>230</v>
       </c>
       <c r="M58" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX29</v>
       </c>
       <c r="N58" s="29" t="s">
@@ -4948,16 +5113,18 @@
       <c r="O58" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="1"/>
+      <c r="P58" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q58" s="83">
         <v>1129922953</v>
       </c>
       <c r="R58" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="79">
         <v>408</v>
       </c>
@@ -4980,19 +5147,21 @@
         <v>1061</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX61</v>
+        <f t="shared" si="4"/>
+        <v>XXX1</v>
       </c>
       <c r="I59" s="80" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L59" s="97">
         <v>9731149966</v>
       </c>
       <c r="M59" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX66</v>
       </c>
       <c r="N59" s="29" t="s">
@@ -5001,18 +5170,18 @@
       <c r="O59" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="29">
         <v>102087975</v>
       </c>
       <c r="Q59" s="83">
         <v>1129922960</v>
       </c>
       <c r="R59" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="79">
         <v>409</v>
       </c>
@@ -5035,19 +5204,21 @@
         <v>9524</v>
       </c>
       <c r="H60" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX24</v>
+        <f t="shared" si="4"/>
+        <v>XXX4</v>
       </c>
       <c r="I60" s="81" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="L60" s="97">
         <v>9490213534</v>
       </c>
       <c r="M60" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX34</v>
       </c>
       <c r="N60" s="29" t="s">
@@ -5056,11 +5227,11 @@
       <c r="O60" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P60" s="1"/>
+      <c r="P60" s="29"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="93"/>
     </row>
-    <row r="61" spans="1:18" ht="28" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="79">
         <v>410</v>
       </c>
@@ -5083,8 +5254,8 @@
         <v>2270</v>
       </c>
       <c r="H61" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>XX70</v>
+        <f t="shared" si="4"/>
+        <v>XXX0</v>
       </c>
       <c r="I61" s="80" t="s">
         <v>5</v>
@@ -5095,7 +5266,7 @@
         <v>9440376126</v>
       </c>
       <c r="M61" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX26</v>
       </c>
       <c r="N61" s="29" t="s">
@@ -5104,16 +5275,18 @@
       <c r="O61" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P61" s="1"/>
+      <c r="P61" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q61" s="1">
         <v>1129922979</v>
       </c>
       <c r="R61" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX9</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="79">
         <v>411</v>
       </c>
@@ -5139,14 +5312,14 @@
         <v>118</v>
       </c>
       <c r="K62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>XXXX-XXXX-0844</v>
       </c>
       <c r="L62" s="97">
         <v>8019746225</v>
       </c>
       <c r="M62" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXXXX25</v>
       </c>
       <c r="N62" s="29" t="s">
@@ -5155,16 +5328,18 @@
       <c r="O62" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="P62" s="1"/>
+      <c r="P62" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="Q62" s="83">
         <v>1129922983</v>
       </c>
       <c r="R62" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="100">
         <v>412</v>
       </c>
@@ -5184,12 +5359,12 @@
       <c r="M63" s="29"/>
       <c r="N63" s="1"/>
       <c r="O63" s="29"/>
-      <c r="P63" s="1"/>
+      <c r="P63" s="29"/>
       <c r="Q63" s="83"/>
       <c r="R63" s="93"/>
     </row>
-    <row r="64" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="135">
+    <row r="64" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="105">
         <v>501</v>
       </c>
       <c r="B64" s="7"/>
@@ -5198,7 +5373,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="91"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="94" t="s">
         <v>18</v>
       </c>
@@ -5208,7 +5383,7 @@
       <c r="M64" s="92"/>
       <c r="N64" s="8"/>
       <c r="O64" s="92"/>
-      <c r="P64" s="8"/>
+      <c r="P64" s="92"/>
       <c r="Q64" s="95"/>
       <c r="R64" s="96"/>
     </row>
@@ -5234,45 +5409,45 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="28" customWidth="1"/>
-    <col min="9" max="16377" width="8.81640625" style="28"/>
-    <col min="16378" max="16384" width="8.81640625" style="4"/>
+    <col min="9" max="16377" width="8.77734375" style="28"/>
+    <col min="16378" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="101"/>
-      <c r="B1" s="103" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="124"/>
+      <c r="B1" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="105"/>
-    </row>
-    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="102"/>
-      <c r="B2" s="106" t="s">
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="125"/>
+      <c r="B2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-    </row>
-    <row r="3" spans="1:8" ht="49" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="131"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -5298,7 +5473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
@@ -5324,7 +5499,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
@@ -5350,7 +5525,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="30">
         <v>102</v>
       </c>
@@ -5362,7 +5537,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="30">
         <v>103</v>
       </c>
@@ -5378,7 +5553,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="30">
         <v>106</v>
       </c>
@@ -5394,7 +5569,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="30">
         <v>107</v>
       </c>
@@ -5406,7 +5581,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="30">
         <v>110</v>
       </c>
@@ -5432,7 +5607,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="30">
         <v>111</v>
       </c>
@@ -5458,7 +5633,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="30">
         <v>202</v>
       </c>
@@ -5470,7 +5645,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="30">
         <v>203</v>
       </c>
@@ -5488,7 +5663,7 @@
       <c r="G13" s="35"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="30">
         <v>204</v>
       </c>
@@ -5512,7 +5687,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="30">
         <v>206</v>
       </c>
@@ -5526,7 +5701,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="30">
         <v>208</v>
       </c>
@@ -5552,7 +5727,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="30">
         <v>306</v>
       </c>
@@ -5578,7 +5753,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="30">
         <v>307</v>
       </c>
@@ -5604,7 +5779,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="30">
         <v>312</v>
       </c>
@@ -5628,7 +5803,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="30">
         <v>403</v>
       </c>
@@ -5642,7 +5817,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="30">
         <v>404</v>
       </c>
@@ -5668,7 +5843,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="30">
         <v>405</v>
       </c>
@@ -5694,7 +5869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="30">
         <v>406</v>
       </c>
@@ -5720,7 +5895,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="30">
         <v>407</v>
       </c>
@@ -5746,7 +5921,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" ht="35.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="31">
         <v>412</v>
       </c>
@@ -5801,87 +5976,87 @@
       <selection sqref="A1:K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.08984375" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="147"/>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="148" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="134"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="149"/>
-    </row>
-    <row r="3" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="136" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+    </row>
+    <row r="3" spans="1:11" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="138" t="s">
+      <c r="E3" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="140" t="s">
+      <c r="H3" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="137" t="s">
+      <c r="I3" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="137" t="s">
+      <c r="J3" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="K3" s="150" t="s">
+      <c r="K3" s="114" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
@@ -5902,7 +6077,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>6</v>
       </c>
@@ -5915,10 +6090,10 @@
       <c r="D5" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="142"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="53"/>
       <c r="G5" s="54"/>
-      <c r="H5" s="143"/>
+      <c r="H5" s="112"/>
       <c r="I5" s="50" t="s">
         <v>201</v>
       </c>
@@ -5927,7 +6102,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>7</v>
       </c>
@@ -5950,7 +6125,7 @@
         <v>9270</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>8</v>
       </c>
@@ -5969,7 +6144,7 @@
       <c r="J7" s="48"/>
       <c r="K7" s="62"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>9</v>
       </c>
@@ -5984,13 +6159,13 @@
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="142"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="54"/>
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
       <c r="K8" s="62"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
@@ -6011,7 +6186,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>11</v>
       </c>
@@ -6032,7 +6207,7 @@
       <c r="J10" s="48"/>
       <c r="K10" s="62"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>12</v>
       </c>
@@ -6051,7 +6226,7 @@
       <c r="J11" s="48"/>
       <c r="K11" s="62"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>13</v>
       </c>
@@ -6066,7 +6241,7 @@
       <c r="J12" s="48"/>
       <c r="K12" s="62"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>14</v>
       </c>
@@ -6085,7 +6260,7 @@
       <c r="J13" s="48"/>
       <c r="K13" s="62"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>15</v>
       </c>
@@ -6104,7 +6279,7 @@
       <c r="J14" s="48"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>16</v>
       </c>
@@ -6118,14 +6293,14 @@
         <v>86</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="144"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="62"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49">
         <v>101</v>
       </c>
@@ -6146,7 +6321,7 @@
       <c r="J16" s="48"/>
       <c r="K16" s="62"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49">
         <v>102</v>
       </c>
@@ -6165,7 +6340,7 @@
       <c r="J17" s="48"/>
       <c r="K17" s="62"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56">
         <v>103</v>
       </c>
@@ -6186,7 +6361,7 @@
       <c r="J18" s="48"/>
       <c r="K18" s="62"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49">
         <v>104</v>
       </c>
@@ -6207,7 +6382,7 @@
       <c r="J19" s="48"/>
       <c r="K19" s="62"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49">
         <v>105</v>
       </c>
@@ -6226,7 +6401,7 @@
       <c r="J20" s="48"/>
       <c r="K20" s="62"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49">
         <v>106</v>
       </c>
@@ -6245,7 +6420,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="62"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="49">
         <v>107</v>
       </c>
@@ -6259,14 +6434,14 @@
         <v>56</v>
       </c>
       <c r="E22" s="50"/>
-      <c r="F22" s="144"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
       <c r="J22" s="48"/>
       <c r="K22" s="62"/>
     </row>
-    <row r="23" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A23" s="49">
         <v>108</v>
       </c>
@@ -6285,17 +6460,17 @@
       <c r="F23" s="48">
         <v>7846880618</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="110" t="s">
         <v>190</v>
       </c>
       <c r="H23" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
       <c r="K23" s="62"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49">
         <v>109</v>
       </c>
@@ -6316,7 +6491,7 @@
       <c r="J24" s="48"/>
       <c r="K24" s="62"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="49">
         <v>110</v>
       </c>
@@ -6328,7 +6503,7 @@
         <v>56</v>
       </c>
       <c r="E25" s="50"/>
-      <c r="F25" s="144"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="48" t="s">
@@ -6339,7 +6514,7 @@
         <v>9054</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49">
         <v>111</v>
       </c>
@@ -6362,7 +6537,7 @@
         <v>9114</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49">
         <v>112</v>
       </c>
@@ -6374,14 +6549,14 @@
         <v>86</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="144"/>
+      <c r="F27" s="113"/>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
       <c r="J27" s="48"/>
       <c r="K27" s="62"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="49">
         <v>201</v>
       </c>
@@ -6402,7 +6577,7 @@
       <c r="J28" s="48"/>
       <c r="K28" s="62"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="49">
         <v>202</v>
       </c>
@@ -6423,7 +6598,7 @@
       <c r="J29" s="48"/>
       <c r="K29" s="62"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="49">
         <v>203</v>
       </c>
@@ -6444,7 +6619,7 @@
       <c r="J30" s="48"/>
       <c r="K30" s="62"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49">
         <v>204</v>
       </c>
@@ -6465,7 +6640,7 @@
       <c r="J31" s="48"/>
       <c r="K31" s="62"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49">
         <v>205</v>
       </c>
@@ -6484,7 +6659,7 @@
       <c r="J32" s="48"/>
       <c r="K32" s="62"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="49">
         <v>206</v>
       </c>
@@ -6498,14 +6673,14 @@
         <v>56</v>
       </c>
       <c r="E33" s="50"/>
-      <c r="F33" s="144"/>
+      <c r="F33" s="113"/>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
       <c r="J33" s="48"/>
       <c r="K33" s="62"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="49">
         <v>207</v>
       </c>
@@ -6519,14 +6694,14 @@
         <v>56</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="144"/>
+      <c r="F34" s="113"/>
       <c r="G34" s="48"/>
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
       <c r="J34" s="48"/>
       <c r="K34" s="62"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="49">
         <v>208</v>
       </c>
@@ -6543,17 +6718,17 @@
       <c r="F35" s="48">
         <v>9676592931</v>
       </c>
-      <c r="G35" s="141" t="s">
+      <c r="G35" s="110" t="s">
         <v>154</v>
       </c>
       <c r="H35" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
       <c r="K35" s="62"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="49">
         <v>209</v>
       </c>
@@ -6578,7 +6753,7 @@
       <c r="J36" s="48"/>
       <c r="K36" s="62"/>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="49">
         <v>210</v>
       </c>
@@ -6592,14 +6767,14 @@
         <v>86</v>
       </c>
       <c r="E37" s="50"/>
-      <c r="F37" s="144"/>
+      <c r="F37" s="113"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
       <c r="J37" s="48"/>
       <c r="K37" s="62"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="49">
         <v>211</v>
       </c>
@@ -6613,14 +6788,14 @@
         <v>86</v>
       </c>
       <c r="E38" s="50"/>
-      <c r="F38" s="144"/>
+      <c r="F38" s="113"/>
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="62"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="49">
         <v>212</v>
       </c>
@@ -6639,7 +6814,7 @@
       <c r="J39" s="48"/>
       <c r="K39" s="62"/>
     </row>
-    <row r="40" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A40" s="49">
         <v>301</v>
       </c>
@@ -6666,7 +6841,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="49">
         <v>302</v>
       </c>
@@ -6685,7 +6860,7 @@
       <c r="J41" s="48"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49">
         <v>303</v>
       </c>
@@ -6706,7 +6881,7 @@
       <c r="J42" s="48"/>
       <c r="K42" s="62"/>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49">
         <v>304</v>
       </c>
@@ -6727,7 +6902,7 @@
       <c r="J43" s="48"/>
       <c r="K43" s="62"/>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="49">
         <v>305</v>
       </c>
@@ -6748,7 +6923,7 @@
       <c r="J44" s="48"/>
       <c r="K44" s="62"/>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="49">
         <v>306</v>
       </c>
@@ -6760,7 +6935,7 @@
         <v>56</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="144"/>
+      <c r="F45" s="113"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="48" t="s">
@@ -6771,7 +6946,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A46" s="49">
         <v>307</v>
       </c>
@@ -6785,7 +6960,7 @@
         <v>86</v>
       </c>
       <c r="E46" s="50"/>
-      <c r="F46" s="144"/>
+      <c r="F46" s="113"/>
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
       <c r="I46" s="48" t="s">
@@ -6796,7 +6971,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="49">
         <v>308</v>
       </c>
@@ -6810,14 +6985,14 @@
         <v>86</v>
       </c>
       <c r="E47" s="50"/>
-      <c r="F47" s="144"/>
+      <c r="F47" s="113"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="48"/>
       <c r="J47" s="48"/>
       <c r="K47" s="62"/>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="49">
         <v>309</v>
       </c>
@@ -6831,14 +7006,14 @@
         <v>86</v>
       </c>
       <c r="E48" s="50"/>
-      <c r="F48" s="144"/>
+      <c r="F48" s="113"/>
       <c r="G48" s="48"/>
       <c r="H48" s="48"/>
       <c r="I48" s="48"/>
       <c r="J48" s="48"/>
       <c r="K48" s="62"/>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49">
         <v>310</v>
       </c>
@@ -6857,7 +7032,7 @@
       <c r="J49" s="48"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="49">
         <v>311</v>
       </c>
@@ -6871,14 +7046,14 @@
         <v>56</v>
       </c>
       <c r="E50" s="50"/>
-      <c r="F50" s="144"/>
+      <c r="F50" s="113"/>
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
       <c r="I50" s="48"/>
       <c r="J50" s="48"/>
       <c r="K50" s="62"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="49">
         <v>312</v>
       </c>
@@ -6899,7 +7074,7 @@
       <c r="J51" s="48"/>
       <c r="K51" s="62"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="49">
         <v>401</v>
       </c>
@@ -6920,7 +7095,7 @@
       <c r="J52" s="48"/>
       <c r="K52" s="62"/>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="49">
         <v>402</v>
       </c>
@@ -6941,7 +7116,7 @@
       <c r="J53" s="48"/>
       <c r="K53" s="62"/>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="49">
         <v>403</v>
       </c>
@@ -6960,7 +7135,7 @@
       <c r="J54" s="48"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="49">
         <v>404</v>
       </c>
@@ -6972,7 +7147,7 @@
         <v>56</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="144"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
       <c r="I55" s="48" t="s">
@@ -6983,7 +7158,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="49">
         <v>405</v>
       </c>
@@ -7002,7 +7177,7 @@
       <c r="J56" s="48"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="49">
         <v>406</v>
       </c>
@@ -7014,7 +7189,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="50"/>
-      <c r="F57" s="144"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="48"/>
       <c r="H57" s="48"/>
       <c r="I57" s="48" t="s">
@@ -7025,7 +7200,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="49">
         <v>407</v>
       </c>
@@ -7058,7 +7233,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="49">
         <v>408</v>
       </c>
@@ -7072,14 +7247,14 @@
         <v>86</v>
       </c>
       <c r="E59" s="50"/>
-      <c r="F59" s="144"/>
+      <c r="F59" s="113"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
       <c r="I59" s="48"/>
       <c r="J59" s="48"/>
       <c r="K59" s="62"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="49">
         <v>409</v>
       </c>
@@ -7100,7 +7275,7 @@
       <c r="J60" s="48"/>
       <c r="K60" s="62"/>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49">
         <v>410</v>
       </c>
@@ -7114,14 +7289,14 @@
         <v>86</v>
       </c>
       <c r="E61" s="50"/>
-      <c r="F61" s="144"/>
+      <c r="F61" s="113"/>
       <c r="G61" s="48"/>
       <c r="H61" s="48"/>
       <c r="I61" s="48"/>
       <c r="J61" s="48"/>
       <c r="K61" s="62"/>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="49">
         <v>411</v>
       </c>
@@ -7135,14 +7310,14 @@
         <v>56</v>
       </c>
       <c r="E62" s="50"/>
-      <c r="F62" s="144"/>
+      <c r="F62" s="113"/>
       <c r="G62" s="48"/>
       <c r="H62" s="48"/>
       <c r="I62" s="48"/>
       <c r="J62" s="48"/>
       <c r="K62" s="62"/>
     </row>
-    <row r="63" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A63" s="49">
         <v>412</v>
       </c>
@@ -7173,7 +7348,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="61">
         <v>501</v>
       </c>
@@ -7184,10 +7359,10 @@
       <c r="D64" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="151"/>
-      <c r="F64" s="152"/>
-      <c r="G64" s="153"/>
-      <c r="H64" s="153"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
       <c r="I64" s="59"/>
       <c r="J64" s="59"/>
       <c r="K64" s="68"/>
@@ -7214,59 +7389,59 @@
       <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.8">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="A1" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="109" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="115"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="144"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="31" x14ac:dyDescent="0.7">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="110" t="s">
+    <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="116"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="145"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
@@ -7297,7 +7472,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
@@ -7316,7 +7491,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
@@ -7335,7 +7510,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
         <v>7</v>
       </c>
@@ -7354,7 +7529,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69" t="s">
         <v>8</v>
       </c>
@@ -7373,7 +7548,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
@@ -7392,7 +7567,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
         <v>10</v>
       </c>
@@ -7411,7 +7586,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69" t="s">
         <v>11</v>
       </c>
@@ -7430,7 +7605,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="69" t="s">
         <v>12</v>
       </c>
@@ -7449,7 +7624,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="69" t="s">
         <v>13</v>
       </c>
@@ -7468,7 +7643,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69" t="s">
         <v>14</v>
       </c>
@@ -7487,7 +7662,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
         <v>15</v>
       </c>
@@ -7506,7 +7681,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
         <v>16</v>
       </c>
@@ -7525,7 +7700,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69">
         <v>101</v>
       </c>
@@ -7544,7 +7719,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="69">
         <v>102</v>
       </c>
@@ -7563,7 +7738,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="69">
         <v>103</v>
       </c>
@@ -7582,7 +7757,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="69">
         <v>104</v>
       </c>
@@ -7601,7 +7776,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="69">
         <v>105</v>
       </c>
@@ -7620,7 +7795,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="69">
         <v>106</v>
       </c>
@@ -7639,7 +7814,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="69">
         <v>107</v>
       </c>
@@ -7658,7 +7833,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="69">
         <v>108</v>
       </c>
@@ -7677,7 +7852,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="69">
         <v>109</v>
       </c>
@@ -7696,7 +7871,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="69">
         <v>110</v>
       </c>
@@ -7715,7 +7890,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="69">
         <v>111</v>
       </c>
@@ -7734,7 +7909,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="69">
         <v>112</v>
       </c>
@@ -7753,7 +7928,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="69">
         <v>201</v>
       </c>
@@ -7772,7 +7947,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69">
         <v>202</v>
       </c>
@@ -7791,7 +7966,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="69">
         <v>203</v>
       </c>
@@ -7810,7 +7985,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="69">
         <v>204</v>
       </c>
@@ -7829,7 +8004,7 @@
       <c r="L31" s="13"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="69">
         <v>205</v>
       </c>
@@ -7848,7 +8023,7 @@
       <c r="L32" s="13"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69">
         <v>206</v>
       </c>
@@ -7867,7 +8042,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="70">
         <v>207</v>
       </c>
@@ -7884,7 +8059,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -7892,7 +8067,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -7900,7 +8075,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -7908,7 +8083,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -7916,7 +8091,7 @@
       <c r="L38" s="13"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -7924,7 +8099,7 @@
       <c r="L39" s="13"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -7932,7 +8107,7 @@
       <c r="L40" s="13"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -7940,7 +8115,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -7948,7 +8123,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
@@ -7956,7 +8131,7 @@
       <c r="L43" s="13"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -7964,7 +8139,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -7972,7 +8147,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
@@ -7980,7 +8155,7 @@
       <c r="L46" s="13"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -7988,7 +8163,7 @@
       <c r="L47" s="13"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -7996,7 +8171,7 @@
       <c r="L48" s="13"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -8004,7 +8179,7 @@
       <c r="L49" s="13"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
@@ -8012,7 +8187,7 @@
       <c r="L50" s="13"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
@@ -8020,7 +8195,7 @@
       <c r="L51" s="13"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -8028,7 +8203,7 @@
       <c r="L52" s="13"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
@@ -8036,7 +8211,7 @@
       <c r="L53" s="13"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -8044,7 +8219,7 @@
       <c r="L54" s="13"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -8052,7 +8227,7 @@
       <c r="L55" s="13"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -8060,7 +8235,7 @@
       <c r="L56" s="13"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -8068,7 +8243,7 @@
       <c r="L57" s="13"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -8076,7 +8251,7 @@
       <c r="L58" s="13"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -8084,7 +8259,7 @@
       <c r="L59" s="13"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -8092,7 +8267,7 @@
       <c r="L60" s="13"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -8100,7 +8275,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -8133,49 +8308,49 @@
       <selection sqref="A1:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="41.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="41.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="24"/>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="117"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="146"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="118"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="147"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
@@ -8207,7 +8382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
@@ -8223,7 +8398,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -8239,7 +8414,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -8255,7 +8430,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -8271,7 +8446,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -8287,7 +8462,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
@@ -8303,7 +8478,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
@@ -8319,7 +8494,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
@@ -8335,7 +8510,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
@@ -8351,7 +8526,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -8367,7 +8542,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -8383,7 +8558,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -8399,7 +8574,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>101</v>
       </c>
@@ -8415,7 +8590,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>102</v>
       </c>
@@ -8431,7 +8606,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>103</v>
       </c>
@@ -8447,7 +8622,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>104</v>
       </c>
@@ -8463,7 +8638,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>105</v>
       </c>
@@ -8479,7 +8654,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>106</v>
       </c>
@@ -8495,7 +8670,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>107</v>
       </c>
@@ -8511,7 +8686,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>108</v>
       </c>
@@ -8527,7 +8702,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <v>109</v>
       </c>
@@ -8543,7 +8718,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>110</v>
       </c>
@@ -8559,7 +8734,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19">
         <v>111</v>
       </c>
@@ -8575,7 +8750,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>112</v>
       </c>
@@ -8591,7 +8766,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
         <v>201</v>
       </c>
@@ -8607,7 +8782,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>202</v>
       </c>
@@ -8623,7 +8798,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19">
         <v>203</v>
       </c>
@@ -8639,7 +8814,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19">
         <v>204</v>
       </c>
@@ -8655,7 +8830,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <v>205</v>
       </c>
@@ -8671,7 +8846,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20">
         <v>206</v>
       </c>

--- a/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
+++ b/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srika\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320439C3-E358-4F55-905B-B0906261BEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBCC20B-09E7-4B08-BA29-DA001F6CEAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{950FC3ED-9C44-4EF7-A297-395169E82580}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="267">
   <si>
     <t>Flat No.</t>
   </si>
@@ -778,6 +778,9 @@
     <t>1-33/3/6/B/105</t>
   </si>
   <si>
+    <t>1-33/3/6/B/106</t>
+  </si>
+  <si>
     <t>5445-0554-0135</t>
   </si>
   <si>
@@ -790,6 +793,12 @@
     <t>1-33/3/6/B/208</t>
   </si>
   <si>
+    <t>1-33/3/6/B/212</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/302</t>
+  </si>
+  <si>
     <t>0000=0000-0000</t>
   </si>
   <si>
@@ -806,6 +815,51 @@
   </si>
   <si>
     <t>XXXXXXXXX</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/G3</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/G4</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/G8</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/G9</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/G10</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/G11</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/110</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/205</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/306</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/310</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/403</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/412</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/501</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/404</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/405</t>
   </si>
 </sst>
 </file>
@@ -1058,14 +1112,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1076,6 +1122,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1689,18 +1743,6 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1736,24 +1778,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1778,22 +1802,22 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1842,6 +1866,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2383,9 +2437,9 @@
   </sheetPr>
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
+      <selection pane="topRight" sqref="A1:R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2409,27 +2463,27 @@
     <col min="17" max="17" width="12.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="123"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="150"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -2443,27 +2497,27 @@
       <c r="AC1"/>
       <c r="AD1"/>
     </row>
-    <row r="2" spans="1:30" s="27" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="118" t="s">
+    <row r="2" spans="1:30" s="27" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="120"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="153"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
@@ -2478,58 +2532,58 @@
       <c r="AD2"/>
     </row>
     <row r="3" spans="1:30" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="145" t="s">
         <v>193</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="102" t="s">
+      <c r="N3" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="102" t="s">
+      <c r="O3" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="102" t="s">
+      <c r="P3" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="102" t="s">
+      <c r="Q3" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="147" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2643,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="83">
         <v>1129922643</v>
@@ -2658,7 +2712,9 @@
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2682,7 +2738,9 @@
         <v>8</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2732,7 +2790,7 @@
       </c>
       <c r="J8" s="83"/>
       <c r="K8" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L8" s="97">
         <v>9966316416</v>
@@ -2748,7 +2806,7 @@
         <v>5</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="83">
         <v>1129922651</v>
@@ -2808,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="83">
         <v>1129964747</v>
@@ -2883,7 +2941,9 @@
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2907,7 +2967,9 @@
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2929,7 +2991,9 @@
         <v>14</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2953,7 +3017,9 @@
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3063,7 +3129,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L16" s="97">
         <v>9849559954</v>
@@ -3112,14 +3178,14 @@
         <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>XXXX-XXXX-0135</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M17" s="29" t="str">
         <f t="shared" si="1"/>
@@ -3192,7 +3258,7 @@
         <v>5</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="83">
         <v>1129922680</v>
@@ -3233,7 +3299,7 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L19" s="97">
         <v>9676719775</v>
@@ -3249,7 +3315,7 @@
         <v>5</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="83">
         <v>1129922682</v>
@@ -3264,7 +3330,7 @@
         <v>105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>238</v>
@@ -3283,10 +3349,10 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M20" s="29" t="str">
         <f t="shared" si="1"/>
@@ -3298,16 +3364,24 @@
       <c r="O20" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="93"/>
+      <c r="P20" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="100">
         <v>106</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3375,7 +3449,9 @@
       <c r="O22" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="29"/>
+      <c r="P22" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="Q22" s="83">
         <v>1129922698</v>
       </c>
@@ -3475,7 +3551,7 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L24" s="97">
         <v>9845204445</v>
@@ -3491,7 +3567,7 @@
         <v>5</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q24" s="83">
         <v>1129922706</v>
@@ -3506,7 +3582,9 @@
         <v>110</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3681,7 +3759,7 @@
         <v>5</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q28" s="83">
         <v>1129922795</v>
@@ -3722,7 +3800,7 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L29" s="97">
         <v>9866630674</v>
@@ -3845,7 +3923,9 @@
         <v>205</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3955,7 +4035,7 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L34" s="97">
         <v>9866332034</v>
@@ -3979,10 +4059,10 @@
         <v>208</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D35" s="1">
         <v>2005</v>
@@ -4004,14 +4084,13 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>XXXX-XXXX-0000</v>
+        <v>246</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="L35" s="97" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M35" s="29" t="str">
         <f t="shared" si="1"/>
@@ -4217,7 +4296,9 @@
         <v>212</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4301,7 +4382,9 @@
         <v>302</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4411,7 +4494,7 @@
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L43" s="97">
         <v>8106490701</v>
@@ -4461,7 +4544,7 @@
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L44" s="97">
         <v>8886394444</v>
@@ -4476,7 +4559,9 @@
       <c r="O44" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="29"/>
+      <c r="P44" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="Q44" s="83">
         <v>1129922859</v>
       </c>
@@ -4490,7 +4575,9 @@
         <v>306</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -4622,7 +4709,7 @@
       <c r="Q47" s="83"/>
       <c r="R47" s="93"/>
     </row>
-    <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="79">
         <v>309</v>
       </c>
@@ -4685,7 +4772,9 @@
         <v>310</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -4814,7 +4903,7 @@
         <v>5</v>
       </c>
       <c r="P51" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q51" s="83">
         <v>1129922925</v>
@@ -4915,7 +5004,7 @@
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L53" s="97">
         <v>9172125515</v>
@@ -4939,7 +5028,9 @@
         <v>403</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -4963,7 +5054,9 @@
         <v>404</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -4987,7 +5080,9 @@
         <v>405</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -5114,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="P58" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q58" s="83">
         <v>1129922953</v>
@@ -5155,7 +5250,7 @@
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L59" s="97">
         <v>9731149966</v>
@@ -5212,7 +5307,7 @@
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L60" s="97">
         <v>9490213534</v>
@@ -5276,7 +5371,7 @@
         <v>5</v>
       </c>
       <c r="P61" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q61" s="1">
         <v>1129922979</v>
@@ -5329,7 +5424,7 @@
         <v>18</v>
       </c>
       <c r="P62" s="29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q62" s="83">
         <v>1129922983</v>
@@ -5344,7 +5439,9 @@
         <v>412</v>
       </c>
       <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -5364,16 +5461,18 @@
       <c r="R63" s="93"/>
     </row>
     <row r="64" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="105">
+      <c r="A64" s="101">
         <v>501</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
+      <c r="C64" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="D64" s="8"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="91"/>
-      <c r="H64" s="3"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="94" t="s">
         <v>18</v>
       </c>
@@ -5394,7 +5493,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5424,28 +5523,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="124"/>
-      <c r="B1" s="126" t="s">
+      <c r="A1" s="114"/>
+      <c r="B1" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="125"/>
-      <c r="B2" s="129" t="s">
+      <c r="A2" s="115"/>
+      <c r="B2" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="131"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:8" ht="49.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="40" t="s">
@@ -5992,67 +6091,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="134"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="124"/>
     </row>
     <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="137"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:11" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="107" t="s">
+      <c r="I3" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="110" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6090,10 +6189,10 @@
       <c r="D5" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="53"/>
       <c r="G5" s="54"/>
-      <c r="H5" s="112"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="50" t="s">
         <v>201</v>
       </c>
@@ -6159,7 +6258,7 @@
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="111"/>
+      <c r="G8" s="107"/>
       <c r="H8" s="54"/>
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
@@ -6293,7 +6392,7 @@
         <v>86</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="113"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
@@ -6434,7 +6533,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="50"/>
-      <c r="F22" s="113"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
@@ -6460,14 +6559,14 @@
       <c r="F23" s="48">
         <v>7846880618</v>
       </c>
-      <c r="G23" s="110" t="s">
+      <c r="G23" s="106" t="s">
         <v>190</v>
       </c>
       <c r="H23" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
       <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6503,7 +6602,7 @@
         <v>56</v>
       </c>
       <c r="E25" s="50"/>
-      <c r="F25" s="113"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="48" t="s">
@@ -6549,7 +6648,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="113"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
@@ -6673,7 +6772,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="50"/>
-      <c r="F33" s="113"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
@@ -6694,7 +6793,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="113"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="48"/>
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
@@ -6718,14 +6817,14 @@
       <c r="F35" s="48">
         <v>9676592931</v>
       </c>
-      <c r="G35" s="110" t="s">
+      <c r="G35" s="106" t="s">
         <v>154</v>
       </c>
       <c r="H35" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
       <c r="K35" s="62"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6767,7 +6866,7 @@
         <v>86</v>
       </c>
       <c r="E37" s="50"/>
-      <c r="F37" s="113"/>
+      <c r="F37" s="109"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
@@ -6788,7 +6887,7 @@
         <v>86</v>
       </c>
       <c r="E38" s="50"/>
-      <c r="F38" s="113"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -6935,7 +7034,7 @@
         <v>56</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="113"/>
+      <c r="F45" s="109"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="48" t="s">
@@ -6960,7 +7059,7 @@
         <v>86</v>
       </c>
       <c r="E46" s="50"/>
-      <c r="F46" s="113"/>
+      <c r="F46" s="109"/>
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
       <c r="I46" s="48" t="s">
@@ -6985,7 +7084,7 @@
         <v>86</v>
       </c>
       <c r="E47" s="50"/>
-      <c r="F47" s="113"/>
+      <c r="F47" s="109"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="48"/>
@@ -7006,7 +7105,7 @@
         <v>86</v>
       </c>
       <c r="E48" s="50"/>
-      <c r="F48" s="113"/>
+      <c r="F48" s="109"/>
       <c r="G48" s="48"/>
       <c r="H48" s="48"/>
       <c r="I48" s="48"/>
@@ -7046,7 +7145,7 @@
         <v>56</v>
       </c>
       <c r="E50" s="50"/>
-      <c r="F50" s="113"/>
+      <c r="F50" s="109"/>
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
       <c r="I50" s="48"/>
@@ -7147,7 +7246,7 @@
         <v>56</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="113"/>
+      <c r="F55" s="109"/>
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
       <c r="I55" s="48" t="s">
@@ -7189,7 +7288,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="50"/>
-      <c r="F57" s="113"/>
+      <c r="F57" s="109"/>
       <c r="G57" s="48"/>
       <c r="H57" s="48"/>
       <c r="I57" s="48" t="s">
@@ -7247,7 +7346,7 @@
         <v>86</v>
       </c>
       <c r="E59" s="50"/>
-      <c r="F59" s="113"/>
+      <c r="F59" s="109"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
       <c r="I59" s="48"/>
@@ -7289,7 +7388,7 @@
         <v>86</v>
       </c>
       <c r="E61" s="50"/>
-      <c r="F61" s="113"/>
+      <c r="F61" s="109"/>
       <c r="G61" s="48"/>
       <c r="H61" s="48"/>
       <c r="I61" s="48"/>
@@ -7310,7 +7409,7 @@
         <v>56</v>
       </c>
       <c r="E62" s="50"/>
-      <c r="F62" s="113"/>
+      <c r="F62" s="109"/>
       <c r="G62" s="48"/>
       <c r="H62" s="48"/>
       <c r="I62" s="48"/>
@@ -7359,10 +7458,10 @@
       <c r="D64" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="115"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="113"/>
       <c r="I64" s="59"/>
       <c r="J64" s="59"/>
       <c r="K64" s="68"/>
@@ -7406,18 +7505,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="138" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="144"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="134"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -7425,16 +7524,16 @@
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="139" t="s">
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="145"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -8324,31 +8423,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="24"/>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="146"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5"/>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="147"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="137"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">

--- a/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
+++ b/NDR ESTATES B-BLOCK OWNERS DETAILS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srika\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srikanth.chinta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBCC20B-09E7-4B08-BA29-DA001F6CEAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4E819F-8C2F-4562-B1AF-2910BF44AF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{950FC3ED-9C44-4EF7-A297-395169E82580}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{950FC3ED-9C44-4EF7-A297-395169E82580}"/>
   </bookViews>
   <sheets>
     <sheet name="NDR B-Block Owners" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'BIKE &amp; CAR PARKING DETAILS'!$A$1:$K$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Monthly Dues'!$A$1:$J$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'MONTHLY FORM'!$A$1:$H$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'NDR B-Block Owners'!$A$1:$R$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'NDR B-Block Owners'!$A$1:$S$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'NDR Tenant Details'!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="272">
   <si>
     <t>Flat No.</t>
   </si>
@@ -769,104 +769,120 @@
     <t xml:space="preserve"> PARKING DETAILS</t>
   </si>
   <si>
+    <t>KOMMU RAJESH</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/105</t>
+  </si>
+  <si>
+    <t>XXXX-XXXX-XXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXX05</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXX4</t>
+  </si>
+  <si>
+    <t>DHARMA REDDY</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/208</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/212</t>
+  </si>
+  <si>
+    <t>XX08</t>
+  </si>
+  <si>
+    <t>XXXXXXXX74</t>
+  </si>
+  <si>
+    <t>K.V.SIVAKUMAR</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/G8</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/G9</t>
+  </si>
+  <si>
+    <t>3177-8482-5964</t>
+  </si>
+  <si>
+    <t>9490792825</t>
+  </si>
+  <si>
+    <t>YALAMANCHILI SAMBASIVA RAO</t>
+  </si>
+  <si>
+    <t>5848-6257-5507</t>
+  </si>
+  <si>
+    <t>9000916888</t>
+  </si>
+  <si>
+    <t>11299XXXX</t>
+  </si>
+  <si>
+    <t>A.SUBASHINI</t>
+  </si>
+  <si>
+    <t>8644-1893-4965</t>
+  </si>
+  <si>
+    <t>8790737267</t>
+  </si>
+  <si>
+    <t>1-33/3/6/B/306</t>
+  </si>
+  <si>
+    <t>VENNU SAI KRISHNA</t>
+  </si>
+  <si>
+    <t>XXX-XXXX-9912</t>
+  </si>
+  <si>
+    <t>9989300385</t>
+  </si>
+  <si>
     <t>E.KANTHAIAH</t>
   </si>
   <si>
     <t>1-33/3/6/B/102</t>
   </si>
   <si>
-    <t>1-33/3/6/B/105</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/106</t>
-  </si>
-  <si>
-    <t>5445-0554-0135</t>
+    <t>5445-0554-0134</t>
   </si>
   <si>
     <t>9441762193</t>
   </si>
   <si>
-    <t>DHARMA REDDY</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/208</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/212</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/302</t>
-  </si>
-  <si>
-    <t>0000=0000-0000</t>
-  </si>
-  <si>
-    <t>9949355674</t>
-  </si>
-  <si>
-    <t>KOMMU RAJESH</t>
-  </si>
-  <si>
-    <t>9000827569</t>
-  </si>
-  <si>
-    <t>XXXX-XXXX-XXXX</t>
-  </si>
-  <si>
-    <t>XXXXXXXXX</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/G3</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/G4</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/G8</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/G9</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/G10</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/G11</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/110</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/205</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/306</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/310</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/403</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/412</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/501</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/404</t>
-  </si>
-  <si>
-    <t>1-33/3/6/B/405</t>
+    <t>XXXXXXXX5</t>
+  </si>
+  <si>
+    <t>XXXX-XXXX-XXX</t>
+  </si>
+  <si>
+    <t>V. VIJAYA LAXMI
+V. SRINIVASA SWAMY</t>
+  </si>
+  <si>
+    <t>5741-5443-6565</t>
+  </si>
+  <si>
+    <t>9395154320</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,6 +1146,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1503,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1685,9 +1709,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1701,9 +1722,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,12 +1743,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,6 +1757,18 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1868,17 +1895,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1889,14 +1916,20 @@
     <xf numFmtId="0" fontId="34" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2435,56 +2468,55 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:R64"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.36328125" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+    <col min="12" max="12" width="17.08984375" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" customWidth="1"/>
+    <col min="16" max="17" width="13.6328125" customWidth="1"/>
+    <col min="18" max="18" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:31" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="150"/>
-      <c r="S1"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="149"/>
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
@@ -2496,29 +2528,30 @@
       <c r="AB1"/>
       <c r="AC1"/>
       <c r="AD1"/>
-    </row>
-    <row r="2" spans="1:30" s="27" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="151" t="s">
+      <c r="AE1"/>
+    </row>
+    <row r="2" spans="1:31" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="153"/>
-      <c r="S2"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="152"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
@@ -2530,65 +2563,69 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
-    </row>
-    <row r="3" spans="1:30" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="144" t="s">
+      <c r="AE2"/>
+    </row>
+    <row r="3" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="145" t="s">
+      <c r="E3" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="145" t="s">
+      <c r="G3" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="145" t="s">
+      <c r="H3" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="I3" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="146" t="s">
+      <c r="K3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="L3" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="146" t="s">
+      <c r="M3" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="145" t="s">
+      <c r="N3" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="145" t="s">
+      <c r="O3" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="145" t="s">
+      <c r="P3" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="145" t="s">
+      <c r="Q3" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="147" t="s">
+      <c r="S3" s="99" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+    <row r="4" spans="1:31" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" s="153" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2610,10 +2647,10 @@
         <v>7930</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f>CONCATENATE("XXX",RIGHT(G4,1))</f>
-        <v>XXX0</v>
-      </c>
-      <c r="I4" s="80" t="s">
+        <f>CONCATENATE("XX",RIGHT(G4,2))</f>
+        <v>XX30</v>
+      </c>
+      <c r="I4" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2623,7 +2660,7 @@
         <f>CONCATENATE("XXXX-XXXX-",RIGHT(J4,4))</f>
         <v>XXXX-XXXX-6939</v>
       </c>
-      <c r="L4" s="97">
+      <c r="L4" s="92">
         <v>9440064842</v>
       </c>
       <c r="M4" s="29" t="str">
@@ -2633,22 +2670,26 @@
       <c r="N4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P4" s="29">
         <v>102087920</v>
       </c>
-      <c r="Q4" s="83">
+      <c r="Q4" s="29" t="str">
+        <f>CONCATENATE("XXXXX",RIGHT(P4,4))</f>
+        <v>XXXXX7920</v>
+      </c>
+      <c r="R4" s="143">
         <v>1129922641</v>
       </c>
-      <c r="R4" s="93" t="str">
-        <f>CONCATENATE("XXXXXXXX",RIGHT(Q4,1))</f>
+      <c r="S4" s="144" t="str">
+        <f>CONCATENATE("XXXXXXXX",RIGHT(R4,1))</f>
         <v>XXXXXXXX1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="153" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2670,97 +2711,109 @@
         <v>3842</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f>CONCATENATE("XXX",RIGHT(G5,1))</f>
-        <v>XXX2</v>
-      </c>
-      <c r="I5" s="81" t="s">
+        <f t="shared" ref="H5:H61" si="0">CONCATENATE("XX",RIGHT(G5,2))</f>
+        <v>XX42</v>
+      </c>
+      <c r="I5" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>128</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f t="shared" ref="K5:K62" si="0">CONCATENATE("XXXX-XXXX-",RIGHT(J5,4))</f>
+        <f t="shared" ref="K5:K62" si="1">CONCATENATE("XXXX-XXXX-",RIGHT(J5,4))</f>
         <v>XXXX-XXXX-2864</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="93" t="s">
         <v>129</v>
       </c>
       <c r="M5" s="29" t="str">
-        <f t="shared" ref="M5:M62" si="1">CONCATENATE("XXXXXXXX",RIGHT(L5,2))</f>
+        <f t="shared" ref="M5:M62" si="2">CONCATENATE("XXXXXXXX",RIGHT(L5,2))</f>
         <v>XXXXXXXX03</v>
       </c>
       <c r="N5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q5" s="83">
+      <c r="O5" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="29">
+        <v>102087921</v>
+      </c>
+      <c r="Q5" s="29" t="str">
+        <f t="shared" ref="Q5:Q64" si="3">CONCATENATE("XXXXX",RIGHT(P5,4))</f>
+        <v>XXXXX7921</v>
+      </c>
+      <c r="R5" s="143">
         <v>1129922643</v>
       </c>
-      <c r="R5" s="93" t="str">
-        <f t="shared" ref="R5:R62" si="2">CONCATENATE("XXXXXXXX",RIGHT(Q5,1))</f>
+      <c r="S5" s="144" t="str">
+        <f t="shared" ref="S5:S62" si="4">CONCATENATE("XXXXXXXX",RIGHT(R5,1))</f>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="95" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="97"/>
+      <c r="L6" s="92"/>
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="93"/>
-    </row>
-    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+      <c r="O6" s="81"/>
+      <c r="P6" s="29">
+        <v>102087922</v>
+      </c>
+      <c r="Q6" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7922</v>
+      </c>
+      <c r="R6" s="143"/>
+      <c r="S6" s="144"/>
+    </row>
+    <row r="7" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="97"/>
+      <c r="L7" s="92"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="93"/>
-    </row>
-    <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+      <c r="O7" s="81"/>
+      <c r="P7" s="29">
+        <v>102087923</v>
+      </c>
+      <c r="Q7" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7923</v>
+      </c>
+      <c r="R7" s="143"/>
+      <c r="S7" s="144"/>
+    </row>
+    <row r="8" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="153" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2782,42 +2835,44 @@
         <v>2503</v>
       </c>
       <c r="H8" s="3" t="str">
-        <f>CONCATENATE("XXX",RIGHT(G8,1))</f>
-        <v>XXX3</v>
-      </c>
-      <c r="I8" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX03</v>
+      </c>
+      <c r="I8" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="97">
+      <c r="J8" s="82"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="92">
         <v>9966316416</v>
       </c>
       <c r="M8" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX16</v>
       </c>
       <c r="N8" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q8" s="83">
+      <c r="O8" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="29">
+        <v>102087924</v>
+      </c>
+      <c r="Q8" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7924</v>
+      </c>
+      <c r="R8" s="143">
         <v>1129922651</v>
       </c>
-      <c r="R8" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S8" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
+    <row r="9" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="153" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2839,45 +2894,49 @@
         <v>1028</v>
       </c>
       <c r="H9" s="3" t="str">
-        <f t="shared" ref="H9:H10" si="3">CONCATENATE("XXX",RIGHT(G9,1))</f>
-        <v>XXX8</v>
-      </c>
-      <c r="I9" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX28</v>
+      </c>
+      <c r="I9" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-2119</v>
       </c>
-      <c r="L9" s="97">
+      <c r="L9" s="92">
         <v>8143243948</v>
       </c>
       <c r="M9" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX48</v>
       </c>
       <c r="N9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q9" s="83">
+      <c r="O9" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="29">
+        <v>102087925</v>
+      </c>
+      <c r="Q9" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7925</v>
+      </c>
+      <c r="R9" s="143">
         <v>1129964747</v>
       </c>
-      <c r="R9" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S9" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
+    <row r="10" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="153" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2899,147 +2958,237 @@
         <v>7206</v>
       </c>
       <c r="H10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>XXX6</v>
-      </c>
-      <c r="I10" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX06</v>
+      </c>
+      <c r="I10" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-1781</v>
       </c>
-      <c r="L10" s="97">
+      <c r="L10" s="92">
         <v>9553665553</v>
       </c>
       <c r="M10" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX53</v>
       </c>
       <c r="N10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="80" t="s">
+      <c r="O10" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P10" s="29">
         <v>102087926</v>
       </c>
-      <c r="Q10" s="83">
+      <c r="Q10" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7926</v>
+      </c>
+      <c r="R10" s="143">
         <v>1129922658</v>
       </c>
-      <c r="R10" s="93" t="str">
+      <c r="S10" s="144" t="str">
+        <f t="shared" si="4"/>
+        <v>XXXXXXXX8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8743</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX43</v>
+      </c>
+      <c r="I11" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-5964</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>XXXXXXXX8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1" t="s">
+        <v>XXXXXXXX25</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="29">
+        <v>102087927</v>
+      </c>
+      <c r="Q11" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7927</v>
+      </c>
+      <c r="R11" s="143">
+        <v>1129922661</v>
+      </c>
+      <c r="S11" s="144" t="str">
+        <f t="shared" si="4"/>
+        <v>XXXXXXXX1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="28" x14ac:dyDescent="0.4">
+      <c r="A12" s="153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9269</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX69</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-5507</v>
+      </c>
+      <c r="L12" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="93"/>
-    </row>
-    <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
+      <c r="M12" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX88</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="29">
+        <v>102087928</v>
+      </c>
+      <c r="Q12" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7928</v>
+      </c>
+      <c r="R12" s="143" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="93"/>
-    </row>
-    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="S12" s="144" t="str">
+        <f t="shared" si="4"/>
+        <v>XXXXXXXXX</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="95" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="97"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="93"/>
-    </row>
-    <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="O13" s="81"/>
+      <c r="P13" s="29">
+        <v>102087929</v>
+      </c>
+      <c r="Q13" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7929</v>
+      </c>
+      <c r="R13" s="143"/>
+      <c r="S13" s="144"/>
+    </row>
+    <row r="14" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="95" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="84"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="81" t="s">
+      <c r="I14" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="97"/>
+      <c r="L14" s="92"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="93"/>
-    </row>
-    <row r="15" spans="1:30" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
+      <c r="O14" s="81"/>
+      <c r="P14" s="29">
+        <v>102087930</v>
+      </c>
+      <c r="Q14" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7930</v>
+      </c>
+      <c r="R14" s="143"/>
+      <c r="S14" s="144"/>
+    </row>
+    <row r="15" spans="1:31" ht="15" x14ac:dyDescent="0.4">
+      <c r="A15" s="153" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3057,49 +3206,53 @@
       <c r="F15" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="83">
         <v>6950</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f>CONCATENATE("XXX",RIGHT(G15,1))</f>
-        <v>XXX0</v>
-      </c>
-      <c r="I15" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX50</v>
+      </c>
+      <c r="I15" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>135</v>
       </c>
       <c r="K15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-9045</v>
       </c>
-      <c r="L15" s="97">
+      <c r="L15" s="92">
         <v>9652328140</v>
       </c>
       <c r="M15" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX40</v>
       </c>
       <c r="N15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="80" t="s">
+      <c r="O15" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P15" s="29">
         <v>102087931</v>
       </c>
-      <c r="Q15" s="83">
+      <c r="Q15" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7931</v>
+      </c>
+      <c r="R15" s="143">
         <v>1129922674</v>
       </c>
-      <c r="R15" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S15" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX4</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="79">
+    <row r="16" spans="1:31" ht="15" x14ac:dyDescent="0.4">
+      <c r="A16" s="153">
         <v>101</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3117,46 +3270,50 @@
       <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="83">
         <v>638</v>
       </c>
       <c r="H16" s="3" t="str">
-        <f>CONCATENATE("XXX",RIGHT(G16,1))</f>
-        <v>XXX8</v>
-      </c>
-      <c r="I16" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX38</v>
+      </c>
+      <c r="I16" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L16" s="97">
+      <c r="K16" s="1"/>
+      <c r="L16" s="92">
         <v>9849559954</v>
       </c>
       <c r="M16" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX54</v>
       </c>
       <c r="N16" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="93"/>
-    </row>
-    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85">
+      <c r="O16" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="29">
+        <v>102087932</v>
+      </c>
+      <c r="Q16" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7932</v>
+      </c>
+      <c r="R16" s="143"/>
+      <c r="S16" s="144"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A17" s="154">
         <v>102</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="D17" s="2">
         <v>38075</v>
@@ -3167,49 +3324,53 @@
       <c r="F17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="83">
         <v>3718</v>
       </c>
       <c r="H17" s="3" t="str">
-        <f>CONCATENATE("XXX",RIGHT(G17,1))</f>
-        <v>XXX8</v>
-      </c>
-      <c r="I17" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX18</v>
+      </c>
+      <c r="I17" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>XXXX-XXXX-0135</v>
-      </c>
-      <c r="L17" s="97" t="s">
-        <v>241</v>
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-0134</v>
+      </c>
+      <c r="L17" s="92" t="s">
+        <v>266</v>
       </c>
       <c r="M17" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX93</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O17" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P17" s="29">
         <v>102087933</v>
       </c>
-      <c r="Q17" s="83">
+      <c r="Q17" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7933</v>
+      </c>
+      <c r="R17" s="143">
         <v>1129922678</v>
       </c>
-      <c r="R17" s="93" t="str">
-        <f>CONCATENATE("XXXXXXXX",RIGHT(Q17,1))</f>
+      <c r="S17" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX8</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="85">
+    <row r="18" spans="1:19" ht="42" x14ac:dyDescent="0.4">
+      <c r="A18" s="154">
         <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3227,49 +3388,53 @@
       <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="83">
         <v>2896</v>
       </c>
       <c r="H18" s="3" t="str">
-        <f>CONCATENATE("XXX",RIGHT(G18,1))</f>
-        <v>XXX6</v>
-      </c>
-      <c r="I18" s="86" t="s">
+        <f t="shared" si="0"/>
+        <v>XX96</v>
+      </c>
+      <c r="I18" s="84" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="K18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-7204</v>
       </c>
-      <c r="L18" s="97">
+      <c r="L18" s="92">
         <v>9976220740</v>
       </c>
       <c r="M18" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX40</v>
       </c>
       <c r="N18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O18" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q18" s="83">
+      <c r="O18" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="29">
+        <v>102087934</v>
+      </c>
+      <c r="Q18" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7934</v>
+      </c>
+      <c r="R18" s="143">
         <v>1129922680</v>
       </c>
-      <c r="R18" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S18" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="79">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="153">
         <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3287,53 +3452,55 @@
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="83" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="3" t="str">
-        <f>CONCATENATE("XXX",RIGHT(G19,1))</f>
-        <v>XXX2</v>
-      </c>
-      <c r="I19" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX52</v>
+      </c>
+      <c r="I19" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L19" s="97">
+      <c r="K19" s="1"/>
+      <c r="L19" s="92">
         <v>9676719775</v>
       </c>
       <c r="M19" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX75</v>
       </c>
       <c r="N19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q19" s="83">
+      <c r="O19" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="29">
+        <v>102087935</v>
+      </c>
+      <c r="Q19" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7935</v>
+      </c>
+      <c r="R19" s="143">
         <v>1129922682</v>
       </c>
-      <c r="R19" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S19" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="153">
         <v>105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3" t="s">
@@ -3342,66 +3509,73 @@
       <c r="F20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="84"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="81" t="s">
+      <c r="I20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L20" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="M20" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXXXX69</v>
+        <v>238</v>
+      </c>
+      <c r="L20" s="92"/>
+      <c r="M20" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="N20" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O20" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q20" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="R20" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100">
+      <c r="O20" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="29">
+        <v>102087936</v>
+      </c>
+      <c r="Q20" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7936</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="S20" s="144" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="95">
         <v>106</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="84"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="81" t="s">
+      <c r="I21" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="97"/>
+      <c r="L21" s="92"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="93"/>
-    </row>
-    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="79">
+      <c r="O21" s="81"/>
+      <c r="P21" s="29">
+        <v>102087937</v>
+      </c>
+      <c r="Q21" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7937</v>
+      </c>
+      <c r="R21" s="143"/>
+      <c r="S21" s="144"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="153">
         <v>107</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3419,14 +3593,14 @@
       <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="83">
         <v>12693</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f>CONCATENATE("XXX",RIGHT(G22,1))</f>
-        <v>XXX3</v>
-      </c>
-      <c r="I22" s="80" t="s">
+        <f>CONCATENATE("XX",RIGHT(G22,2))</f>
+        <v>XX93</v>
+      </c>
+      <c r="I22" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -3436,7 +3610,7 @@
         <f>CONCATENATE("XXXX-XXXX-",RIGHT(J22,4))</f>
         <v>XXXX-XXXX-0068</v>
       </c>
-      <c r="L22" s="97" t="s">
+      <c r="L22" s="92" t="s">
         <v>225</v>
       </c>
       <c r="M22" s="29" t="str">
@@ -3446,22 +3620,26 @@
       <c r="N22" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O22" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q22" s="83">
+      <c r="O22" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="29">
+        <v>102087938</v>
+      </c>
+      <c r="Q22" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7938</v>
+      </c>
+      <c r="R22" s="143">
         <v>1129922698</v>
       </c>
-      <c r="R22" s="93" t="str">
-        <f>CONCATENATE("XXXXXXXX",RIGHT(Q22,1))</f>
+      <c r="S22" s="144" t="str">
+        <f>CONCATENATE("XXXXXXXX",RIGHT(R22,1))</f>
         <v>XXXXXXXX8</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="79">
+    <row r="23" spans="1:19" ht="28" x14ac:dyDescent="0.4">
+      <c r="A23" s="153">
         <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3479,49 +3657,53 @@
       <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="83">
         <v>2559</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f t="shared" ref="H23:H61" si="4">CONCATENATE("XXX",RIGHT(G23,1))</f>
-        <v>XXX9</v>
-      </c>
-      <c r="I23" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX59</v>
+      </c>
+      <c r="I23" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>138</v>
       </c>
       <c r="K23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-0354</v>
       </c>
-      <c r="L23" s="97">
+      <c r="L23" s="92">
         <v>9642279724</v>
       </c>
       <c r="M23" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX24</v>
       </c>
       <c r="N23" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="80" t="s">
+      <c r="O23" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P23" s="29">
         <v>102087939</v>
       </c>
-      <c r="Q23" s="83">
+      <c r="Q23" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7939</v>
+      </c>
+      <c r="R23" s="143">
         <v>1129922701</v>
       </c>
-      <c r="R23" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S23" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="79">
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="153">
         <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3539,72 +3721,112 @@
       <c r="F24" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="83">
         <v>8740</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX0</v>
-      </c>
-      <c r="I24" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX40</v>
+      </c>
+      <c r="I24" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L24" s="97">
+      <c r="K24" s="1"/>
+      <c r="L24" s="92">
         <v>9845204445</v>
       </c>
       <c r="M24" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX45</v>
       </c>
       <c r="N24" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q24" s="83">
+      <c r="O24" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="29">
+        <v>102087940</v>
+      </c>
+      <c r="Q24" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7940</v>
+      </c>
+      <c r="R24" s="143">
         <v>1129922706</v>
       </c>
-      <c r="R24" s="93" t="str">
+      <c r="S24" s="144" t="str">
+        <f t="shared" si="4"/>
+        <v>XXXXXXXX6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="28" x14ac:dyDescent="0.4">
+      <c r="A25" s="153">
+        <v>110</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="2">
+        <v>40964</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="83">
+        <v>3007</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX07</v>
+      </c>
+      <c r="I25" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-6565</v>
+      </c>
+      <c r="L25" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>XXXXXXXX6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="100">
-        <v>110</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="93"/>
-    </row>
-    <row r="26" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="79">
+        <v>XXXXXXXX20</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="29">
+        <v>102087941</v>
+      </c>
+      <c r="Q25" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7941</v>
+      </c>
+      <c r="R25" s="143">
+        <v>1129922723</v>
+      </c>
+      <c r="S25" s="144" t="str">
+        <f t="shared" si="4"/>
+        <v>XXXXXXXX3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="28" x14ac:dyDescent="0.4">
+      <c r="A26" s="153">
         <v>111</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3622,49 +3844,53 @@
       <c r="F26" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="83">
         <v>7518</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX8</v>
-      </c>
-      <c r="I26" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX18</v>
+      </c>
+      <c r="I26" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>213</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-3928</v>
       </c>
-      <c r="L26" s="97">
+      <c r="L26" s="92">
         <v>8977774851</v>
       </c>
       <c r="M26" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX51</v>
       </c>
       <c r="N26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O26" s="80" t="s">
+      <c r="O26" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P26" s="29">
         <v>102087942</v>
       </c>
-      <c r="Q26" s="83">
+      <c r="Q26" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7942</v>
+      </c>
+      <c r="R26" s="143">
         <v>1129922732</v>
       </c>
-      <c r="R26" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S26" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="79">
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="153">
         <v>112</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3680,42 +3906,43 @@
       <c r="F27" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX</v>
-      </c>
-      <c r="I27" s="80" t="s">
+      <c r="G27" s="83"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="97">
+      <c r="L27" s="92">
         <v>9391331089</v>
       </c>
       <c r="M27" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX89</v>
       </c>
       <c r="N27" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O27" s="80" t="s">
+      <c r="O27" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P27" s="29">
         <v>102087943</v>
       </c>
-      <c r="Q27" s="83">
+      <c r="Q27" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7943</v>
+      </c>
+      <c r="R27" s="143">
         <v>1129922738</v>
       </c>
-      <c r="R27" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S27" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX8</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="79">
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="153">
         <v>201</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3733,44 +3960,48 @@
       <c r="F28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="83">
         <v>470</v>
       </c>
       <c r="H28" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX0</v>
-      </c>
-      <c r="I28" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX70</v>
+      </c>
+      <c r="I28" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="97">
+      <c r="L28" s="92">
         <v>7337564523</v>
       </c>
       <c r="M28" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX23</v>
       </c>
       <c r="N28" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O28" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P28" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q28" s="83">
+      <c r="O28" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="29">
+        <v>102087944</v>
+      </c>
+      <c r="Q28" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7944</v>
+      </c>
+      <c r="R28" s="143">
         <v>1129922795</v>
       </c>
-      <c r="R28" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S28" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX5</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="79">
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A29" s="153">
         <v>202</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3788,39 +4019,43 @@
       <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="83">
         <v>3531</v>
       </c>
       <c r="H29" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX1</v>
-      </c>
-      <c r="I29" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX31</v>
+      </c>
+      <c r="I29" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L29" s="97">
+      <c r="K29" s="1"/>
+      <c r="L29" s="92">
         <v>9866630674</v>
       </c>
       <c r="M29" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX74</v>
       </c>
       <c r="N29" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O29" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="93"/>
-    </row>
-    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="79">
+      <c r="O29" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="29">
+        <v>102087945</v>
+      </c>
+      <c r="Q29" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7945</v>
+      </c>
+      <c r="R29" s="143"/>
+      <c r="S29" s="144"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="153">
         <v>203</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3838,49 +4073,53 @@
       <c r="F30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="83">
         <v>668</v>
       </c>
       <c r="H30" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX8</v>
-      </c>
-      <c r="I30" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX68</v>
+      </c>
+      <c r="I30" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>121</v>
       </c>
       <c r="K30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-4668</v>
       </c>
-      <c r="L30" s="97">
+      <c r="L30" s="92">
         <v>9866859505</v>
       </c>
       <c r="M30" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX05</v>
       </c>
       <c r="N30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O30" s="80" t="s">
+      <c r="O30" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P30" s="29">
         <v>102087946</v>
       </c>
-      <c r="Q30" s="83">
+      <c r="Q30" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7946</v>
+      </c>
+      <c r="R30" s="143">
         <v>1129922755</v>
       </c>
-      <c r="R30" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S30" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX5</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79">
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="95">
         <v>204</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3896,56 +4135,63 @@
       <c r="F31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX</v>
-      </c>
-      <c r="I31" s="81" t="s">
+      <c r="G31" s="83"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="97"/>
+      <c r="L31" s="92"/>
       <c r="M31" s="29"/>
       <c r="N31" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O31" s="81" t="s">
+      <c r="O31" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="93"/>
-    </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100">
+      <c r="P31" s="29">
+        <v>102087947</v>
+      </c>
+      <c r="Q31" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7947</v>
+      </c>
+      <c r="R31" s="143"/>
+      <c r="S31" s="144"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="95">
         <v>205</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="84"/>
+      <c r="G32" s="83"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="81" t="s">
+      <c r="I32" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="97"/>
+      <c r="L32" s="92"/>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="93"/>
-    </row>
-    <row r="33" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="79">
+      <c r="O32" s="81"/>
+      <c r="P32" s="29">
+        <v>102087948</v>
+      </c>
+      <c r="Q32" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7948</v>
+      </c>
+      <c r="R32" s="143"/>
+      <c r="S32" s="144"/>
+    </row>
+    <row r="33" spans="1:19" ht="28" x14ac:dyDescent="0.4">
+      <c r="A33" s="153">
         <v>206</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3963,49 +4209,53 @@
       <c r="F33" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="83">
         <v>3916</v>
       </c>
       <c r="H33" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX6</v>
-      </c>
-      <c r="I33" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX16</v>
+      </c>
+      <c r="I33" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>124</v>
       </c>
       <c r="K33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-0692</v>
       </c>
-      <c r="L33" s="97">
+      <c r="L33" s="92">
         <v>9100501198</v>
       </c>
       <c r="M33" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX98</v>
       </c>
       <c r="N33" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O33" s="80" t="s">
+      <c r="O33" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P33" s="29">
         <v>102087949</v>
       </c>
-      <c r="Q33" s="83">
+      <c r="Q33" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7949</v>
+      </c>
+      <c r="R33" s="143">
         <v>1129922768</v>
       </c>
-      <c r="R33" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S33" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX8</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="79">
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="153">
         <v>207</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4023,39 +4273,45 @@
       <c r="F34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="83">
         <v>6828</v>
       </c>
       <c r="H34" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX8</v>
-      </c>
-      <c r="I34" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX28</v>
+      </c>
+      <c r="I34" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L34" s="97">
+      <c r="K34" s="1"/>
+      <c r="L34" s="92">
         <v>9866332034</v>
       </c>
       <c r="M34" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX34</v>
       </c>
       <c r="N34" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O34" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="93"/>
-    </row>
-    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79">
+      <c r="O34" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="29">
+        <v>102087950</v>
+      </c>
+      <c r="Q34" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7950</v>
+      </c>
+      <c r="R34" s="143"/>
+      <c r="S34" s="144" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="153">
         <v>208</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4073,46 +4329,45 @@
       <c r="F35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="84">
-        <v>208</v>
-      </c>
-      <c r="H35" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX8</v>
-      </c>
-      <c r="I35" s="80" t="s">
+      <c r="G35" s="83"/>
+      <c r="H35" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="92"/>
+      <c r="M35" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L35" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="M35" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXXXX74</v>
       </c>
       <c r="N35" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="83">
+      <c r="O35" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="29">
+        <v>102087951</v>
+      </c>
+      <c r="Q35" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7951</v>
+      </c>
+      <c r="R35" s="143">
         <v>1129922784</v>
       </c>
-      <c r="R35" s="93" t="str">
-        <f t="shared" si="2"/>
-        <v>XXXXXXXX4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="79">
+      <c r="S35" s="144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="153">
         <v>209</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4130,49 +4385,53 @@
       <c r="F36" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="84">
+      <c r="G36" s="83">
         <v>1459</v>
       </c>
       <c r="H36" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX9</v>
-      </c>
-      <c r="I36" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX59</v>
+      </c>
+      <c r="I36" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>205</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-6732</v>
       </c>
-      <c r="L36" s="97">
+      <c r="L36" s="92">
         <v>9885809995</v>
       </c>
       <c r="M36" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX95</v>
       </c>
       <c r="N36" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="O36" s="80" t="s">
+      <c r="O36" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P36" s="29">
         <v>102087952</v>
       </c>
-      <c r="Q36" s="83">
+      <c r="Q36" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7952</v>
+      </c>
+      <c r="R36" s="143">
         <v>1129922793</v>
       </c>
-      <c r="R36" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S36" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="79">
+    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="153">
         <v>210</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4190,49 +4449,53 @@
       <c r="F37" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="83">
         <v>6953</v>
       </c>
       <c r="H37" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX3</v>
-      </c>
-      <c r="I37" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX53</v>
+      </c>
+      <c r="I37" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-3399</v>
       </c>
-      <c r="L37" s="97">
+      <c r="L37" s="92">
         <v>9642115656</v>
       </c>
       <c r="M37" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX56</v>
       </c>
       <c r="N37" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O37" s="80" t="s">
+      <c r="O37" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P37" s="29">
         <v>102087953</v>
       </c>
-      <c r="Q37" s="83">
+      <c r="Q37" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7953</v>
+      </c>
+      <c r="R37" s="143">
         <v>1129922801</v>
       </c>
-      <c r="R37" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S37" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="79">
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="153">
         <v>211</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -4250,75 +4513,115 @@
       <c r="F38" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="83">
         <v>3551</v>
       </c>
       <c r="H38" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX1</v>
-      </c>
-      <c r="I38" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX51</v>
+      </c>
+      <c r="I38" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-7485</v>
       </c>
-      <c r="L38" s="97">
+      <c r="L38" s="92">
         <v>8341436085</v>
       </c>
       <c r="M38" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX85</v>
       </c>
       <c r="N38" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O38" s="80" t="s">
+      <c r="O38" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P38" s="29">
         <v>102087954</v>
       </c>
-      <c r="Q38" s="83">
+      <c r="Q38" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7954</v>
+      </c>
+      <c r="R38" s="143">
         <v>1129922807</v>
       </c>
-      <c r="R38" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S38" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX7</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="100">
+    <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="153">
         <v>212</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="81" t="s">
+      <c r="E39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="83">
+        <v>8741</v>
+      </c>
+      <c r="H39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX41</v>
+      </c>
+      <c r="I39" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="93"/>
-    </row>
-    <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="79">
+      <c r="J39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-9912</v>
+      </c>
+      <c r="L39" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="M39" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>XXXXXXXX85</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O39" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P39" s="29">
+        <v>102087955</v>
+      </c>
+      <c r="Q39" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7955</v>
+      </c>
+      <c r="R39" s="143">
+        <v>1129922815</v>
+      </c>
+      <c r="S39" s="144" t="str">
+        <f t="shared" si="4"/>
+        <v>XXXXXXXX5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="153">
         <v>301</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4336,75 +4639,83 @@
       <c r="F40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="84">
+      <c r="G40" s="83">
         <v>4094</v>
       </c>
       <c r="H40" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX4</v>
-      </c>
-      <c r="I40" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX94</v>
+      </c>
+      <c r="I40" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-3982</v>
       </c>
-      <c r="L40" s="97">
+      <c r="L40" s="92">
         <v>9666600846</v>
       </c>
       <c r="M40" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX46</v>
       </c>
       <c r="N40" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O40" s="80" t="s">
+      <c r="O40" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P40" s="29">
         <v>102087956</v>
       </c>
-      <c r="Q40" s="83">
+      <c r="Q40" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7956</v>
+      </c>
+      <c r="R40" s="143">
         <v>1129922820</v>
       </c>
-      <c r="R40" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S40" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100">
+    <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="95">
         <v>302</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="84"/>
+      <c r="G41" s="83"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="81" t="s">
+      <c r="I41" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="97"/>
+      <c r="L41" s="92"/>
       <c r="M41" s="29"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="93"/>
-    </row>
-    <row r="42" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="79">
+      <c r="O41" s="81"/>
+      <c r="P41" s="29">
+        <v>102087957</v>
+      </c>
+      <c r="Q41" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7957</v>
+      </c>
+      <c r="R41" s="143"/>
+      <c r="S41" s="144"/>
+    </row>
+    <row r="42" spans="1:19" ht="28" x14ac:dyDescent="0.4">
+      <c r="A42" s="153">
         <v>303</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4422,49 +4733,53 @@
       <c r="F42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="83">
         <v>9823</v>
       </c>
       <c r="H42" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX3</v>
-      </c>
-      <c r="I42" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX23</v>
+      </c>
+      <c r="I42" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("XXXX-XXXX-",RIGHT(J42,4))</f>
         <v>XXXX-XXXX-4993</v>
       </c>
-      <c r="L42" s="97">
+      <c r="L42" s="92">
         <v>7569623188</v>
       </c>
       <c r="M42" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX88</v>
       </c>
       <c r="N42" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O42" s="80" t="s">
+      <c r="O42" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P42" s="29">
         <v>102087958</v>
       </c>
-      <c r="Q42" s="83">
+      <c r="Q42" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7958</v>
+      </c>
+      <c r="R42" s="143">
         <v>1129922837</v>
       </c>
-      <c r="R42" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S42" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX7</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="79">
+    <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="153">
         <v>304</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -4482,39 +4797,43 @@
       <c r="F43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="84">
+      <c r="G43" s="83">
         <v>9374</v>
       </c>
       <c r="H43" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX4</v>
-      </c>
-      <c r="I43" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX74</v>
+      </c>
+      <c r="I43" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L43" s="97">
+      <c r="K43" s="1"/>
+      <c r="L43" s="92">
         <v>8106490701</v>
       </c>
       <c r="M43" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX01</v>
       </c>
       <c r="N43" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="93"/>
-    </row>
-    <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="79">
+      <c r="O43" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="29">
+        <v>102087959</v>
+      </c>
+      <c r="Q43" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7959</v>
+      </c>
+      <c r="R43" s="143"/>
+      <c r="S43" s="144"/>
+    </row>
+    <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="153">
         <v>305</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -4532,72 +4851,112 @@
       <c r="F44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="83">
         <v>6031</v>
       </c>
       <c r="H44" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX1</v>
-      </c>
-      <c r="I44" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX31</v>
+      </c>
+      <c r="I44" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L44" s="97">
+      <c r="K44" s="1"/>
+      <c r="L44" s="92">
         <v>8886394444</v>
       </c>
       <c r="M44" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX44</v>
       </c>
       <c r="N44" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q44" s="83">
+      <c r="O44" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="29">
+        <v>102087960</v>
+      </c>
+      <c r="Q44" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7960</v>
+      </c>
+      <c r="R44" s="143">
         <v>1129922859</v>
       </c>
-      <c r="R44" s="93" t="str">
+      <c r="S44" s="144" t="str">
+        <f t="shared" si="4"/>
+        <v>XXXXXXXX9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="153">
+        <v>306</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="83">
+        <v>8742</v>
+      </c>
+      <c r="H45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>XX42</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f>CONCATENATE("XXXX-XXXX-",RIGHT(J45,4))</f>
+        <v>XXXX-XXXX-4965</v>
+      </c>
+      <c r="L45" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="M45" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>XXXXXXXX9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="100">
-        <v>306</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="93"/>
-    </row>
-    <row r="46" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="79">
+        <v>XXXXXXXX67</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="29">
+        <v>102087961</v>
+      </c>
+      <c r="Q45" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7961</v>
+      </c>
+      <c r="R45" s="143">
+        <v>1129922877</v>
+      </c>
+      <c r="S45" s="144" t="str">
+        <f t="shared" si="4"/>
+        <v>XXXXXXXX7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="28" x14ac:dyDescent="0.4">
+      <c r="A46" s="153">
         <v>307</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -4615,49 +4974,53 @@
       <c r="F46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="84">
+      <c r="G46" s="83">
         <v>17916</v>
       </c>
       <c r="H46" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX6</v>
-      </c>
-      <c r="I46" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX16</v>
+      </c>
+      <c r="I46" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>125</v>
       </c>
       <c r="K46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-6549</v>
       </c>
-      <c r="L46" s="97">
+      <c r="L46" s="92">
         <v>9642174652</v>
       </c>
       <c r="M46" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX52</v>
       </c>
       <c r="N46" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O46" s="80" t="s">
+      <c r="O46" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P46" s="29">
         <v>102087962</v>
       </c>
-      <c r="Q46" s="83">
+      <c r="Q46" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7962</v>
+      </c>
+      <c r="R46" s="143">
         <v>1129922884</v>
       </c>
-      <c r="R46" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S46" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX4</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="79">
+    <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="153">
         <v>308</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -4675,42 +5038,48 @@
       <c r="F47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="84">
+      <c r="G47" s="83">
         <v>11840</v>
       </c>
       <c r="H47" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX0</v>
-      </c>
-      <c r="I47" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX40</v>
+      </c>
+      <c r="I47" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-0278</v>
       </c>
-      <c r="L47" s="97">
+      <c r="L47" s="92">
         <v>8099994599</v>
       </c>
       <c r="M47" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX99</v>
       </c>
       <c r="N47" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O47" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="93"/>
-    </row>
-    <row r="48" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="79">
+      <c r="O47" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="29">
+        <v>102087963</v>
+      </c>
+      <c r="Q47" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7963</v>
+      </c>
+      <c r="R47" s="143"/>
+      <c r="S47" s="144"/>
+    </row>
+    <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="153">
         <v>309</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -4728,73 +5097,83 @@
       <c r="F48" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G48" s="84">
+      <c r="G48" s="83">
         <v>10738</v>
       </c>
       <c r="H48" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX8</v>
-      </c>
-      <c r="I48" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX38</v>
+      </c>
+      <c r="I48" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>187</v>
       </c>
       <c r="K48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-5854</v>
       </c>
-      <c r="L48" s="97">
+      <c r="L48" s="92">
         <v>8886922445</v>
       </c>
       <c r="M48" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX45</v>
       </c>
       <c r="N48" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O48" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="83">
+      <c r="O48" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="29">
+        <v>102087964</v>
+      </c>
+      <c r="Q48" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7964</v>
+      </c>
+      <c r="R48" s="143">
         <v>1129922900</v>
       </c>
-      <c r="R48" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S48" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="100">
+    <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="95">
         <v>310</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="84"/>
+      <c r="G49" s="83"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="81" t="s">
+      <c r="I49" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="97"/>
+      <c r="L49" s="92"/>
       <c r="M49" s="29"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="93"/>
-    </row>
-    <row r="50" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="79">
+      <c r="O49" s="81"/>
+      <c r="P49" s="29">
+        <v>102087965</v>
+      </c>
+      <c r="Q49" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7965</v>
+      </c>
+      <c r="R49" s="143"/>
+      <c r="S49" s="144"/>
+    </row>
+    <row r="50" spans="1:19" ht="28" x14ac:dyDescent="0.4">
+      <c r="A50" s="153">
         <v>311</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -4812,49 +5191,53 @@
       <c r="F50" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G50" s="84">
+      <c r="G50" s="83">
         <v>4475</v>
       </c>
       <c r="H50" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX5</v>
-      </c>
-      <c r="I50" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX75</v>
+      </c>
+      <c r="I50" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-1424</v>
       </c>
-      <c r="L50" s="97">
+      <c r="L50" s="92">
         <v>9491825383</v>
       </c>
       <c r="M50" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX83</v>
       </c>
       <c r="N50" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O50" s="80" t="s">
+      <c r="O50" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P50" s="29">
         <v>102087966</v>
       </c>
-      <c r="Q50" s="83">
+      <c r="Q50" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7966</v>
+      </c>
+      <c r="R50" s="143">
         <v>1129922923</v>
       </c>
-      <c r="R50" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S50" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="79">
+    <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="153">
         <v>312</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -4872,49 +5255,53 @@
       <c r="F51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="84">
+      <c r="G51" s="83">
         <v>45</v>
       </c>
       <c r="H51" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX5</v>
-      </c>
-      <c r="I51" s="88" t="s">
+        <f t="shared" si="0"/>
+        <v>XX45</v>
+      </c>
+      <c r="I51" s="86" t="s">
         <v>18</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>191</v>
       </c>
       <c r="K51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-9859</v>
       </c>
-      <c r="L51" s="97">
+      <c r="L51" s="92">
         <v>9441284167</v>
       </c>
       <c r="M51" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX67</v>
       </c>
       <c r="N51" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O51" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P51" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q51" s="83">
+      <c r="O51" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P51" s="29">
+        <v>102087967</v>
+      </c>
+      <c r="Q51" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7967</v>
+      </c>
+      <c r="R51" s="143">
         <v>1129922925</v>
       </c>
-      <c r="R51" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S51" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX5</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="79">
+    <row r="52" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="153">
         <v>401</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -4932,49 +5319,53 @@
       <c r="F52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="84">
+      <c r="G52" s="83">
         <v>9235</v>
       </c>
       <c r="H52" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX5</v>
-      </c>
-      <c r="I52" s="88" t="s">
+        <f t="shared" si="0"/>
+        <v>XX35</v>
+      </c>
+      <c r="I52" s="86" t="s">
         <v>18</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>188</v>
       </c>
       <c r="K52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-3091</v>
       </c>
-      <c r="L52" s="97">
+      <c r="L52" s="92">
         <v>9052338929</v>
       </c>
       <c r="M52" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX29</v>
       </c>
       <c r="N52" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O52" s="89" t="s">
+      <c r="O52" s="87" t="s">
         <v>5</v>
       </c>
       <c r="P52" s="29">
         <v>102087968</v>
       </c>
-      <c r="Q52" s="83">
+      <c r="Q52" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7968</v>
+      </c>
+      <c r="R52" s="143">
         <v>1129922927</v>
       </c>
-      <c r="R52" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S52" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX7</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="79">
+    <row r="53" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="153">
         <v>402</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -4992,117 +5383,133 @@
       <c r="F53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="84">
+      <c r="G53" s="83">
         <v>4310</v>
       </c>
       <c r="H53" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX0</v>
-      </c>
-      <c r="I53" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX10</v>
+      </c>
+      <c r="I53" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L53" s="97">
+      <c r="K53" s="1"/>
+      <c r="L53" s="92">
         <v>9172125515</v>
       </c>
       <c r="M53" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX15</v>
       </c>
       <c r="N53" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O53" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="93"/>
-    </row>
-    <row r="54" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="100">
+      <c r="O53" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P53" s="29">
+        <v>102087969</v>
+      </c>
+      <c r="Q53" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7969</v>
+      </c>
+      <c r="R53" s="143"/>
+      <c r="S53" s="144"/>
+    </row>
+    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="95">
         <v>403</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="84"/>
+      <c r="G54" s="83"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="81" t="s">
+      <c r="I54" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="97"/>
+      <c r="L54" s="92"/>
       <c r="M54" s="29"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="93"/>
-    </row>
-    <row r="55" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="100">
+      <c r="O54" s="81"/>
+      <c r="P54" s="29">
+        <v>102087970</v>
+      </c>
+      <c r="Q54" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7970</v>
+      </c>
+      <c r="R54" s="143"/>
+      <c r="S54" s="144"/>
+    </row>
+    <row r="55" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="95">
         <v>404</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="84"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="80" t="s">
+      <c r="I55" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="97"/>
+      <c r="L55" s="92"/>
       <c r="M55" s="29"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="93"/>
-    </row>
-    <row r="56" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100">
+      <c r="O55" s="81"/>
+      <c r="P55" s="29">
+        <v>102087971</v>
+      </c>
+      <c r="Q55" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7971</v>
+      </c>
+      <c r="R55" s="143"/>
+      <c r="S55" s="144"/>
+    </row>
+    <row r="56" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="95">
         <v>405</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="84"/>
+      <c r="G56" s="83"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="81" t="s">
+      <c r="I56" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="97"/>
+      <c r="L56" s="92"/>
       <c r="M56" s="29"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="93"/>
-    </row>
-    <row r="57" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="79">
+      <c r="O56" s="81"/>
+      <c r="P56" s="29">
+        <v>102087972</v>
+      </c>
+      <c r="Q56" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7972</v>
+      </c>
+      <c r="R56" s="143"/>
+      <c r="S56" s="144"/>
+    </row>
+    <row r="57" spans="1:19" ht="28" x14ac:dyDescent="0.4">
+      <c r="A57" s="153">
         <v>406</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -5120,49 +5527,53 @@
       <c r="F57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="84">
+      <c r="G57" s="83">
         <v>9383</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX3</v>
-      </c>
-      <c r="I57" s="80" t="s">
+        <f t="shared" si="0"/>
+        <v>XX83</v>
+      </c>
+      <c r="I57" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>219</v>
       </c>
       <c r="K57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-6746</v>
       </c>
-      <c r="L57" s="97">
+      <c r="L57" s="92">
         <v>8978833554</v>
       </c>
       <c r="M57" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX54</v>
       </c>
       <c r="N57" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O57" s="80" t="s">
+      <c r="O57" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P57" s="29">
-        <v>1103711139</v>
-      </c>
-      <c r="Q57" s="83">
+        <v>102087973</v>
+      </c>
+      <c r="Q57" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7973</v>
+      </c>
+      <c r="R57" s="143">
         <v>1129922942</v>
       </c>
-      <c r="R57" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S57" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="79">
+    <row r="58" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="153">
         <v>407</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -5180,47 +5591,51 @@
       <c r="F58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="84">
+      <c r="G58" s="83">
         <v>12695</v>
       </c>
       <c r="H58" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX5</v>
-      </c>
-      <c r="I58" s="80"/>
+        <f t="shared" si="0"/>
+        <v>XX95</v>
+      </c>
+      <c r="I58" s="79"/>
       <c r="J58" s="1" t="s">
         <v>228</v>
       </c>
       <c r="K58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-4782</v>
       </c>
-      <c r="L58" s="97" t="s">
+      <c r="L58" s="92" t="s">
         <v>230</v>
       </c>
       <c r="M58" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX29</v>
       </c>
       <c r="N58" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O58" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q58" s="83">
+      <c r="O58" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="29">
+        <v>102087974</v>
+      </c>
+      <c r="Q58" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7974</v>
+      </c>
+      <c r="R58" s="143">
         <v>1129922953</v>
       </c>
-      <c r="R58" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S58" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="79">
+    <row r="59" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="153">
         <v>408</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -5238,46 +5653,53 @@
       <c r="F59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="84">
+      <c r="G59" s="83">
         <v>1061</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX1</v>
-      </c>
-      <c r="I59" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L59" s="97">
+        <f t="shared" si="0"/>
+        <v>XX61</v>
+      </c>
+      <c r="I59" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XXXX-XXXX-0278</v>
+      </c>
+      <c r="L59" s="92">
         <v>9731149966</v>
       </c>
       <c r="M59" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX66</v>
       </c>
       <c r="N59" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O59" s="80" t="s">
+      <c r="O59" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="29">
         <v>102087975</v>
       </c>
-      <c r="Q59" s="83">
+      <c r="Q59" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7975</v>
+      </c>
+      <c r="R59" s="143">
         <v>1129922960</v>
       </c>
-      <c r="R59" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S59" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="79">
+    <row r="60" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="153">
         <v>409</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -5295,39 +5717,47 @@
       <c r="F60" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G60" s="84">
+      <c r="G60" s="83">
         <v>9524</v>
       </c>
       <c r="H60" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX4</v>
-      </c>
-      <c r="I60" s="81" t="s">
+        <f t="shared" si="0"/>
+        <v>XX24</v>
+      </c>
+      <c r="I60" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="K60" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L60" s="97">
+        <v>268</v>
+      </c>
+      <c r="L60" s="92">
         <v>9490213534</v>
       </c>
       <c r="M60" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX34</v>
       </c>
       <c r="N60" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O60" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="93"/>
-    </row>
-    <row r="61" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="79">
+      <c r="O60" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="29">
+        <v>102087976</v>
+      </c>
+      <c r="Q60" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7976</v>
+      </c>
+      <c r="R60" s="29"/>
+      <c r="S60" s="144"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="A61" s="153">
         <v>410</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -5336,7 +5766,7 @@
       <c r="C61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="90" t="s">
+      <c r="D61" s="88" t="s">
         <v>114</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -5345,44 +5775,52 @@
       <c r="F61" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G61" s="84">
+      <c r="G61" s="83">
         <v>2270</v>
       </c>
       <c r="H61" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>XXX0</v>
-      </c>
-      <c r="I61" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="97">
+        <f t="shared" si="0"/>
+        <v>XX70</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L61" s="92">
         <v>9440376126</v>
       </c>
       <c r="M61" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX26</v>
       </c>
       <c r="N61" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O61" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="P61" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q61" s="1">
+      <c r="O61" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="P61" s="29">
+        <v>102087977</v>
+      </c>
+      <c r="Q61" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7977</v>
+      </c>
+      <c r="R61" s="143">
         <v>1129922979</v>
       </c>
-      <c r="R61" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S61" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX9</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="79">
+    <row r="62" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="153">
         <v>411</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -5398,102 +5836,115 @@
       <c r="F62" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G62" s="84"/>
+      <c r="G62" s="83"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="80" t="s">
+      <c r="I62" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>XXXX-XXXX-0844</v>
       </c>
-      <c r="L62" s="97">
+      <c r="L62" s="92">
         <v>8019746225</v>
       </c>
       <c r="M62" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>XXXXXXXX25</v>
       </c>
       <c r="N62" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O62" s="81" t="s">
+      <c r="O62" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P62" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q62" s="83">
+      <c r="P62" s="29">
+        <v>102087978</v>
+      </c>
+      <c r="Q62" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7978</v>
+      </c>
+      <c r="R62" s="143">
         <v>1129922983</v>
       </c>
-      <c r="R62" s="93" t="str">
-        <f t="shared" si="2"/>
+      <c r="S62" s="144" t="str">
+        <f t="shared" si="4"/>
         <v>XXXXXXXX3</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="100">
+    <row r="63" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="95">
         <v>412</v>
       </c>
       <c r="B63" s="3"/>
-      <c r="C63" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="84"/>
+      <c r="G63" s="83"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="80" t="s">
+      <c r="I63" s="79" t="s">
         <v>5</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="97"/>
+      <c r="L63" s="92"/>
       <c r="M63" s="29"/>
       <c r="N63" s="1"/>
       <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="83"/>
-      <c r="R63" s="93"/>
-    </row>
-    <row r="64" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="101">
+      <c r="P63" s="29">
+        <v>102087979</v>
+      </c>
+      <c r="Q63" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7979</v>
+      </c>
+      <c r="R63" s="143"/>
+      <c r="S63" s="144"/>
+    </row>
+    <row r="64" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="100">
         <v>501</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="8" t="s">
-        <v>264</v>
-      </c>
+      <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="91"/>
+      <c r="G64" s="89"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="94" t="s">
+      <c r="I64" s="91" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="92"/>
+      <c r="L64" s="94"/>
+      <c r="M64" s="90"/>
       <c r="N64" s="8"/>
-      <c r="O64" s="92"/>
-      <c r="P64" s="92"/>
-      <c r="Q64" s="95"/>
-      <c r="R64" s="96"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90">
+        <v>102087980</v>
+      </c>
+      <c r="Q64" s="90" t="str">
+        <f t="shared" si="3"/>
+        <v>XXXXX7980</v>
+      </c>
+      <c r="R64" s="145"/>
+      <c r="S64" s="146"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:B64" xr:uid="{2E23CD3C-67D9-4948-AFDF-547E042F3E52}"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5508,45 +5959,45 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="28" customWidth="1"/>
-    <col min="9" max="16377" width="8.77734375" style="28"/>
-    <col min="16378" max="16384" width="8.77734375" style="4"/>
+    <col min="9" max="16377" width="8.81640625" style="28"/>
+    <col min="16378" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="114"/>
-      <c r="B1" s="116" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="113"/>
+      <c r="B1" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="118"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="115"/>
-      <c r="B2" s="119" t="s">
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+    </row>
+    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="114"/>
+      <c r="B2" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="121"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
+    </row>
+    <row r="3" spans="1:8" ht="49" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
@@ -5572,7 +6023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
@@ -5598,7 +6049,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
@@ -5624,7 +6075,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="30">
         <v>102</v>
       </c>
@@ -5636,7 +6087,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="30">
         <v>103</v>
       </c>
@@ -5652,7 +6103,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30">
         <v>106</v>
       </c>
@@ -5668,7 +6119,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="30">
         <v>107</v>
       </c>
@@ -5680,7 +6131,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="30">
         <v>110</v>
       </c>
@@ -5706,7 +6157,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="30">
         <v>111</v>
       </c>
@@ -5732,7 +6183,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="30">
         <v>202</v>
       </c>
@@ -5744,7 +6195,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="30">
         <v>203</v>
       </c>
@@ -5762,7 +6213,7 @@
       <c r="G13" s="35"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="30">
         <v>204</v>
       </c>
@@ -5786,7 +6237,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="30">
         <v>206</v>
       </c>
@@ -5800,7 +6251,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="30">
         <v>208</v>
       </c>
@@ -5826,7 +6277,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="30">
         <v>306</v>
       </c>
@@ -5852,7 +6303,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="30">
         <v>307</v>
       </c>
@@ -5878,7 +6329,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="30">
         <v>312</v>
       </c>
@@ -5902,7 +6353,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="30">
         <v>403</v>
       </c>
@@ -5916,7 +6367,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="30">
         <v>404</v>
       </c>
@@ -5942,7 +6393,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="30">
         <v>405</v>
       </c>
@@ -5968,7 +6419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="30">
         <v>406</v>
       </c>
@@ -5994,7 +6445,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="30">
         <v>407</v>
       </c>
@@ -6020,7 +6471,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="35.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="31">
         <v>412</v>
       </c>
@@ -6075,87 +6526,87 @@
       <selection sqref="A1:K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.08984375" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="124"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="125" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="127"/>
-    </row>
-    <row r="3" spans="1:11" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
+    </row>
+    <row r="3" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="K3" s="110" t="s">
+      <c r="K3" s="109" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
@@ -6176,7 +6627,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>6</v>
       </c>
@@ -6189,10 +6640,10 @@
       <c r="D5" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="107"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="53"/>
       <c r="G5" s="54"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="107"/>
       <c r="I5" s="50" t="s">
         <v>201</v>
       </c>
@@ -6201,7 +6652,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
         <v>7</v>
       </c>
@@ -6224,7 +6675,7 @@
         <v>9270</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
         <v>8</v>
       </c>
@@ -6243,7 +6694,7 @@
       <c r="J7" s="48"/>
       <c r="K7" s="62"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="49" t="s">
         <v>9</v>
       </c>
@@ -6258,13 +6709,13 @@
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="107"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="54"/>
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
       <c r="K8" s="62"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
@@ -6285,7 +6736,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
         <v>11</v>
       </c>
@@ -6306,7 +6757,7 @@
       <c r="J10" s="48"/>
       <c r="K10" s="62"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="49" t="s">
         <v>12</v>
       </c>
@@ -6325,7 +6776,7 @@
       <c r="J11" s="48"/>
       <c r="K11" s="62"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
         <v>13</v>
       </c>
@@ -6340,7 +6791,7 @@
       <c r="J12" s="48"/>
       <c r="K12" s="62"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="49" t="s">
         <v>14</v>
       </c>
@@ -6359,7 +6810,7 @@
       <c r="J13" s="48"/>
       <c r="K13" s="62"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
         <v>15</v>
       </c>
@@ -6378,7 +6829,7 @@
       <c r="J14" s="48"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="49" t="s">
         <v>16</v>
       </c>
@@ -6392,14 +6843,14 @@
         <v>86</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="109"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="62"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="49">
         <v>101</v>
       </c>
@@ -6420,7 +6871,7 @@
       <c r="J16" s="48"/>
       <c r="K16" s="62"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49">
         <v>102</v>
       </c>
@@ -6439,7 +6890,7 @@
       <c r="J17" s="48"/>
       <c r="K17" s="62"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56">
         <v>103</v>
       </c>
@@ -6460,7 +6911,7 @@
       <c r="J18" s="48"/>
       <c r="K18" s="62"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49">
         <v>104</v>
       </c>
@@ -6481,7 +6932,7 @@
       <c r="J19" s="48"/>
       <c r="K19" s="62"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49">
         <v>105</v>
       </c>
@@ -6500,7 +6951,7 @@
       <c r="J20" s="48"/>
       <c r="K20" s="62"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="49">
         <v>106</v>
       </c>
@@ -6519,7 +6970,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="62"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="49">
         <v>107</v>
       </c>
@@ -6533,14 +6984,14 @@
         <v>56</v>
       </c>
       <c r="E22" s="50"/>
-      <c r="F22" s="109"/>
+      <c r="F22" s="108"/>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
       <c r="J22" s="48"/>
       <c r="K22" s="62"/>
     </row>
-    <row r="23" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A23" s="49">
         <v>108</v>
       </c>
@@ -6559,17 +7010,17 @@
       <c r="F23" s="48">
         <v>7846880618</v>
       </c>
-      <c r="G23" s="106" t="s">
+      <c r="G23" s="105" t="s">
         <v>190</v>
       </c>
       <c r="H23" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
       <c r="K23" s="62"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="49">
         <v>109</v>
       </c>
@@ -6590,7 +7041,7 @@
       <c r="J24" s="48"/>
       <c r="K24" s="62"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="49">
         <v>110</v>
       </c>
@@ -6602,7 +7053,7 @@
         <v>56</v>
       </c>
       <c r="E25" s="50"/>
-      <c r="F25" s="109"/>
+      <c r="F25" s="108"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="48" t="s">
@@ -6613,7 +7064,7 @@
         <v>9054</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="49">
         <v>111</v>
       </c>
@@ -6636,7 +7087,7 @@
         <v>9114</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49">
         <v>112</v>
       </c>
@@ -6648,14 +7099,14 @@
         <v>86</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="109"/>
+      <c r="F27" s="108"/>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
       <c r="J27" s="48"/>
       <c r="K27" s="62"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="49">
         <v>201</v>
       </c>
@@ -6676,7 +7127,7 @@
       <c r="J28" s="48"/>
       <c r="K28" s="62"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49">
         <v>202</v>
       </c>
@@ -6697,7 +7148,7 @@
       <c r="J29" s="48"/>
       <c r="K29" s="62"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49">
         <v>203</v>
       </c>
@@ -6718,7 +7169,7 @@
       <c r="J30" s="48"/>
       <c r="K30" s="62"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49">
         <v>204</v>
       </c>
@@ -6739,7 +7190,7 @@
       <c r="J31" s="48"/>
       <c r="K31" s="62"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="49">
         <v>205</v>
       </c>
@@ -6758,7 +7209,7 @@
       <c r="J32" s="48"/>
       <c r="K32" s="62"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="49">
         <v>206</v>
       </c>
@@ -6772,14 +7223,14 @@
         <v>56</v>
       </c>
       <c r="E33" s="50"/>
-      <c r="F33" s="109"/>
+      <c r="F33" s="108"/>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
       <c r="J33" s="48"/>
       <c r="K33" s="62"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="49">
         <v>207</v>
       </c>
@@ -6793,14 +7244,14 @@
         <v>56</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="109"/>
+      <c r="F34" s="108"/>
       <c r="G34" s="48"/>
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
       <c r="J34" s="48"/>
       <c r="K34" s="62"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="49">
         <v>208</v>
       </c>
@@ -6817,17 +7268,17 @@
       <c r="F35" s="48">
         <v>9676592931</v>
       </c>
-      <c r="G35" s="106" t="s">
+      <c r="G35" s="105" t="s">
         <v>154</v>
       </c>
       <c r="H35" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
       <c r="K35" s="62"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="49">
         <v>209</v>
       </c>
@@ -6852,7 +7303,7 @@
       <c r="J36" s="48"/>
       <c r="K36" s="62"/>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="49">
         <v>210</v>
       </c>
@@ -6866,14 +7317,14 @@
         <v>86</v>
       </c>
       <c r="E37" s="50"/>
-      <c r="F37" s="109"/>
+      <c r="F37" s="108"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
       <c r="J37" s="48"/>
       <c r="K37" s="62"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="49">
         <v>211</v>
       </c>
@@ -6887,14 +7338,14 @@
         <v>86</v>
       </c>
       <c r="E38" s="50"/>
-      <c r="F38" s="109"/>
+      <c r="F38" s="108"/>
       <c r="G38" s="48"/>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="62"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="49">
         <v>212</v>
       </c>
@@ -6913,7 +7364,7 @@
       <c r="J39" s="48"/>
       <c r="K39" s="62"/>
     </row>
-    <row r="40" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A40" s="49">
         <v>301</v>
       </c>
@@ -6940,7 +7391,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="49">
         <v>302</v>
       </c>
@@ -6959,7 +7410,7 @@
       <c r="J41" s="48"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="49">
         <v>303</v>
       </c>
@@ -6980,7 +7431,7 @@
       <c r="J42" s="48"/>
       <c r="K42" s="62"/>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="49">
         <v>304</v>
       </c>
@@ -7001,7 +7452,7 @@
       <c r="J43" s="48"/>
       <c r="K43" s="62"/>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="49">
         <v>305</v>
       </c>
@@ -7022,7 +7473,7 @@
       <c r="J44" s="48"/>
       <c r="K44" s="62"/>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="49">
         <v>306</v>
       </c>
@@ -7034,7 +7485,7 @@
         <v>56</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="109"/>
+      <c r="F45" s="108"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="48" t="s">
@@ -7045,7 +7496,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A46" s="49">
         <v>307</v>
       </c>
@@ -7059,7 +7510,7 @@
         <v>86</v>
       </c>
       <c r="E46" s="50"/>
-      <c r="F46" s="109"/>
+      <c r="F46" s="108"/>
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
       <c r="I46" s="48" t="s">
@@ -7070,7 +7521,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="49">
         <v>308</v>
       </c>
@@ -7084,14 +7535,14 @@
         <v>86</v>
       </c>
       <c r="E47" s="50"/>
-      <c r="F47" s="109"/>
+      <c r="F47" s="108"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
       <c r="I47" s="48"/>
       <c r="J47" s="48"/>
       <c r="K47" s="62"/>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="49">
         <v>309</v>
       </c>
@@ -7105,14 +7556,14 @@
         <v>86</v>
       </c>
       <c r="E48" s="50"/>
-      <c r="F48" s="109"/>
+      <c r="F48" s="108"/>
       <c r="G48" s="48"/>
       <c r="H48" s="48"/>
       <c r="I48" s="48"/>
       <c r="J48" s="48"/>
       <c r="K48" s="62"/>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="49">
         <v>310</v>
       </c>
@@ -7131,7 +7582,7 @@
       <c r="J49" s="48"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="49">
         <v>311</v>
       </c>
@@ -7145,14 +7596,14 @@
         <v>56</v>
       </c>
       <c r="E50" s="50"/>
-      <c r="F50" s="109"/>
+      <c r="F50" s="108"/>
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
       <c r="I50" s="48"/>
       <c r="J50" s="48"/>
       <c r="K50" s="62"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="49">
         <v>312</v>
       </c>
@@ -7173,7 +7624,7 @@
       <c r="J51" s="48"/>
       <c r="K51" s="62"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="49">
         <v>401</v>
       </c>
@@ -7194,7 +7645,7 @@
       <c r="J52" s="48"/>
       <c r="K52" s="62"/>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="49">
         <v>402</v>
       </c>
@@ -7215,7 +7666,7 @@
       <c r="J53" s="48"/>
       <c r="K53" s="62"/>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="49">
         <v>403</v>
       </c>
@@ -7234,7 +7685,7 @@
       <c r="J54" s="48"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="49">
         <v>404</v>
       </c>
@@ -7246,7 +7697,7 @@
         <v>56</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="109"/>
+      <c r="F55" s="108"/>
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
       <c r="I55" s="48" t="s">
@@ -7257,7 +7708,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="49">
         <v>405</v>
       </c>
@@ -7276,7 +7727,7 @@
       <c r="J56" s="48"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="49">
         <v>406</v>
       </c>
@@ -7288,7 +7739,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="50"/>
-      <c r="F57" s="109"/>
+      <c r="F57" s="108"/>
       <c r="G57" s="48"/>
       <c r="H57" s="48"/>
       <c r="I57" s="48" t="s">
@@ -7299,7 +7750,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="49">
         <v>407</v>
       </c>
@@ -7332,7 +7783,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="49">
         <v>408</v>
       </c>
@@ -7346,14 +7797,14 @@
         <v>86</v>
       </c>
       <c r="E59" s="50"/>
-      <c r="F59" s="109"/>
+      <c r="F59" s="108"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
       <c r="I59" s="48"/>
       <c r="J59" s="48"/>
       <c r="K59" s="62"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="49">
         <v>409</v>
       </c>
@@ -7374,7 +7825,7 @@
       <c r="J60" s="48"/>
       <c r="K60" s="62"/>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="49">
         <v>410</v>
       </c>
@@ -7388,14 +7839,14 @@
         <v>86</v>
       </c>
       <c r="E61" s="50"/>
-      <c r="F61" s="109"/>
+      <c r="F61" s="108"/>
       <c r="G61" s="48"/>
       <c r="H61" s="48"/>
       <c r="I61" s="48"/>
       <c r="J61" s="48"/>
       <c r="K61" s="62"/>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="49">
         <v>411</v>
       </c>
@@ -7409,14 +7860,14 @@
         <v>56</v>
       </c>
       <c r="E62" s="50"/>
-      <c r="F62" s="109"/>
+      <c r="F62" s="108"/>
       <c r="G62" s="48"/>
       <c r="H62" s="48"/>
       <c r="I62" s="48"/>
       <c r="J62" s="48"/>
       <c r="K62" s="62"/>
     </row>
-    <row r="63" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A63" s="49">
         <v>412</v>
       </c>
@@ -7447,7 +7898,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="61">
         <v>501</v>
       </c>
@@ -7458,10 +7909,10 @@
       <c r="D64" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="111"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="113"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="112"/>
+      <c r="H64" s="112"/>
       <c r="I64" s="59"/>
       <c r="J64" s="59"/>
       <c r="K64" s="68"/>
@@ -7488,59 +7939,59 @@
       <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.8">
+      <c r="A1" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="128" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="134"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="133"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="129" t="s">
+    <row r="2" spans="1:13" ht="31" x14ac:dyDescent="0.7">
+      <c r="A2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="135"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
@@ -7571,7 +8022,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
@@ -7590,7 +8041,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
@@ -7609,7 +8060,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="69" t="s">
         <v>7</v>
       </c>
@@ -7628,7 +8079,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="69" t="s">
         <v>8</v>
       </c>
@@ -7647,7 +8098,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="69" t="s">
         <v>9</v>
       </c>
@@ -7666,7 +8117,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="69" t="s">
         <v>10</v>
       </c>
@@ -7685,7 +8136,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="69" t="s">
         <v>11</v>
       </c>
@@ -7704,7 +8155,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="69" t="s">
         <v>12</v>
       </c>
@@ -7723,7 +8174,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="69" t="s">
         <v>13</v>
       </c>
@@ -7742,7 +8193,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="69" t="s">
         <v>14</v>
       </c>
@@ -7761,7 +8212,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="69" t="s">
         <v>15</v>
       </c>
@@ -7780,7 +8231,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="69" t="s">
         <v>16</v>
       </c>
@@ -7799,7 +8250,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="69">
         <v>101</v>
       </c>
@@ -7818,7 +8269,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="69">
         <v>102</v>
       </c>
@@ -7837,7 +8288,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="69">
         <v>103</v>
       </c>
@@ -7856,7 +8307,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="69">
         <v>104</v>
       </c>
@@ -7875,7 +8326,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="69">
         <v>105</v>
       </c>
@@ -7894,7 +8345,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="69">
         <v>106</v>
       </c>
@@ -7913,7 +8364,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="69">
         <v>107</v>
       </c>
@@ -7932,7 +8383,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="69">
         <v>108</v>
       </c>
@@ -7951,7 +8402,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="69">
         <v>109</v>
       </c>
@@ -7970,7 +8421,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="69">
         <v>110</v>
       </c>
@@ -7989,7 +8440,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="69">
         <v>111</v>
       </c>
@@ -8008,7 +8459,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="69">
         <v>112</v>
       </c>
@@ -8027,7 +8478,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="69">
         <v>201</v>
       </c>
@@ -8046,7 +8497,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="69">
         <v>202</v>
       </c>
@@ -8065,7 +8516,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="69">
         <v>203</v>
       </c>
@@ -8084,7 +8535,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="69">
         <v>204</v>
       </c>
@@ -8103,7 +8554,7 @@
       <c r="L31" s="13"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="69">
         <v>205</v>
       </c>
@@ -8122,7 +8573,7 @@
       <c r="L32" s="13"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="69">
         <v>206</v>
       </c>
@@ -8141,7 +8592,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="70">
         <v>207</v>
       </c>
@@ -8158,7 +8609,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -8166,7 +8617,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -8174,7 +8625,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -8182,7 +8633,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -8190,7 +8641,7 @@
       <c r="L38" s="13"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -8198,7 +8649,7 @@
       <c r="L39" s="13"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -8206,7 +8657,7 @@
       <c r="L40" s="13"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -8214,7 +8665,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -8222,7 +8673,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
@@ -8230,7 +8681,7 @@
       <c r="L43" s="13"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -8238,7 +8689,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -8246,7 +8697,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
@@ -8254,7 +8705,7 @@
       <c r="L46" s="13"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -8262,7 +8713,7 @@
       <c r="L47" s="13"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -8270,7 +8721,7 @@
       <c r="L48" s="13"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -8278,7 +8729,7 @@
       <c r="L49" s="13"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
@@ -8286,7 +8737,7 @@
       <c r="L50" s="13"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
@@ -8294,7 +8745,7 @@
       <c r="L51" s="13"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -8302,7 +8753,7 @@
       <c r="L52" s="13"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
@@ -8310,7 +8761,7 @@
       <c r="L53" s="13"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -8318,7 +8769,7 @@
       <c r="L54" s="13"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -8326,7 +8777,7 @@
       <c r="L55" s="13"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -8334,7 +8785,7 @@
       <c r="L56" s="13"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -8342,7 +8793,7 @@
       <c r="L57" s="13"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -8350,7 +8801,7 @@
       <c r="L58" s="13"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -8358,7 +8809,7 @@
       <c r="L59" s="13"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -8366,7 +8817,7 @@
       <c r="L60" s="13"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -8374,7 +8825,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="8:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:13" ht="35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -8407,49 +8858,49 @@
       <selection sqref="A1:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="41.1796875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="41.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="41.36328125" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="24"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="136"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="135"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="5"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="137"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="136"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
@@ -8481,7 +8932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
@@ -8497,7 +8948,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -8513,7 +8964,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -8529,7 +8980,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -8545,7 +8996,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -8561,7 +9012,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
@@ -8577,7 +9028,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
@@ -8593,7 +9044,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
@@ -8609,7 +9060,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
@@ -8625,7 +9076,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
@@ -8641,7 +9092,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -8657,7 +9108,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
@@ -8673,7 +9124,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="19">
         <v>101</v>
       </c>
@@ -8689,7 +9140,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19">
         <v>102</v>
       </c>
@@ -8705,7 +9156,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="19">
         <v>103</v>
       </c>
@@ -8721,7 +9172,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19">
         <v>104</v>
       </c>
@@ -8737,7 +9188,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19">
         <v>105</v>
       </c>
@@ -8753,7 +9204,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19">
         <v>106</v>
       </c>
@@ -8769,7 +9220,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19">
         <v>107</v>
       </c>
@@ -8785,7 +9236,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19">
         <v>108</v>
       </c>
@@ -8801,7 +9252,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="19">
         <v>109</v>
       </c>
@@ -8817,7 +9268,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19">
         <v>110</v>
       </c>
@@ -8833,7 +9284,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="19">
         <v>111</v>
       </c>
@@ -8849,7 +9300,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19">
         <v>112</v>
       </c>
@@ -8865,7 +9316,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="19">
         <v>201</v>
       </c>
@@ -8881,7 +9332,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19">
         <v>202</v>
       </c>
@@ -8897,7 +9348,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="19">
         <v>203</v>
       </c>
@@ -8913,7 +9364,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19">
         <v>204</v>
       </c>
@@ -8929,7 +9380,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="19">
         <v>205</v>
       </c>
@@ -8945,7 +9396,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="20">
         <v>206</v>
       </c>
